--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Software_Engineering\ATM_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Chrome download\ATM_Project-Main\ATM_Project-Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A41CE5-45C9-4CBE-997B-7A7AB0711C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE481BDE-070D-412E-AD58-B1C9BA4E3400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Pin Code</t>
   </si>
@@ -39,6 +39,24 @@
   </si>
   <si>
     <t>Transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>UniqueNumber</t>
+  </si>
+  <si>
+    <t>User Number</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -74,11 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,32 +378,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="8.7265625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB19EB5-B9D8-46B4-B5F7-4C15827FC363}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20557,23 +20613,1650 @@
     </row>
   </sheetData>
   <mergeCells count="1679">
-    <mergeCell ref="F1675:O1675"/>
-    <mergeCell ref="F1676:O1676"/>
-    <mergeCell ref="F1677:O1677"/>
-    <mergeCell ref="F1678:O1678"/>
-    <mergeCell ref="F1679:O1679"/>
-    <mergeCell ref="F1669:O1669"/>
-    <mergeCell ref="F1670:O1670"/>
-    <mergeCell ref="F1671:O1671"/>
-    <mergeCell ref="F1672:O1672"/>
-    <mergeCell ref="F1673:O1673"/>
-    <mergeCell ref="F1674:O1674"/>
-    <mergeCell ref="F1663:O1663"/>
-    <mergeCell ref="F1664:O1664"/>
-    <mergeCell ref="F1665:O1665"/>
-    <mergeCell ref="F1666:O1666"/>
-    <mergeCell ref="F1667:O1667"/>
-    <mergeCell ref="F1668:O1668"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="F37:O37"/>
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="F41:O41"/>
+    <mergeCell ref="F42:O42"/>
+    <mergeCell ref="F31:O31"/>
+    <mergeCell ref="F32:O32"/>
+    <mergeCell ref="F33:O33"/>
+    <mergeCell ref="F34:O34"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="F27:O27"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="F29:O29"/>
+    <mergeCell ref="F30:O30"/>
+    <mergeCell ref="F55:O55"/>
+    <mergeCell ref="F56:O56"/>
+    <mergeCell ref="F57:O57"/>
+    <mergeCell ref="F58:O58"/>
+    <mergeCell ref="F59:O59"/>
+    <mergeCell ref="F60:O60"/>
+    <mergeCell ref="F49:O49"/>
+    <mergeCell ref="F50:O50"/>
+    <mergeCell ref="F51:O51"/>
+    <mergeCell ref="F52:O52"/>
+    <mergeCell ref="F53:O53"/>
+    <mergeCell ref="F54:O54"/>
+    <mergeCell ref="F43:O43"/>
+    <mergeCell ref="F44:O44"/>
+    <mergeCell ref="F45:O45"/>
+    <mergeCell ref="F46:O46"/>
+    <mergeCell ref="F47:O47"/>
+    <mergeCell ref="F48:O48"/>
+    <mergeCell ref="F73:O73"/>
+    <mergeCell ref="F74:O74"/>
+    <mergeCell ref="F75:O75"/>
+    <mergeCell ref="F76:O76"/>
+    <mergeCell ref="F77:O77"/>
+    <mergeCell ref="F78:O78"/>
+    <mergeCell ref="F67:O67"/>
+    <mergeCell ref="F68:O68"/>
+    <mergeCell ref="F69:O69"/>
+    <mergeCell ref="F70:O70"/>
+    <mergeCell ref="F71:O71"/>
+    <mergeCell ref="F72:O72"/>
+    <mergeCell ref="F61:O61"/>
+    <mergeCell ref="F62:O62"/>
+    <mergeCell ref="F63:O63"/>
+    <mergeCell ref="F64:O64"/>
+    <mergeCell ref="F65:O65"/>
+    <mergeCell ref="F66:O66"/>
+    <mergeCell ref="F91:O91"/>
+    <mergeCell ref="F92:O92"/>
+    <mergeCell ref="F93:O93"/>
+    <mergeCell ref="F94:O94"/>
+    <mergeCell ref="F95:O95"/>
+    <mergeCell ref="F96:O96"/>
+    <mergeCell ref="F85:O85"/>
+    <mergeCell ref="F86:O86"/>
+    <mergeCell ref="F87:O87"/>
+    <mergeCell ref="F88:O88"/>
+    <mergeCell ref="F89:O89"/>
+    <mergeCell ref="F90:O90"/>
+    <mergeCell ref="F79:O79"/>
+    <mergeCell ref="F80:O80"/>
+    <mergeCell ref="F81:O81"/>
+    <mergeCell ref="F82:O82"/>
+    <mergeCell ref="F83:O83"/>
+    <mergeCell ref="F84:O84"/>
+    <mergeCell ref="F109:O109"/>
+    <mergeCell ref="F110:O110"/>
+    <mergeCell ref="F111:O111"/>
+    <mergeCell ref="F112:O112"/>
+    <mergeCell ref="F113:O113"/>
+    <mergeCell ref="F114:O114"/>
+    <mergeCell ref="F103:O103"/>
+    <mergeCell ref="F104:O104"/>
+    <mergeCell ref="F105:O105"/>
+    <mergeCell ref="F106:O106"/>
+    <mergeCell ref="F107:O107"/>
+    <mergeCell ref="F108:O108"/>
+    <mergeCell ref="F97:O97"/>
+    <mergeCell ref="F98:O98"/>
+    <mergeCell ref="F99:O99"/>
+    <mergeCell ref="F100:O100"/>
+    <mergeCell ref="F101:O101"/>
+    <mergeCell ref="F102:O102"/>
+    <mergeCell ref="F127:O127"/>
+    <mergeCell ref="F128:O128"/>
+    <mergeCell ref="F129:O129"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="F121:O121"/>
+    <mergeCell ref="F122:O122"/>
+    <mergeCell ref="F123:O123"/>
+    <mergeCell ref="F124:O124"/>
+    <mergeCell ref="F125:O125"/>
+    <mergeCell ref="F126:O126"/>
+    <mergeCell ref="F115:O115"/>
+    <mergeCell ref="F116:O116"/>
+    <mergeCell ref="F117:O117"/>
+    <mergeCell ref="F118:O118"/>
+    <mergeCell ref="F119:O119"/>
+    <mergeCell ref="F120:O120"/>
+    <mergeCell ref="F145:O145"/>
+    <mergeCell ref="F146:O146"/>
+    <mergeCell ref="F147:O147"/>
+    <mergeCell ref="F148:O148"/>
+    <mergeCell ref="F149:O149"/>
+    <mergeCell ref="F150:O150"/>
+    <mergeCell ref="F139:O139"/>
+    <mergeCell ref="F140:O140"/>
+    <mergeCell ref="F141:O141"/>
+    <mergeCell ref="F142:O142"/>
+    <mergeCell ref="F143:O143"/>
+    <mergeCell ref="F144:O144"/>
+    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="F134:O134"/>
+    <mergeCell ref="F135:O135"/>
+    <mergeCell ref="F136:O136"/>
+    <mergeCell ref="F137:O137"/>
+    <mergeCell ref="F138:O138"/>
+    <mergeCell ref="F163:O163"/>
+    <mergeCell ref="F164:O164"/>
+    <mergeCell ref="F165:O165"/>
+    <mergeCell ref="F166:O166"/>
+    <mergeCell ref="F167:O167"/>
+    <mergeCell ref="F168:O168"/>
+    <mergeCell ref="F157:O157"/>
+    <mergeCell ref="F158:O158"/>
+    <mergeCell ref="F159:O159"/>
+    <mergeCell ref="F160:O160"/>
+    <mergeCell ref="F161:O161"/>
+    <mergeCell ref="F162:O162"/>
+    <mergeCell ref="F151:O151"/>
+    <mergeCell ref="F152:O152"/>
+    <mergeCell ref="F153:O153"/>
+    <mergeCell ref="F154:O154"/>
+    <mergeCell ref="F155:O155"/>
+    <mergeCell ref="F156:O156"/>
+    <mergeCell ref="F181:O181"/>
+    <mergeCell ref="F182:O182"/>
+    <mergeCell ref="F183:O183"/>
+    <mergeCell ref="F184:O184"/>
+    <mergeCell ref="F185:O185"/>
+    <mergeCell ref="F186:O186"/>
+    <mergeCell ref="F175:O175"/>
+    <mergeCell ref="F176:O176"/>
+    <mergeCell ref="F177:O177"/>
+    <mergeCell ref="F178:O178"/>
+    <mergeCell ref="F179:O179"/>
+    <mergeCell ref="F180:O180"/>
+    <mergeCell ref="F169:O169"/>
+    <mergeCell ref="F170:O170"/>
+    <mergeCell ref="F171:O171"/>
+    <mergeCell ref="F172:O172"/>
+    <mergeCell ref="F173:O173"/>
+    <mergeCell ref="F174:O174"/>
+    <mergeCell ref="F199:O199"/>
+    <mergeCell ref="F200:O200"/>
+    <mergeCell ref="F201:O201"/>
+    <mergeCell ref="F202:O202"/>
+    <mergeCell ref="F203:O203"/>
+    <mergeCell ref="F204:O204"/>
+    <mergeCell ref="F193:O193"/>
+    <mergeCell ref="F194:O194"/>
+    <mergeCell ref="F195:O195"/>
+    <mergeCell ref="F196:O196"/>
+    <mergeCell ref="F197:O197"/>
+    <mergeCell ref="F198:O198"/>
+    <mergeCell ref="F187:O187"/>
+    <mergeCell ref="F188:O188"/>
+    <mergeCell ref="F189:O189"/>
+    <mergeCell ref="F190:O190"/>
+    <mergeCell ref="F191:O191"/>
+    <mergeCell ref="F192:O192"/>
+    <mergeCell ref="F217:O217"/>
+    <mergeCell ref="F218:O218"/>
+    <mergeCell ref="F219:O219"/>
+    <mergeCell ref="F220:O220"/>
+    <mergeCell ref="F221:O221"/>
+    <mergeCell ref="F222:O222"/>
+    <mergeCell ref="F211:O211"/>
+    <mergeCell ref="F212:O212"/>
+    <mergeCell ref="F213:O213"/>
+    <mergeCell ref="F214:O214"/>
+    <mergeCell ref="F215:O215"/>
+    <mergeCell ref="F216:O216"/>
+    <mergeCell ref="F205:O205"/>
+    <mergeCell ref="F206:O206"/>
+    <mergeCell ref="F207:O207"/>
+    <mergeCell ref="F208:O208"/>
+    <mergeCell ref="F209:O209"/>
+    <mergeCell ref="F210:O210"/>
+    <mergeCell ref="F235:O235"/>
+    <mergeCell ref="F236:O236"/>
+    <mergeCell ref="F237:O237"/>
+    <mergeCell ref="F238:O238"/>
+    <mergeCell ref="F239:O239"/>
+    <mergeCell ref="F240:O240"/>
+    <mergeCell ref="F229:O229"/>
+    <mergeCell ref="F230:O230"/>
+    <mergeCell ref="F231:O231"/>
+    <mergeCell ref="F232:O232"/>
+    <mergeCell ref="F233:O233"/>
+    <mergeCell ref="F234:O234"/>
+    <mergeCell ref="F223:O223"/>
+    <mergeCell ref="F224:O224"/>
+    <mergeCell ref="F225:O225"/>
+    <mergeCell ref="F226:O226"/>
+    <mergeCell ref="F227:O227"/>
+    <mergeCell ref="F228:O228"/>
+    <mergeCell ref="F253:O253"/>
+    <mergeCell ref="F254:O254"/>
+    <mergeCell ref="F255:O255"/>
+    <mergeCell ref="F256:O256"/>
+    <mergeCell ref="F257:O257"/>
+    <mergeCell ref="F258:O258"/>
+    <mergeCell ref="F247:O247"/>
+    <mergeCell ref="F248:O248"/>
+    <mergeCell ref="F249:O249"/>
+    <mergeCell ref="F250:O250"/>
+    <mergeCell ref="F251:O251"/>
+    <mergeCell ref="F252:O252"/>
+    <mergeCell ref="F241:O241"/>
+    <mergeCell ref="F242:O242"/>
+    <mergeCell ref="F243:O243"/>
+    <mergeCell ref="F244:O244"/>
+    <mergeCell ref="F245:O245"/>
+    <mergeCell ref="F246:O246"/>
+    <mergeCell ref="F271:O271"/>
+    <mergeCell ref="F272:O272"/>
+    <mergeCell ref="F273:O273"/>
+    <mergeCell ref="F274:O274"/>
+    <mergeCell ref="F275:O275"/>
+    <mergeCell ref="F276:O276"/>
+    <mergeCell ref="F265:O265"/>
+    <mergeCell ref="F266:O266"/>
+    <mergeCell ref="F267:O267"/>
+    <mergeCell ref="F268:O268"/>
+    <mergeCell ref="F269:O269"/>
+    <mergeCell ref="F270:O270"/>
+    <mergeCell ref="F259:O259"/>
+    <mergeCell ref="F260:O260"/>
+    <mergeCell ref="F261:O261"/>
+    <mergeCell ref="F262:O262"/>
+    <mergeCell ref="F263:O263"/>
+    <mergeCell ref="F264:O264"/>
+    <mergeCell ref="F289:O289"/>
+    <mergeCell ref="F290:O290"/>
+    <mergeCell ref="F291:O291"/>
+    <mergeCell ref="F292:O292"/>
+    <mergeCell ref="F293:O293"/>
+    <mergeCell ref="F294:O294"/>
+    <mergeCell ref="F283:O283"/>
+    <mergeCell ref="F284:O284"/>
+    <mergeCell ref="F285:O285"/>
+    <mergeCell ref="F286:O286"/>
+    <mergeCell ref="F287:O287"/>
+    <mergeCell ref="F288:O288"/>
+    <mergeCell ref="F277:O277"/>
+    <mergeCell ref="F278:O278"/>
+    <mergeCell ref="F279:O279"/>
+    <mergeCell ref="F280:O280"/>
+    <mergeCell ref="F281:O281"/>
+    <mergeCell ref="F282:O282"/>
+    <mergeCell ref="F307:O307"/>
+    <mergeCell ref="F308:O308"/>
+    <mergeCell ref="F309:O309"/>
+    <mergeCell ref="F310:O310"/>
+    <mergeCell ref="F311:O311"/>
+    <mergeCell ref="F312:O312"/>
+    <mergeCell ref="F301:O301"/>
+    <mergeCell ref="F302:O302"/>
+    <mergeCell ref="F303:O303"/>
+    <mergeCell ref="F304:O304"/>
+    <mergeCell ref="F305:O305"/>
+    <mergeCell ref="F306:O306"/>
+    <mergeCell ref="F295:O295"/>
+    <mergeCell ref="F296:O296"/>
+    <mergeCell ref="F297:O297"/>
+    <mergeCell ref="F298:O298"/>
+    <mergeCell ref="F299:O299"/>
+    <mergeCell ref="F300:O300"/>
+    <mergeCell ref="F325:O325"/>
+    <mergeCell ref="F326:O326"/>
+    <mergeCell ref="F327:O327"/>
+    <mergeCell ref="F328:O328"/>
+    <mergeCell ref="F329:O329"/>
+    <mergeCell ref="F330:O330"/>
+    <mergeCell ref="F319:O319"/>
+    <mergeCell ref="F320:O320"/>
+    <mergeCell ref="F321:O321"/>
+    <mergeCell ref="F322:O322"/>
+    <mergeCell ref="F323:O323"/>
+    <mergeCell ref="F324:O324"/>
+    <mergeCell ref="F313:O313"/>
+    <mergeCell ref="F314:O314"/>
+    <mergeCell ref="F315:O315"/>
+    <mergeCell ref="F316:O316"/>
+    <mergeCell ref="F317:O317"/>
+    <mergeCell ref="F318:O318"/>
+    <mergeCell ref="F343:O343"/>
+    <mergeCell ref="F344:O344"/>
+    <mergeCell ref="F345:O345"/>
+    <mergeCell ref="F346:O346"/>
+    <mergeCell ref="F347:O347"/>
+    <mergeCell ref="F348:O348"/>
+    <mergeCell ref="F337:O337"/>
+    <mergeCell ref="F338:O338"/>
+    <mergeCell ref="F339:O339"/>
+    <mergeCell ref="F340:O340"/>
+    <mergeCell ref="F341:O341"/>
+    <mergeCell ref="F342:O342"/>
+    <mergeCell ref="F331:O331"/>
+    <mergeCell ref="F332:O332"/>
+    <mergeCell ref="F333:O333"/>
+    <mergeCell ref="F334:O334"/>
+    <mergeCell ref="F335:O335"/>
+    <mergeCell ref="F336:O336"/>
+    <mergeCell ref="F361:O361"/>
+    <mergeCell ref="F362:O362"/>
+    <mergeCell ref="F363:O363"/>
+    <mergeCell ref="F364:O364"/>
+    <mergeCell ref="F365:O365"/>
+    <mergeCell ref="F366:O366"/>
+    <mergeCell ref="F355:O355"/>
+    <mergeCell ref="F356:O356"/>
+    <mergeCell ref="F357:O357"/>
+    <mergeCell ref="F358:O358"/>
+    <mergeCell ref="F359:O359"/>
+    <mergeCell ref="F360:O360"/>
+    <mergeCell ref="F349:O349"/>
+    <mergeCell ref="F350:O350"/>
+    <mergeCell ref="F351:O351"/>
+    <mergeCell ref="F352:O352"/>
+    <mergeCell ref="F353:O353"/>
+    <mergeCell ref="F354:O354"/>
+    <mergeCell ref="F379:O379"/>
+    <mergeCell ref="F380:O380"/>
+    <mergeCell ref="F381:O381"/>
+    <mergeCell ref="F382:O382"/>
+    <mergeCell ref="F383:O383"/>
+    <mergeCell ref="F384:O384"/>
+    <mergeCell ref="F373:O373"/>
+    <mergeCell ref="F374:O374"/>
+    <mergeCell ref="F375:O375"/>
+    <mergeCell ref="F376:O376"/>
+    <mergeCell ref="F377:O377"/>
+    <mergeCell ref="F378:O378"/>
+    <mergeCell ref="F367:O367"/>
+    <mergeCell ref="F368:O368"/>
+    <mergeCell ref="F369:O369"/>
+    <mergeCell ref="F370:O370"/>
+    <mergeCell ref="F371:O371"/>
+    <mergeCell ref="F372:O372"/>
+    <mergeCell ref="F397:O397"/>
+    <mergeCell ref="F398:O398"/>
+    <mergeCell ref="F399:O399"/>
+    <mergeCell ref="F400:O400"/>
+    <mergeCell ref="F401:O401"/>
+    <mergeCell ref="F402:O402"/>
+    <mergeCell ref="F391:O391"/>
+    <mergeCell ref="F392:O392"/>
+    <mergeCell ref="F393:O393"/>
+    <mergeCell ref="F394:O394"/>
+    <mergeCell ref="F395:O395"/>
+    <mergeCell ref="F396:O396"/>
+    <mergeCell ref="F385:O385"/>
+    <mergeCell ref="F386:O386"/>
+    <mergeCell ref="F387:O387"/>
+    <mergeCell ref="F388:O388"/>
+    <mergeCell ref="F389:O389"/>
+    <mergeCell ref="F390:O390"/>
+    <mergeCell ref="F415:O415"/>
+    <mergeCell ref="F416:O416"/>
+    <mergeCell ref="F417:O417"/>
+    <mergeCell ref="F418:O418"/>
+    <mergeCell ref="F419:O419"/>
+    <mergeCell ref="F420:O420"/>
+    <mergeCell ref="F409:O409"/>
+    <mergeCell ref="F410:O410"/>
+    <mergeCell ref="F411:O411"/>
+    <mergeCell ref="F412:O412"/>
+    <mergeCell ref="F413:O413"/>
+    <mergeCell ref="F414:O414"/>
+    <mergeCell ref="F403:O403"/>
+    <mergeCell ref="F404:O404"/>
+    <mergeCell ref="F405:O405"/>
+    <mergeCell ref="F406:O406"/>
+    <mergeCell ref="F407:O407"/>
+    <mergeCell ref="F408:O408"/>
+    <mergeCell ref="F433:O433"/>
+    <mergeCell ref="F434:O434"/>
+    <mergeCell ref="F435:O435"/>
+    <mergeCell ref="F436:O436"/>
+    <mergeCell ref="F437:O437"/>
+    <mergeCell ref="F438:O438"/>
+    <mergeCell ref="F427:O427"/>
+    <mergeCell ref="F428:O428"/>
+    <mergeCell ref="F429:O429"/>
+    <mergeCell ref="F430:O430"/>
+    <mergeCell ref="F431:O431"/>
+    <mergeCell ref="F432:O432"/>
+    <mergeCell ref="F421:O421"/>
+    <mergeCell ref="F422:O422"/>
+    <mergeCell ref="F423:O423"/>
+    <mergeCell ref="F424:O424"/>
+    <mergeCell ref="F425:O425"/>
+    <mergeCell ref="F426:O426"/>
+    <mergeCell ref="F451:O451"/>
+    <mergeCell ref="F452:O452"/>
+    <mergeCell ref="F453:O453"/>
+    <mergeCell ref="F454:O454"/>
+    <mergeCell ref="F455:O455"/>
+    <mergeCell ref="F456:O456"/>
+    <mergeCell ref="F445:O445"/>
+    <mergeCell ref="F446:O446"/>
+    <mergeCell ref="F447:O447"/>
+    <mergeCell ref="F448:O448"/>
+    <mergeCell ref="F449:O449"/>
+    <mergeCell ref="F450:O450"/>
+    <mergeCell ref="F439:O439"/>
+    <mergeCell ref="F440:O440"/>
+    <mergeCell ref="F441:O441"/>
+    <mergeCell ref="F442:O442"/>
+    <mergeCell ref="F443:O443"/>
+    <mergeCell ref="F444:O444"/>
+    <mergeCell ref="F469:O469"/>
+    <mergeCell ref="F470:O470"/>
+    <mergeCell ref="F471:O471"/>
+    <mergeCell ref="F472:O472"/>
+    <mergeCell ref="F473:O473"/>
+    <mergeCell ref="F474:O474"/>
+    <mergeCell ref="F463:O463"/>
+    <mergeCell ref="F464:O464"/>
+    <mergeCell ref="F465:O465"/>
+    <mergeCell ref="F466:O466"/>
+    <mergeCell ref="F467:O467"/>
+    <mergeCell ref="F468:O468"/>
+    <mergeCell ref="F457:O457"/>
+    <mergeCell ref="F458:O458"/>
+    <mergeCell ref="F459:O459"/>
+    <mergeCell ref="F460:O460"/>
+    <mergeCell ref="F461:O461"/>
+    <mergeCell ref="F462:O462"/>
+    <mergeCell ref="F487:O487"/>
+    <mergeCell ref="F488:O488"/>
+    <mergeCell ref="F489:O489"/>
+    <mergeCell ref="F490:O490"/>
+    <mergeCell ref="F491:O491"/>
+    <mergeCell ref="F492:O492"/>
+    <mergeCell ref="F481:O481"/>
+    <mergeCell ref="F482:O482"/>
+    <mergeCell ref="F483:O483"/>
+    <mergeCell ref="F484:O484"/>
+    <mergeCell ref="F485:O485"/>
+    <mergeCell ref="F486:O486"/>
+    <mergeCell ref="F475:O475"/>
+    <mergeCell ref="F476:O476"/>
+    <mergeCell ref="F477:O477"/>
+    <mergeCell ref="F478:O478"/>
+    <mergeCell ref="F479:O479"/>
+    <mergeCell ref="F480:O480"/>
+    <mergeCell ref="F505:O505"/>
+    <mergeCell ref="F506:O506"/>
+    <mergeCell ref="F507:O507"/>
+    <mergeCell ref="F508:O508"/>
+    <mergeCell ref="F509:O509"/>
+    <mergeCell ref="F510:O510"/>
+    <mergeCell ref="F499:O499"/>
+    <mergeCell ref="F500:O500"/>
+    <mergeCell ref="F501:O501"/>
+    <mergeCell ref="F502:O502"/>
+    <mergeCell ref="F503:O503"/>
+    <mergeCell ref="F504:O504"/>
+    <mergeCell ref="F493:O493"/>
+    <mergeCell ref="F494:O494"/>
+    <mergeCell ref="F495:O495"/>
+    <mergeCell ref="F496:O496"/>
+    <mergeCell ref="F497:O497"/>
+    <mergeCell ref="F498:O498"/>
+    <mergeCell ref="F523:O523"/>
+    <mergeCell ref="F524:O524"/>
+    <mergeCell ref="F525:O525"/>
+    <mergeCell ref="F526:O526"/>
+    <mergeCell ref="F527:O527"/>
+    <mergeCell ref="F528:O528"/>
+    <mergeCell ref="F517:O517"/>
+    <mergeCell ref="F518:O518"/>
+    <mergeCell ref="F519:O519"/>
+    <mergeCell ref="F520:O520"/>
+    <mergeCell ref="F521:O521"/>
+    <mergeCell ref="F522:O522"/>
+    <mergeCell ref="F511:O511"/>
+    <mergeCell ref="F512:O512"/>
+    <mergeCell ref="F513:O513"/>
+    <mergeCell ref="F514:O514"/>
+    <mergeCell ref="F515:O515"/>
+    <mergeCell ref="F516:O516"/>
+    <mergeCell ref="F541:O541"/>
+    <mergeCell ref="F542:O542"/>
+    <mergeCell ref="F543:O543"/>
+    <mergeCell ref="F544:O544"/>
+    <mergeCell ref="F545:O545"/>
+    <mergeCell ref="F546:O546"/>
+    <mergeCell ref="F535:O535"/>
+    <mergeCell ref="F536:O536"/>
+    <mergeCell ref="F537:O537"/>
+    <mergeCell ref="F538:O538"/>
+    <mergeCell ref="F539:O539"/>
+    <mergeCell ref="F540:O540"/>
+    <mergeCell ref="F529:O529"/>
+    <mergeCell ref="F530:O530"/>
+    <mergeCell ref="F531:O531"/>
+    <mergeCell ref="F532:O532"/>
+    <mergeCell ref="F533:O533"/>
+    <mergeCell ref="F534:O534"/>
+    <mergeCell ref="F559:O559"/>
+    <mergeCell ref="F560:O560"/>
+    <mergeCell ref="F561:O561"/>
+    <mergeCell ref="F562:O562"/>
+    <mergeCell ref="F563:O563"/>
+    <mergeCell ref="F564:O564"/>
+    <mergeCell ref="F553:O553"/>
+    <mergeCell ref="F554:O554"/>
+    <mergeCell ref="F555:O555"/>
+    <mergeCell ref="F556:O556"/>
+    <mergeCell ref="F557:O557"/>
+    <mergeCell ref="F558:O558"/>
+    <mergeCell ref="F547:O547"/>
+    <mergeCell ref="F548:O548"/>
+    <mergeCell ref="F549:O549"/>
+    <mergeCell ref="F550:O550"/>
+    <mergeCell ref="F551:O551"/>
+    <mergeCell ref="F552:O552"/>
+    <mergeCell ref="F577:O577"/>
+    <mergeCell ref="F578:O578"/>
+    <mergeCell ref="F579:O579"/>
+    <mergeCell ref="F580:O580"/>
+    <mergeCell ref="F581:O581"/>
+    <mergeCell ref="F582:O582"/>
+    <mergeCell ref="F571:O571"/>
+    <mergeCell ref="F572:O572"/>
+    <mergeCell ref="F573:O573"/>
+    <mergeCell ref="F574:O574"/>
+    <mergeCell ref="F575:O575"/>
+    <mergeCell ref="F576:O576"/>
+    <mergeCell ref="F565:O565"/>
+    <mergeCell ref="F566:O566"/>
+    <mergeCell ref="F567:O567"/>
+    <mergeCell ref="F568:O568"/>
+    <mergeCell ref="F569:O569"/>
+    <mergeCell ref="F570:O570"/>
+    <mergeCell ref="F595:O595"/>
+    <mergeCell ref="F596:O596"/>
+    <mergeCell ref="F597:O597"/>
+    <mergeCell ref="F598:O598"/>
+    <mergeCell ref="F599:O599"/>
+    <mergeCell ref="F600:O600"/>
+    <mergeCell ref="F589:O589"/>
+    <mergeCell ref="F590:O590"/>
+    <mergeCell ref="F591:O591"/>
+    <mergeCell ref="F592:O592"/>
+    <mergeCell ref="F593:O593"/>
+    <mergeCell ref="F594:O594"/>
+    <mergeCell ref="F583:O583"/>
+    <mergeCell ref="F584:O584"/>
+    <mergeCell ref="F585:O585"/>
+    <mergeCell ref="F586:O586"/>
+    <mergeCell ref="F587:O587"/>
+    <mergeCell ref="F588:O588"/>
+    <mergeCell ref="F613:O613"/>
+    <mergeCell ref="F614:O614"/>
+    <mergeCell ref="F615:O615"/>
+    <mergeCell ref="F616:O616"/>
+    <mergeCell ref="F617:O617"/>
+    <mergeCell ref="F618:O618"/>
+    <mergeCell ref="F607:O607"/>
+    <mergeCell ref="F608:O608"/>
+    <mergeCell ref="F609:O609"/>
+    <mergeCell ref="F610:O610"/>
+    <mergeCell ref="F611:O611"/>
+    <mergeCell ref="F612:O612"/>
+    <mergeCell ref="F601:O601"/>
+    <mergeCell ref="F602:O602"/>
+    <mergeCell ref="F603:O603"/>
+    <mergeCell ref="F604:O604"/>
+    <mergeCell ref="F605:O605"/>
+    <mergeCell ref="F606:O606"/>
+    <mergeCell ref="F631:O631"/>
+    <mergeCell ref="F632:O632"/>
+    <mergeCell ref="F633:O633"/>
+    <mergeCell ref="F634:O634"/>
+    <mergeCell ref="F635:O635"/>
+    <mergeCell ref="F636:O636"/>
+    <mergeCell ref="F625:O625"/>
+    <mergeCell ref="F626:O626"/>
+    <mergeCell ref="F627:O627"/>
+    <mergeCell ref="F628:O628"/>
+    <mergeCell ref="F629:O629"/>
+    <mergeCell ref="F630:O630"/>
+    <mergeCell ref="F619:O619"/>
+    <mergeCell ref="F620:O620"/>
+    <mergeCell ref="F621:O621"/>
+    <mergeCell ref="F622:O622"/>
+    <mergeCell ref="F623:O623"/>
+    <mergeCell ref="F624:O624"/>
+    <mergeCell ref="F649:O649"/>
+    <mergeCell ref="F650:O650"/>
+    <mergeCell ref="F651:O651"/>
+    <mergeCell ref="F652:O652"/>
+    <mergeCell ref="F653:O653"/>
+    <mergeCell ref="F654:O654"/>
+    <mergeCell ref="F643:O643"/>
+    <mergeCell ref="F644:O644"/>
+    <mergeCell ref="F645:O645"/>
+    <mergeCell ref="F646:O646"/>
+    <mergeCell ref="F647:O647"/>
+    <mergeCell ref="F648:O648"/>
+    <mergeCell ref="F637:O637"/>
+    <mergeCell ref="F638:O638"/>
+    <mergeCell ref="F639:O639"/>
+    <mergeCell ref="F640:O640"/>
+    <mergeCell ref="F641:O641"/>
+    <mergeCell ref="F642:O642"/>
+    <mergeCell ref="F667:O667"/>
+    <mergeCell ref="F668:O668"/>
+    <mergeCell ref="F669:O669"/>
+    <mergeCell ref="F670:O670"/>
+    <mergeCell ref="F671:O671"/>
+    <mergeCell ref="F672:O672"/>
+    <mergeCell ref="F661:O661"/>
+    <mergeCell ref="F662:O662"/>
+    <mergeCell ref="F663:O663"/>
+    <mergeCell ref="F664:O664"/>
+    <mergeCell ref="F665:O665"/>
+    <mergeCell ref="F666:O666"/>
+    <mergeCell ref="F655:O655"/>
+    <mergeCell ref="F656:O656"/>
+    <mergeCell ref="F657:O657"/>
+    <mergeCell ref="F658:O658"/>
+    <mergeCell ref="F659:O659"/>
+    <mergeCell ref="F660:O660"/>
+    <mergeCell ref="F685:O685"/>
+    <mergeCell ref="F686:O686"/>
+    <mergeCell ref="F687:O687"/>
+    <mergeCell ref="F688:O688"/>
+    <mergeCell ref="F689:O689"/>
+    <mergeCell ref="F690:O690"/>
+    <mergeCell ref="F679:O679"/>
+    <mergeCell ref="F680:O680"/>
+    <mergeCell ref="F681:O681"/>
+    <mergeCell ref="F682:O682"/>
+    <mergeCell ref="F683:O683"/>
+    <mergeCell ref="F684:O684"/>
+    <mergeCell ref="F673:O673"/>
+    <mergeCell ref="F674:O674"/>
+    <mergeCell ref="F675:O675"/>
+    <mergeCell ref="F676:O676"/>
+    <mergeCell ref="F677:O677"/>
+    <mergeCell ref="F678:O678"/>
+    <mergeCell ref="F703:O703"/>
+    <mergeCell ref="F704:O704"/>
+    <mergeCell ref="F705:O705"/>
+    <mergeCell ref="F706:O706"/>
+    <mergeCell ref="F707:O707"/>
+    <mergeCell ref="F708:O708"/>
+    <mergeCell ref="F697:O697"/>
+    <mergeCell ref="F698:O698"/>
+    <mergeCell ref="F699:O699"/>
+    <mergeCell ref="F700:O700"/>
+    <mergeCell ref="F701:O701"/>
+    <mergeCell ref="F702:O702"/>
+    <mergeCell ref="F691:O691"/>
+    <mergeCell ref="F692:O692"/>
+    <mergeCell ref="F693:O693"/>
+    <mergeCell ref="F694:O694"/>
+    <mergeCell ref="F695:O695"/>
+    <mergeCell ref="F696:O696"/>
+    <mergeCell ref="F721:O721"/>
+    <mergeCell ref="F722:O722"/>
+    <mergeCell ref="F723:O723"/>
+    <mergeCell ref="F724:O724"/>
+    <mergeCell ref="F725:O725"/>
+    <mergeCell ref="F726:O726"/>
+    <mergeCell ref="F715:O715"/>
+    <mergeCell ref="F716:O716"/>
+    <mergeCell ref="F717:O717"/>
+    <mergeCell ref="F718:O718"/>
+    <mergeCell ref="F719:O719"/>
+    <mergeCell ref="F720:O720"/>
+    <mergeCell ref="F709:O709"/>
+    <mergeCell ref="F710:O710"/>
+    <mergeCell ref="F711:O711"/>
+    <mergeCell ref="F712:O712"/>
+    <mergeCell ref="F713:O713"/>
+    <mergeCell ref="F714:O714"/>
+    <mergeCell ref="F739:O739"/>
+    <mergeCell ref="F740:O740"/>
+    <mergeCell ref="F741:O741"/>
+    <mergeCell ref="F742:O742"/>
+    <mergeCell ref="F743:O743"/>
+    <mergeCell ref="F744:O744"/>
+    <mergeCell ref="F733:O733"/>
+    <mergeCell ref="F734:O734"/>
+    <mergeCell ref="F735:O735"/>
+    <mergeCell ref="F736:O736"/>
+    <mergeCell ref="F737:O737"/>
+    <mergeCell ref="F738:O738"/>
+    <mergeCell ref="F727:O727"/>
+    <mergeCell ref="F728:O728"/>
+    <mergeCell ref="F729:O729"/>
+    <mergeCell ref="F730:O730"/>
+    <mergeCell ref="F731:O731"/>
+    <mergeCell ref="F732:O732"/>
+    <mergeCell ref="F757:O757"/>
+    <mergeCell ref="F758:O758"/>
+    <mergeCell ref="F759:O759"/>
+    <mergeCell ref="F760:O760"/>
+    <mergeCell ref="F761:O761"/>
+    <mergeCell ref="F762:O762"/>
+    <mergeCell ref="F751:O751"/>
+    <mergeCell ref="F752:O752"/>
+    <mergeCell ref="F753:O753"/>
+    <mergeCell ref="F754:O754"/>
+    <mergeCell ref="F755:O755"/>
+    <mergeCell ref="F756:O756"/>
+    <mergeCell ref="F745:O745"/>
+    <mergeCell ref="F746:O746"/>
+    <mergeCell ref="F747:O747"/>
+    <mergeCell ref="F748:O748"/>
+    <mergeCell ref="F749:O749"/>
+    <mergeCell ref="F750:O750"/>
+    <mergeCell ref="F775:O775"/>
+    <mergeCell ref="F776:O776"/>
+    <mergeCell ref="F777:O777"/>
+    <mergeCell ref="F778:O778"/>
+    <mergeCell ref="F779:O779"/>
+    <mergeCell ref="F780:O780"/>
+    <mergeCell ref="F769:O769"/>
+    <mergeCell ref="F770:O770"/>
+    <mergeCell ref="F771:O771"/>
+    <mergeCell ref="F772:O772"/>
+    <mergeCell ref="F773:O773"/>
+    <mergeCell ref="F774:O774"/>
+    <mergeCell ref="F763:O763"/>
+    <mergeCell ref="F764:O764"/>
+    <mergeCell ref="F765:O765"/>
+    <mergeCell ref="F766:O766"/>
+    <mergeCell ref="F767:O767"/>
+    <mergeCell ref="F768:O768"/>
+    <mergeCell ref="F793:O793"/>
+    <mergeCell ref="F794:O794"/>
+    <mergeCell ref="F795:O795"/>
+    <mergeCell ref="F796:O796"/>
+    <mergeCell ref="F797:O797"/>
+    <mergeCell ref="F798:O798"/>
+    <mergeCell ref="F787:O787"/>
+    <mergeCell ref="F788:O788"/>
+    <mergeCell ref="F789:O789"/>
+    <mergeCell ref="F790:O790"/>
+    <mergeCell ref="F791:O791"/>
+    <mergeCell ref="F792:O792"/>
+    <mergeCell ref="F781:O781"/>
+    <mergeCell ref="F782:O782"/>
+    <mergeCell ref="F783:O783"/>
+    <mergeCell ref="F784:O784"/>
+    <mergeCell ref="F785:O785"/>
+    <mergeCell ref="F786:O786"/>
+    <mergeCell ref="F811:O811"/>
+    <mergeCell ref="F812:O812"/>
+    <mergeCell ref="F813:O813"/>
+    <mergeCell ref="F814:O814"/>
+    <mergeCell ref="F815:O815"/>
+    <mergeCell ref="F816:O816"/>
+    <mergeCell ref="F805:O805"/>
+    <mergeCell ref="F806:O806"/>
+    <mergeCell ref="F807:O807"/>
+    <mergeCell ref="F808:O808"/>
+    <mergeCell ref="F809:O809"/>
+    <mergeCell ref="F810:O810"/>
+    <mergeCell ref="F799:O799"/>
+    <mergeCell ref="F800:O800"/>
+    <mergeCell ref="F801:O801"/>
+    <mergeCell ref="F802:O802"/>
+    <mergeCell ref="F803:O803"/>
+    <mergeCell ref="F804:O804"/>
+    <mergeCell ref="F829:O829"/>
+    <mergeCell ref="F830:O830"/>
+    <mergeCell ref="F831:O831"/>
+    <mergeCell ref="F832:O832"/>
+    <mergeCell ref="F833:O833"/>
+    <mergeCell ref="F834:O834"/>
+    <mergeCell ref="F823:O823"/>
+    <mergeCell ref="F824:O824"/>
+    <mergeCell ref="F825:O825"/>
+    <mergeCell ref="F826:O826"/>
+    <mergeCell ref="F827:O827"/>
+    <mergeCell ref="F828:O828"/>
+    <mergeCell ref="F817:O817"/>
+    <mergeCell ref="F818:O818"/>
+    <mergeCell ref="F819:O819"/>
+    <mergeCell ref="F820:O820"/>
+    <mergeCell ref="F821:O821"/>
+    <mergeCell ref="F822:O822"/>
+    <mergeCell ref="F847:O847"/>
+    <mergeCell ref="F848:O848"/>
+    <mergeCell ref="F849:O849"/>
+    <mergeCell ref="F850:O850"/>
+    <mergeCell ref="F851:O851"/>
+    <mergeCell ref="F852:O852"/>
+    <mergeCell ref="F841:O841"/>
+    <mergeCell ref="F842:O842"/>
+    <mergeCell ref="F843:O843"/>
+    <mergeCell ref="F844:O844"/>
+    <mergeCell ref="F845:O845"/>
+    <mergeCell ref="F846:O846"/>
+    <mergeCell ref="F835:O835"/>
+    <mergeCell ref="F836:O836"/>
+    <mergeCell ref="F837:O837"/>
+    <mergeCell ref="F838:O838"/>
+    <mergeCell ref="F839:O839"/>
+    <mergeCell ref="F840:O840"/>
+    <mergeCell ref="F865:O865"/>
+    <mergeCell ref="F866:O866"/>
+    <mergeCell ref="F867:O867"/>
+    <mergeCell ref="F868:O868"/>
+    <mergeCell ref="F869:O869"/>
+    <mergeCell ref="F870:O870"/>
+    <mergeCell ref="F859:O859"/>
+    <mergeCell ref="F860:O860"/>
+    <mergeCell ref="F861:O861"/>
+    <mergeCell ref="F862:O862"/>
+    <mergeCell ref="F863:O863"/>
+    <mergeCell ref="F864:O864"/>
+    <mergeCell ref="F853:O853"/>
+    <mergeCell ref="F854:O854"/>
+    <mergeCell ref="F855:O855"/>
+    <mergeCell ref="F856:O856"/>
+    <mergeCell ref="F857:O857"/>
+    <mergeCell ref="F858:O858"/>
+    <mergeCell ref="F883:O883"/>
+    <mergeCell ref="F884:O884"/>
+    <mergeCell ref="F885:O885"/>
+    <mergeCell ref="F886:O886"/>
+    <mergeCell ref="F887:O887"/>
+    <mergeCell ref="F888:O888"/>
+    <mergeCell ref="F877:O877"/>
+    <mergeCell ref="F878:O878"/>
+    <mergeCell ref="F879:O879"/>
+    <mergeCell ref="F880:O880"/>
+    <mergeCell ref="F881:O881"/>
+    <mergeCell ref="F882:O882"/>
+    <mergeCell ref="F871:O871"/>
+    <mergeCell ref="F872:O872"/>
+    <mergeCell ref="F873:O873"/>
+    <mergeCell ref="F874:O874"/>
+    <mergeCell ref="F875:O875"/>
+    <mergeCell ref="F876:O876"/>
+    <mergeCell ref="F901:O901"/>
+    <mergeCell ref="F902:O902"/>
+    <mergeCell ref="F903:O903"/>
+    <mergeCell ref="F904:O904"/>
+    <mergeCell ref="F905:O905"/>
+    <mergeCell ref="F906:O906"/>
+    <mergeCell ref="F895:O895"/>
+    <mergeCell ref="F896:O896"/>
+    <mergeCell ref="F897:O897"/>
+    <mergeCell ref="F898:O898"/>
+    <mergeCell ref="F899:O899"/>
+    <mergeCell ref="F900:O900"/>
+    <mergeCell ref="F889:O889"/>
+    <mergeCell ref="F890:O890"/>
+    <mergeCell ref="F891:O891"/>
+    <mergeCell ref="F892:O892"/>
+    <mergeCell ref="F893:O893"/>
+    <mergeCell ref="F894:O894"/>
+    <mergeCell ref="F919:O919"/>
+    <mergeCell ref="F920:O920"/>
+    <mergeCell ref="F921:O921"/>
+    <mergeCell ref="F922:O922"/>
+    <mergeCell ref="F923:O923"/>
+    <mergeCell ref="F924:O924"/>
+    <mergeCell ref="F913:O913"/>
+    <mergeCell ref="F914:O914"/>
+    <mergeCell ref="F915:O915"/>
+    <mergeCell ref="F916:O916"/>
+    <mergeCell ref="F917:O917"/>
+    <mergeCell ref="F918:O918"/>
+    <mergeCell ref="F907:O907"/>
+    <mergeCell ref="F908:O908"/>
+    <mergeCell ref="F909:O909"/>
+    <mergeCell ref="F910:O910"/>
+    <mergeCell ref="F911:O911"/>
+    <mergeCell ref="F912:O912"/>
+    <mergeCell ref="F937:O937"/>
+    <mergeCell ref="F938:O938"/>
+    <mergeCell ref="F939:O939"/>
+    <mergeCell ref="F940:O940"/>
+    <mergeCell ref="F941:O941"/>
+    <mergeCell ref="F942:O942"/>
+    <mergeCell ref="F931:O931"/>
+    <mergeCell ref="F932:O932"/>
+    <mergeCell ref="F933:O933"/>
+    <mergeCell ref="F934:O934"/>
+    <mergeCell ref="F935:O935"/>
+    <mergeCell ref="F936:O936"/>
+    <mergeCell ref="F925:O925"/>
+    <mergeCell ref="F926:O926"/>
+    <mergeCell ref="F927:O927"/>
+    <mergeCell ref="F928:O928"/>
+    <mergeCell ref="F929:O929"/>
+    <mergeCell ref="F930:O930"/>
+    <mergeCell ref="F955:O955"/>
+    <mergeCell ref="F956:O956"/>
+    <mergeCell ref="F957:O957"/>
+    <mergeCell ref="F958:O958"/>
+    <mergeCell ref="F959:O959"/>
+    <mergeCell ref="F960:O960"/>
+    <mergeCell ref="F949:O949"/>
+    <mergeCell ref="F950:O950"/>
+    <mergeCell ref="F951:O951"/>
+    <mergeCell ref="F952:O952"/>
+    <mergeCell ref="F953:O953"/>
+    <mergeCell ref="F954:O954"/>
+    <mergeCell ref="F943:O943"/>
+    <mergeCell ref="F944:O944"/>
+    <mergeCell ref="F945:O945"/>
+    <mergeCell ref="F946:O946"/>
+    <mergeCell ref="F947:O947"/>
+    <mergeCell ref="F948:O948"/>
+    <mergeCell ref="F973:O973"/>
+    <mergeCell ref="F974:O974"/>
+    <mergeCell ref="F975:O975"/>
+    <mergeCell ref="F976:O976"/>
+    <mergeCell ref="F977:O977"/>
+    <mergeCell ref="F978:O978"/>
+    <mergeCell ref="F967:O967"/>
+    <mergeCell ref="F968:O968"/>
+    <mergeCell ref="F969:O969"/>
+    <mergeCell ref="F970:O970"/>
+    <mergeCell ref="F971:O971"/>
+    <mergeCell ref="F972:O972"/>
+    <mergeCell ref="F961:O961"/>
+    <mergeCell ref="F962:O962"/>
+    <mergeCell ref="F963:O963"/>
+    <mergeCell ref="F964:O964"/>
+    <mergeCell ref="F965:O965"/>
+    <mergeCell ref="F966:O966"/>
+    <mergeCell ref="F991:O991"/>
+    <mergeCell ref="F992:O992"/>
+    <mergeCell ref="F993:O993"/>
+    <mergeCell ref="F994:O994"/>
+    <mergeCell ref="F995:O995"/>
+    <mergeCell ref="F996:O996"/>
+    <mergeCell ref="F985:O985"/>
+    <mergeCell ref="F986:O986"/>
+    <mergeCell ref="F987:O987"/>
+    <mergeCell ref="F988:O988"/>
+    <mergeCell ref="F989:O989"/>
+    <mergeCell ref="F990:O990"/>
+    <mergeCell ref="F979:O979"/>
+    <mergeCell ref="F980:O980"/>
+    <mergeCell ref="F981:O981"/>
+    <mergeCell ref="F982:O982"/>
+    <mergeCell ref="F983:O983"/>
+    <mergeCell ref="F984:O984"/>
+    <mergeCell ref="F1009:O1009"/>
+    <mergeCell ref="F1010:O1010"/>
+    <mergeCell ref="F1011:O1011"/>
+    <mergeCell ref="F1012:O1012"/>
+    <mergeCell ref="F1013:O1013"/>
+    <mergeCell ref="F1014:O1014"/>
+    <mergeCell ref="F1003:O1003"/>
+    <mergeCell ref="F1004:O1004"/>
+    <mergeCell ref="F1005:O1005"/>
+    <mergeCell ref="F1006:O1006"/>
+    <mergeCell ref="F1007:O1007"/>
+    <mergeCell ref="F1008:O1008"/>
+    <mergeCell ref="F997:O997"/>
+    <mergeCell ref="F998:O998"/>
+    <mergeCell ref="F999:O999"/>
+    <mergeCell ref="F1000:O1000"/>
+    <mergeCell ref="F1001:O1001"/>
+    <mergeCell ref="F1002:O1002"/>
+    <mergeCell ref="F1027:O1027"/>
+    <mergeCell ref="F1028:O1028"/>
+    <mergeCell ref="F1029:O1029"/>
+    <mergeCell ref="F1030:O1030"/>
+    <mergeCell ref="F1031:O1031"/>
+    <mergeCell ref="F1032:O1032"/>
+    <mergeCell ref="F1021:O1021"/>
+    <mergeCell ref="F1022:O1022"/>
+    <mergeCell ref="F1023:O1023"/>
+    <mergeCell ref="F1024:O1024"/>
+    <mergeCell ref="F1025:O1025"/>
+    <mergeCell ref="F1026:O1026"/>
+    <mergeCell ref="F1015:O1015"/>
+    <mergeCell ref="F1016:O1016"/>
+    <mergeCell ref="F1017:O1017"/>
+    <mergeCell ref="F1018:O1018"/>
+    <mergeCell ref="F1019:O1019"/>
+    <mergeCell ref="F1020:O1020"/>
+    <mergeCell ref="F1045:O1045"/>
+    <mergeCell ref="F1046:O1046"/>
+    <mergeCell ref="F1047:O1047"/>
+    <mergeCell ref="F1048:O1048"/>
+    <mergeCell ref="F1049:O1049"/>
+    <mergeCell ref="F1050:O1050"/>
+    <mergeCell ref="F1039:O1039"/>
+    <mergeCell ref="F1040:O1040"/>
+    <mergeCell ref="F1041:O1041"/>
+    <mergeCell ref="F1042:O1042"/>
+    <mergeCell ref="F1043:O1043"/>
+    <mergeCell ref="F1044:O1044"/>
+    <mergeCell ref="F1033:O1033"/>
+    <mergeCell ref="F1034:O1034"/>
+    <mergeCell ref="F1035:O1035"/>
+    <mergeCell ref="F1036:O1036"/>
+    <mergeCell ref="F1037:O1037"/>
+    <mergeCell ref="F1038:O1038"/>
+    <mergeCell ref="F1063:O1063"/>
+    <mergeCell ref="F1064:O1064"/>
+    <mergeCell ref="F1065:O1065"/>
+    <mergeCell ref="F1066:O1066"/>
+    <mergeCell ref="F1067:O1067"/>
+    <mergeCell ref="F1068:O1068"/>
+    <mergeCell ref="F1057:O1057"/>
+    <mergeCell ref="F1058:O1058"/>
+    <mergeCell ref="F1059:O1059"/>
+    <mergeCell ref="F1060:O1060"/>
+    <mergeCell ref="F1061:O1061"/>
+    <mergeCell ref="F1062:O1062"/>
+    <mergeCell ref="F1051:O1051"/>
+    <mergeCell ref="F1052:O1052"/>
+    <mergeCell ref="F1053:O1053"/>
+    <mergeCell ref="F1054:O1054"/>
+    <mergeCell ref="F1055:O1055"/>
+    <mergeCell ref="F1056:O1056"/>
+    <mergeCell ref="F1081:O1081"/>
+    <mergeCell ref="F1082:O1082"/>
+    <mergeCell ref="F1083:O1083"/>
+    <mergeCell ref="F1084:O1084"/>
+    <mergeCell ref="F1085:O1085"/>
+    <mergeCell ref="F1086:O1086"/>
+    <mergeCell ref="F1075:O1075"/>
+    <mergeCell ref="F1076:O1076"/>
+    <mergeCell ref="F1077:O1077"/>
+    <mergeCell ref="F1078:O1078"/>
+    <mergeCell ref="F1079:O1079"/>
+    <mergeCell ref="F1080:O1080"/>
+    <mergeCell ref="F1069:O1069"/>
+    <mergeCell ref="F1070:O1070"/>
+    <mergeCell ref="F1071:O1071"/>
+    <mergeCell ref="F1072:O1072"/>
+    <mergeCell ref="F1073:O1073"/>
+    <mergeCell ref="F1074:O1074"/>
+    <mergeCell ref="F1099:O1099"/>
+    <mergeCell ref="F1100:O1100"/>
+    <mergeCell ref="F1101:O1101"/>
+    <mergeCell ref="F1102:O1102"/>
+    <mergeCell ref="F1103:O1103"/>
+    <mergeCell ref="F1104:O1104"/>
+    <mergeCell ref="F1093:O1093"/>
+    <mergeCell ref="F1094:O1094"/>
+    <mergeCell ref="F1095:O1095"/>
+    <mergeCell ref="F1096:O1096"/>
+    <mergeCell ref="F1097:O1097"/>
+    <mergeCell ref="F1098:O1098"/>
+    <mergeCell ref="F1087:O1087"/>
+    <mergeCell ref="F1088:O1088"/>
+    <mergeCell ref="F1089:O1089"/>
+    <mergeCell ref="F1090:O1090"/>
+    <mergeCell ref="F1091:O1091"/>
+    <mergeCell ref="F1092:O1092"/>
+    <mergeCell ref="F1117:O1117"/>
+    <mergeCell ref="F1118:O1118"/>
+    <mergeCell ref="F1119:O1119"/>
+    <mergeCell ref="F1120:O1120"/>
+    <mergeCell ref="F1121:O1121"/>
+    <mergeCell ref="F1122:O1122"/>
+    <mergeCell ref="F1111:O1111"/>
+    <mergeCell ref="F1112:O1112"/>
+    <mergeCell ref="F1113:O1113"/>
+    <mergeCell ref="F1114:O1114"/>
+    <mergeCell ref="F1115:O1115"/>
+    <mergeCell ref="F1116:O1116"/>
+    <mergeCell ref="F1105:O1105"/>
+    <mergeCell ref="F1106:O1106"/>
+    <mergeCell ref="F1107:O1107"/>
+    <mergeCell ref="F1108:O1108"/>
+    <mergeCell ref="F1109:O1109"/>
+    <mergeCell ref="F1110:O1110"/>
+    <mergeCell ref="F1135:O1135"/>
+    <mergeCell ref="F1136:O1136"/>
+    <mergeCell ref="F1137:O1137"/>
+    <mergeCell ref="F1138:O1138"/>
+    <mergeCell ref="F1139:O1139"/>
+    <mergeCell ref="F1140:O1140"/>
+    <mergeCell ref="F1129:O1129"/>
+    <mergeCell ref="F1130:O1130"/>
+    <mergeCell ref="F1131:O1131"/>
+    <mergeCell ref="F1132:O1132"/>
+    <mergeCell ref="F1133:O1133"/>
+    <mergeCell ref="F1134:O1134"/>
+    <mergeCell ref="F1123:O1123"/>
+    <mergeCell ref="F1124:O1124"/>
+    <mergeCell ref="F1125:O1125"/>
+    <mergeCell ref="F1126:O1126"/>
+    <mergeCell ref="F1127:O1127"/>
+    <mergeCell ref="F1128:O1128"/>
+    <mergeCell ref="F1153:O1153"/>
+    <mergeCell ref="F1154:O1154"/>
+    <mergeCell ref="F1155:O1155"/>
+    <mergeCell ref="F1156:O1156"/>
+    <mergeCell ref="F1157:O1157"/>
+    <mergeCell ref="F1158:O1158"/>
+    <mergeCell ref="F1147:O1147"/>
+    <mergeCell ref="F1148:O1148"/>
+    <mergeCell ref="F1149:O1149"/>
+    <mergeCell ref="F1150:O1150"/>
+    <mergeCell ref="F1151:O1151"/>
+    <mergeCell ref="F1152:O1152"/>
+    <mergeCell ref="F1141:O1141"/>
+    <mergeCell ref="F1142:O1142"/>
+    <mergeCell ref="F1143:O1143"/>
+    <mergeCell ref="F1144:O1144"/>
+    <mergeCell ref="F1145:O1145"/>
+    <mergeCell ref="F1146:O1146"/>
+    <mergeCell ref="F1171:O1171"/>
+    <mergeCell ref="F1172:O1172"/>
+    <mergeCell ref="F1173:O1173"/>
+    <mergeCell ref="F1174:O1174"/>
+    <mergeCell ref="F1175:O1175"/>
+    <mergeCell ref="F1176:O1176"/>
+    <mergeCell ref="F1165:O1165"/>
+    <mergeCell ref="F1166:O1166"/>
+    <mergeCell ref="F1167:O1167"/>
+    <mergeCell ref="F1168:O1168"/>
+    <mergeCell ref="F1169:O1169"/>
+    <mergeCell ref="F1170:O1170"/>
+    <mergeCell ref="F1159:O1159"/>
+    <mergeCell ref="F1160:O1160"/>
+    <mergeCell ref="F1161:O1161"/>
+    <mergeCell ref="F1162:O1162"/>
+    <mergeCell ref="F1163:O1163"/>
+    <mergeCell ref="F1164:O1164"/>
+    <mergeCell ref="F1189:O1189"/>
+    <mergeCell ref="F1190:O1190"/>
+    <mergeCell ref="F1191:O1191"/>
+    <mergeCell ref="F1192:O1192"/>
+    <mergeCell ref="F1193:O1193"/>
+    <mergeCell ref="F1194:O1194"/>
+    <mergeCell ref="F1183:O1183"/>
+    <mergeCell ref="F1184:O1184"/>
+    <mergeCell ref="F1185:O1185"/>
+    <mergeCell ref="F1186:O1186"/>
+    <mergeCell ref="F1187:O1187"/>
+    <mergeCell ref="F1188:O1188"/>
+    <mergeCell ref="F1177:O1177"/>
+    <mergeCell ref="F1178:O1178"/>
+    <mergeCell ref="F1179:O1179"/>
+    <mergeCell ref="F1180:O1180"/>
+    <mergeCell ref="F1181:O1181"/>
+    <mergeCell ref="F1182:O1182"/>
+    <mergeCell ref="F1207:O1207"/>
+    <mergeCell ref="F1208:O1208"/>
+    <mergeCell ref="F1209:O1209"/>
+    <mergeCell ref="F1210:O1210"/>
+    <mergeCell ref="F1211:O1211"/>
+    <mergeCell ref="F1212:O1212"/>
+    <mergeCell ref="F1201:O1201"/>
+    <mergeCell ref="F1202:O1202"/>
+    <mergeCell ref="F1203:O1203"/>
+    <mergeCell ref="F1204:O1204"/>
+    <mergeCell ref="F1205:O1205"/>
+    <mergeCell ref="F1206:O1206"/>
+    <mergeCell ref="F1195:O1195"/>
+    <mergeCell ref="F1196:O1196"/>
+    <mergeCell ref="F1197:O1197"/>
+    <mergeCell ref="F1198:O1198"/>
+    <mergeCell ref="F1199:O1199"/>
+    <mergeCell ref="F1200:O1200"/>
+    <mergeCell ref="F1225:O1225"/>
+    <mergeCell ref="F1226:O1226"/>
+    <mergeCell ref="F1227:O1227"/>
+    <mergeCell ref="F1228:O1228"/>
+    <mergeCell ref="F1229:O1229"/>
+    <mergeCell ref="F1230:O1230"/>
+    <mergeCell ref="F1219:O1219"/>
+    <mergeCell ref="F1220:O1220"/>
+    <mergeCell ref="F1221:O1221"/>
+    <mergeCell ref="F1222:O1222"/>
+    <mergeCell ref="F1223:O1223"/>
+    <mergeCell ref="F1224:O1224"/>
+    <mergeCell ref="F1213:O1213"/>
+    <mergeCell ref="F1214:O1214"/>
+    <mergeCell ref="F1215:O1215"/>
+    <mergeCell ref="F1216:O1216"/>
+    <mergeCell ref="F1217:O1217"/>
+    <mergeCell ref="F1218:O1218"/>
+    <mergeCell ref="F1243:O1243"/>
+    <mergeCell ref="F1244:O1244"/>
+    <mergeCell ref="F1245:O1245"/>
+    <mergeCell ref="F1246:O1246"/>
+    <mergeCell ref="F1247:O1247"/>
+    <mergeCell ref="F1248:O1248"/>
+    <mergeCell ref="F1237:O1237"/>
+    <mergeCell ref="F1238:O1238"/>
+    <mergeCell ref="F1239:O1239"/>
+    <mergeCell ref="F1240:O1240"/>
+    <mergeCell ref="F1241:O1241"/>
+    <mergeCell ref="F1242:O1242"/>
+    <mergeCell ref="F1231:O1231"/>
+    <mergeCell ref="F1232:O1232"/>
+    <mergeCell ref="F1233:O1233"/>
+    <mergeCell ref="F1234:O1234"/>
+    <mergeCell ref="F1235:O1235"/>
+    <mergeCell ref="F1236:O1236"/>
+    <mergeCell ref="F1261:O1261"/>
+    <mergeCell ref="F1262:O1262"/>
+    <mergeCell ref="F1263:O1263"/>
+    <mergeCell ref="F1264:O1264"/>
+    <mergeCell ref="F1265:O1265"/>
+    <mergeCell ref="F1266:O1266"/>
+    <mergeCell ref="F1255:O1255"/>
+    <mergeCell ref="F1256:O1256"/>
+    <mergeCell ref="F1257:O1257"/>
+    <mergeCell ref="F1258:O1258"/>
+    <mergeCell ref="F1259:O1259"/>
+    <mergeCell ref="F1260:O1260"/>
+    <mergeCell ref="F1249:O1249"/>
+    <mergeCell ref="F1250:O1250"/>
+    <mergeCell ref="F1251:O1251"/>
+    <mergeCell ref="F1252:O1252"/>
+    <mergeCell ref="F1253:O1253"/>
+    <mergeCell ref="F1254:O1254"/>
+    <mergeCell ref="F1279:O1279"/>
+    <mergeCell ref="F1280:O1280"/>
+    <mergeCell ref="F1281:O1281"/>
+    <mergeCell ref="F1282:O1282"/>
+    <mergeCell ref="F1283:O1283"/>
+    <mergeCell ref="F1284:O1284"/>
+    <mergeCell ref="F1273:O1273"/>
+    <mergeCell ref="F1274:O1274"/>
+    <mergeCell ref="F1275:O1275"/>
+    <mergeCell ref="F1276:O1276"/>
+    <mergeCell ref="F1277:O1277"/>
+    <mergeCell ref="F1278:O1278"/>
+    <mergeCell ref="F1267:O1267"/>
+    <mergeCell ref="F1268:O1268"/>
+    <mergeCell ref="F1269:O1269"/>
+    <mergeCell ref="F1270:O1270"/>
+    <mergeCell ref="F1271:O1271"/>
+    <mergeCell ref="F1272:O1272"/>
+    <mergeCell ref="F1297:O1297"/>
+    <mergeCell ref="F1298:O1298"/>
+    <mergeCell ref="F1299:O1299"/>
+    <mergeCell ref="F1300:O1300"/>
+    <mergeCell ref="F1301:O1301"/>
+    <mergeCell ref="F1302:O1302"/>
+    <mergeCell ref="F1291:O1291"/>
+    <mergeCell ref="F1292:O1292"/>
+    <mergeCell ref="F1293:O1293"/>
+    <mergeCell ref="F1294:O1294"/>
+    <mergeCell ref="F1295:O1295"/>
+    <mergeCell ref="F1296:O1296"/>
+    <mergeCell ref="F1285:O1285"/>
+    <mergeCell ref="F1286:O1286"/>
+    <mergeCell ref="F1287:O1287"/>
+    <mergeCell ref="F1288:O1288"/>
+    <mergeCell ref="F1289:O1289"/>
+    <mergeCell ref="F1290:O1290"/>
+    <mergeCell ref="F1315:O1315"/>
+    <mergeCell ref="F1316:O1316"/>
+    <mergeCell ref="F1317:O1317"/>
+    <mergeCell ref="F1318:O1318"/>
+    <mergeCell ref="F1319:O1319"/>
+    <mergeCell ref="F1320:O1320"/>
+    <mergeCell ref="F1309:O1309"/>
+    <mergeCell ref="F1310:O1310"/>
+    <mergeCell ref="F1311:O1311"/>
+    <mergeCell ref="F1312:O1312"/>
+    <mergeCell ref="F1313:O1313"/>
+    <mergeCell ref="F1314:O1314"/>
+    <mergeCell ref="F1303:O1303"/>
+    <mergeCell ref="F1304:O1304"/>
+    <mergeCell ref="F1305:O1305"/>
+    <mergeCell ref="F1306:O1306"/>
+    <mergeCell ref="F1307:O1307"/>
+    <mergeCell ref="F1308:O1308"/>
+    <mergeCell ref="F1333:O1333"/>
+    <mergeCell ref="F1334:O1334"/>
+    <mergeCell ref="F1335:O1335"/>
+    <mergeCell ref="F1336:O1336"/>
+    <mergeCell ref="F1337:O1337"/>
+    <mergeCell ref="F1338:O1338"/>
+    <mergeCell ref="F1327:O1327"/>
+    <mergeCell ref="F1328:O1328"/>
+    <mergeCell ref="F1329:O1329"/>
+    <mergeCell ref="F1330:O1330"/>
+    <mergeCell ref="F1331:O1331"/>
+    <mergeCell ref="F1332:O1332"/>
+    <mergeCell ref="F1321:O1321"/>
+    <mergeCell ref="F1322:O1322"/>
+    <mergeCell ref="F1323:O1323"/>
+    <mergeCell ref="F1324:O1324"/>
+    <mergeCell ref="F1325:O1325"/>
+    <mergeCell ref="F1326:O1326"/>
+    <mergeCell ref="F1351:O1351"/>
+    <mergeCell ref="F1352:O1352"/>
+    <mergeCell ref="F1353:O1353"/>
+    <mergeCell ref="F1354:O1354"/>
+    <mergeCell ref="F1355:O1355"/>
+    <mergeCell ref="F1356:O1356"/>
+    <mergeCell ref="F1345:O1345"/>
+    <mergeCell ref="F1346:O1346"/>
+    <mergeCell ref="F1347:O1347"/>
+    <mergeCell ref="F1348:O1348"/>
+    <mergeCell ref="F1349:O1349"/>
+    <mergeCell ref="F1350:O1350"/>
+    <mergeCell ref="F1339:O1339"/>
+    <mergeCell ref="F1340:O1340"/>
+    <mergeCell ref="F1341:O1341"/>
+    <mergeCell ref="F1342:O1342"/>
+    <mergeCell ref="F1343:O1343"/>
+    <mergeCell ref="F1344:O1344"/>
+    <mergeCell ref="F1369:O1369"/>
+    <mergeCell ref="F1370:O1370"/>
+    <mergeCell ref="F1371:O1371"/>
+    <mergeCell ref="F1372:O1372"/>
+    <mergeCell ref="F1373:O1373"/>
+    <mergeCell ref="F1374:O1374"/>
+    <mergeCell ref="F1363:O1363"/>
+    <mergeCell ref="F1364:O1364"/>
+    <mergeCell ref="F1365:O1365"/>
+    <mergeCell ref="F1366:O1366"/>
+    <mergeCell ref="F1367:O1367"/>
+    <mergeCell ref="F1368:O1368"/>
+    <mergeCell ref="F1357:O1357"/>
+    <mergeCell ref="F1358:O1358"/>
+    <mergeCell ref="F1359:O1359"/>
+    <mergeCell ref="F1360:O1360"/>
+    <mergeCell ref="F1361:O1361"/>
+    <mergeCell ref="F1362:O1362"/>
+    <mergeCell ref="F1387:O1387"/>
+    <mergeCell ref="F1388:O1388"/>
+    <mergeCell ref="F1389:O1389"/>
+    <mergeCell ref="F1390:O1390"/>
+    <mergeCell ref="F1391:O1391"/>
+    <mergeCell ref="F1392:O1392"/>
+    <mergeCell ref="F1381:O1381"/>
+    <mergeCell ref="F1382:O1382"/>
+    <mergeCell ref="F1383:O1383"/>
+    <mergeCell ref="F1384:O1384"/>
+    <mergeCell ref="F1385:O1385"/>
+    <mergeCell ref="F1386:O1386"/>
+    <mergeCell ref="F1375:O1375"/>
+    <mergeCell ref="F1376:O1376"/>
+    <mergeCell ref="F1377:O1377"/>
+    <mergeCell ref="F1378:O1378"/>
+    <mergeCell ref="F1379:O1379"/>
+    <mergeCell ref="F1380:O1380"/>
+    <mergeCell ref="F1405:O1405"/>
+    <mergeCell ref="F1406:O1406"/>
+    <mergeCell ref="F1407:O1407"/>
+    <mergeCell ref="F1408:O1408"/>
+    <mergeCell ref="F1409:O1409"/>
+    <mergeCell ref="F1410:O1410"/>
+    <mergeCell ref="F1399:O1399"/>
+    <mergeCell ref="F1400:O1400"/>
+    <mergeCell ref="F1401:O1401"/>
+    <mergeCell ref="F1402:O1402"/>
+    <mergeCell ref="F1403:O1403"/>
+    <mergeCell ref="F1404:O1404"/>
+    <mergeCell ref="F1393:O1393"/>
+    <mergeCell ref="F1394:O1394"/>
+    <mergeCell ref="F1395:O1395"/>
+    <mergeCell ref="F1396:O1396"/>
+    <mergeCell ref="F1397:O1397"/>
+    <mergeCell ref="F1398:O1398"/>
+    <mergeCell ref="F1423:O1423"/>
+    <mergeCell ref="F1424:O1424"/>
+    <mergeCell ref="F1425:O1425"/>
+    <mergeCell ref="F1426:O1426"/>
+    <mergeCell ref="F1427:O1427"/>
+    <mergeCell ref="F1428:O1428"/>
+    <mergeCell ref="F1417:O1417"/>
+    <mergeCell ref="F1418:O1418"/>
+    <mergeCell ref="F1419:O1419"/>
+    <mergeCell ref="F1420:O1420"/>
+    <mergeCell ref="F1421:O1421"/>
+    <mergeCell ref="F1422:O1422"/>
+    <mergeCell ref="F1411:O1411"/>
+    <mergeCell ref="F1412:O1412"/>
+    <mergeCell ref="F1413:O1413"/>
+    <mergeCell ref="F1414:O1414"/>
+    <mergeCell ref="F1415:O1415"/>
+    <mergeCell ref="F1416:O1416"/>
+    <mergeCell ref="F1441:O1441"/>
+    <mergeCell ref="F1442:O1442"/>
+    <mergeCell ref="F1443:O1443"/>
+    <mergeCell ref="F1444:O1444"/>
+    <mergeCell ref="F1445:O1445"/>
+    <mergeCell ref="F1446:O1446"/>
+    <mergeCell ref="F1435:O1435"/>
+    <mergeCell ref="F1436:O1436"/>
+    <mergeCell ref="F1437:O1437"/>
+    <mergeCell ref="F1438:O1438"/>
+    <mergeCell ref="F1439:O1439"/>
+    <mergeCell ref="F1440:O1440"/>
+    <mergeCell ref="F1429:O1429"/>
+    <mergeCell ref="F1430:O1430"/>
+    <mergeCell ref="F1431:O1431"/>
+    <mergeCell ref="F1432:O1432"/>
+    <mergeCell ref="F1433:O1433"/>
+    <mergeCell ref="F1434:O1434"/>
+    <mergeCell ref="F1459:O1459"/>
+    <mergeCell ref="F1460:O1460"/>
+    <mergeCell ref="F1461:O1461"/>
+    <mergeCell ref="F1462:O1462"/>
+    <mergeCell ref="F1463:O1463"/>
+    <mergeCell ref="F1464:O1464"/>
+    <mergeCell ref="F1453:O1453"/>
+    <mergeCell ref="F1454:O1454"/>
+    <mergeCell ref="F1455:O1455"/>
+    <mergeCell ref="F1456:O1456"/>
+    <mergeCell ref="F1457:O1457"/>
+    <mergeCell ref="F1458:O1458"/>
+    <mergeCell ref="F1447:O1447"/>
+    <mergeCell ref="F1448:O1448"/>
+    <mergeCell ref="F1449:O1449"/>
+    <mergeCell ref="F1450:O1450"/>
+    <mergeCell ref="F1451:O1451"/>
+    <mergeCell ref="F1452:O1452"/>
+    <mergeCell ref="F1477:O1477"/>
+    <mergeCell ref="F1478:O1478"/>
+    <mergeCell ref="F1479:O1479"/>
+    <mergeCell ref="F1480:O1480"/>
+    <mergeCell ref="F1481:O1481"/>
+    <mergeCell ref="F1482:O1482"/>
+    <mergeCell ref="F1471:O1471"/>
+    <mergeCell ref="F1472:O1472"/>
+    <mergeCell ref="F1473:O1473"/>
+    <mergeCell ref="F1474:O1474"/>
+    <mergeCell ref="F1475:O1475"/>
+    <mergeCell ref="F1476:O1476"/>
+    <mergeCell ref="F1465:O1465"/>
+    <mergeCell ref="F1466:O1466"/>
+    <mergeCell ref="F1467:O1467"/>
+    <mergeCell ref="F1468:O1468"/>
+    <mergeCell ref="F1469:O1469"/>
+    <mergeCell ref="F1470:O1470"/>
+    <mergeCell ref="F1495:O1495"/>
+    <mergeCell ref="F1496:O1496"/>
+    <mergeCell ref="F1497:O1497"/>
+    <mergeCell ref="F1498:O1498"/>
+    <mergeCell ref="F1499:O1499"/>
+    <mergeCell ref="F1500:O1500"/>
+    <mergeCell ref="F1489:O1489"/>
+    <mergeCell ref="F1490:O1490"/>
+    <mergeCell ref="F1491:O1491"/>
+    <mergeCell ref="F1492:O1492"/>
+    <mergeCell ref="F1493:O1493"/>
+    <mergeCell ref="F1494:O1494"/>
+    <mergeCell ref="F1483:O1483"/>
+    <mergeCell ref="F1484:O1484"/>
+    <mergeCell ref="F1485:O1485"/>
+    <mergeCell ref="F1486:O1486"/>
+    <mergeCell ref="F1487:O1487"/>
+    <mergeCell ref="F1488:O1488"/>
+    <mergeCell ref="F1513:O1513"/>
+    <mergeCell ref="F1514:O1514"/>
+    <mergeCell ref="F1515:O1515"/>
+    <mergeCell ref="F1516:O1516"/>
+    <mergeCell ref="F1517:O1517"/>
+    <mergeCell ref="F1518:O1518"/>
+    <mergeCell ref="F1507:O1507"/>
+    <mergeCell ref="F1508:O1508"/>
+    <mergeCell ref="F1509:O1509"/>
+    <mergeCell ref="F1510:O1510"/>
+    <mergeCell ref="F1511:O1511"/>
+    <mergeCell ref="F1512:O1512"/>
+    <mergeCell ref="F1501:O1501"/>
+    <mergeCell ref="F1502:O1502"/>
+    <mergeCell ref="F1503:O1503"/>
+    <mergeCell ref="F1504:O1504"/>
+    <mergeCell ref="F1505:O1505"/>
+    <mergeCell ref="F1506:O1506"/>
+    <mergeCell ref="F1531:O1531"/>
+    <mergeCell ref="F1532:O1532"/>
+    <mergeCell ref="F1533:O1533"/>
+    <mergeCell ref="F1534:O1534"/>
+    <mergeCell ref="F1535:O1535"/>
+    <mergeCell ref="F1536:O1536"/>
+    <mergeCell ref="F1525:O1525"/>
+    <mergeCell ref="F1526:O1526"/>
+    <mergeCell ref="F1527:O1527"/>
+    <mergeCell ref="F1528:O1528"/>
+    <mergeCell ref="F1529:O1529"/>
+    <mergeCell ref="F1530:O1530"/>
+    <mergeCell ref="F1519:O1519"/>
+    <mergeCell ref="F1520:O1520"/>
+    <mergeCell ref="F1521:O1521"/>
+    <mergeCell ref="F1522:O1522"/>
+    <mergeCell ref="F1523:O1523"/>
+    <mergeCell ref="F1524:O1524"/>
+    <mergeCell ref="F1549:O1549"/>
+    <mergeCell ref="F1550:O1550"/>
+    <mergeCell ref="F1551:O1551"/>
+    <mergeCell ref="F1552:O1552"/>
+    <mergeCell ref="F1553:O1553"/>
+    <mergeCell ref="F1554:O1554"/>
+    <mergeCell ref="F1543:O1543"/>
+    <mergeCell ref="F1544:O1544"/>
+    <mergeCell ref="F1545:O1545"/>
+    <mergeCell ref="F1546:O1546"/>
+    <mergeCell ref="F1547:O1547"/>
+    <mergeCell ref="F1548:O1548"/>
+    <mergeCell ref="F1537:O1537"/>
+    <mergeCell ref="F1538:O1538"/>
+    <mergeCell ref="F1539:O1539"/>
+    <mergeCell ref="F1540:O1540"/>
+    <mergeCell ref="F1541:O1541"/>
+    <mergeCell ref="F1542:O1542"/>
+    <mergeCell ref="F1567:O1567"/>
+    <mergeCell ref="F1568:O1568"/>
+    <mergeCell ref="F1569:O1569"/>
+    <mergeCell ref="F1570:O1570"/>
+    <mergeCell ref="F1571:O1571"/>
+    <mergeCell ref="F1572:O1572"/>
+    <mergeCell ref="F1561:O1561"/>
+    <mergeCell ref="F1562:O1562"/>
+    <mergeCell ref="F1563:O1563"/>
+    <mergeCell ref="F1564:O1564"/>
+    <mergeCell ref="F1565:O1565"/>
+    <mergeCell ref="F1566:O1566"/>
+    <mergeCell ref="F1555:O1555"/>
+    <mergeCell ref="F1556:O1556"/>
+    <mergeCell ref="F1557:O1557"/>
+    <mergeCell ref="F1558:O1558"/>
+    <mergeCell ref="F1559:O1559"/>
+    <mergeCell ref="F1560:O1560"/>
+    <mergeCell ref="F1585:O1585"/>
+    <mergeCell ref="F1586:O1586"/>
+    <mergeCell ref="F1587:O1587"/>
+    <mergeCell ref="F1588:O1588"/>
+    <mergeCell ref="F1589:O1589"/>
+    <mergeCell ref="F1590:O1590"/>
+    <mergeCell ref="F1579:O1579"/>
+    <mergeCell ref="F1580:O1580"/>
+    <mergeCell ref="F1581:O1581"/>
+    <mergeCell ref="F1582:O1582"/>
+    <mergeCell ref="F1583:O1583"/>
+    <mergeCell ref="F1584:O1584"/>
+    <mergeCell ref="F1573:O1573"/>
+    <mergeCell ref="F1574:O1574"/>
+    <mergeCell ref="F1575:O1575"/>
+    <mergeCell ref="F1576:O1576"/>
+    <mergeCell ref="F1577:O1577"/>
+    <mergeCell ref="F1578:O1578"/>
+    <mergeCell ref="F1603:O1603"/>
+    <mergeCell ref="F1604:O1604"/>
+    <mergeCell ref="F1605:O1605"/>
+    <mergeCell ref="F1606:O1606"/>
+    <mergeCell ref="F1607:O1607"/>
+    <mergeCell ref="F1608:O1608"/>
+    <mergeCell ref="F1597:O1597"/>
+    <mergeCell ref="F1598:O1598"/>
+    <mergeCell ref="F1599:O1599"/>
+    <mergeCell ref="F1600:O1600"/>
+    <mergeCell ref="F1601:O1601"/>
+    <mergeCell ref="F1602:O1602"/>
+    <mergeCell ref="F1591:O1591"/>
+    <mergeCell ref="F1592:O1592"/>
+    <mergeCell ref="F1593:O1593"/>
+    <mergeCell ref="F1594:O1594"/>
+    <mergeCell ref="F1595:O1595"/>
+    <mergeCell ref="F1596:O1596"/>
+    <mergeCell ref="F1621:O1621"/>
+    <mergeCell ref="F1622:O1622"/>
+    <mergeCell ref="F1623:O1623"/>
+    <mergeCell ref="F1624:O1624"/>
+    <mergeCell ref="F1625:O1625"/>
+    <mergeCell ref="F1626:O1626"/>
+    <mergeCell ref="F1615:O1615"/>
+    <mergeCell ref="F1616:O1616"/>
+    <mergeCell ref="F1617:O1617"/>
+    <mergeCell ref="F1618:O1618"/>
+    <mergeCell ref="F1619:O1619"/>
+    <mergeCell ref="F1620:O1620"/>
+    <mergeCell ref="F1609:O1609"/>
+    <mergeCell ref="F1610:O1610"/>
+    <mergeCell ref="F1611:O1611"/>
+    <mergeCell ref="F1612:O1612"/>
+    <mergeCell ref="F1613:O1613"/>
+    <mergeCell ref="F1614:O1614"/>
+    <mergeCell ref="F1639:O1639"/>
+    <mergeCell ref="F1640:O1640"/>
+    <mergeCell ref="F1641:O1641"/>
+    <mergeCell ref="F1642:O1642"/>
+    <mergeCell ref="F1643:O1643"/>
+    <mergeCell ref="F1644:O1644"/>
+    <mergeCell ref="F1633:O1633"/>
+    <mergeCell ref="F1634:O1634"/>
+    <mergeCell ref="F1635:O1635"/>
+    <mergeCell ref="F1636:O1636"/>
+    <mergeCell ref="F1637:O1637"/>
+    <mergeCell ref="F1638:O1638"/>
+    <mergeCell ref="F1627:O1627"/>
+    <mergeCell ref="F1628:O1628"/>
+    <mergeCell ref="F1629:O1629"/>
+    <mergeCell ref="F1630:O1630"/>
+    <mergeCell ref="F1631:O1631"/>
+    <mergeCell ref="F1632:O1632"/>
     <mergeCell ref="F1657:O1657"/>
     <mergeCell ref="F1658:O1658"/>
     <mergeCell ref="F1659:O1659"/>
@@ -20592,1650 +22275,23 @@
     <mergeCell ref="F1648:O1648"/>
     <mergeCell ref="F1649:O1649"/>
     <mergeCell ref="F1650:O1650"/>
-    <mergeCell ref="F1639:O1639"/>
-    <mergeCell ref="F1640:O1640"/>
-    <mergeCell ref="F1641:O1641"/>
-    <mergeCell ref="F1642:O1642"/>
-    <mergeCell ref="F1643:O1643"/>
-    <mergeCell ref="F1644:O1644"/>
-    <mergeCell ref="F1633:O1633"/>
-    <mergeCell ref="F1634:O1634"/>
-    <mergeCell ref="F1635:O1635"/>
-    <mergeCell ref="F1636:O1636"/>
-    <mergeCell ref="F1637:O1637"/>
-    <mergeCell ref="F1638:O1638"/>
-    <mergeCell ref="F1627:O1627"/>
-    <mergeCell ref="F1628:O1628"/>
-    <mergeCell ref="F1629:O1629"/>
-    <mergeCell ref="F1630:O1630"/>
-    <mergeCell ref="F1631:O1631"/>
-    <mergeCell ref="F1632:O1632"/>
-    <mergeCell ref="F1621:O1621"/>
-    <mergeCell ref="F1622:O1622"/>
-    <mergeCell ref="F1623:O1623"/>
-    <mergeCell ref="F1624:O1624"/>
-    <mergeCell ref="F1625:O1625"/>
-    <mergeCell ref="F1626:O1626"/>
-    <mergeCell ref="F1615:O1615"/>
-    <mergeCell ref="F1616:O1616"/>
-    <mergeCell ref="F1617:O1617"/>
-    <mergeCell ref="F1618:O1618"/>
-    <mergeCell ref="F1619:O1619"/>
-    <mergeCell ref="F1620:O1620"/>
-    <mergeCell ref="F1609:O1609"/>
-    <mergeCell ref="F1610:O1610"/>
-    <mergeCell ref="F1611:O1611"/>
-    <mergeCell ref="F1612:O1612"/>
-    <mergeCell ref="F1613:O1613"/>
-    <mergeCell ref="F1614:O1614"/>
-    <mergeCell ref="F1603:O1603"/>
-    <mergeCell ref="F1604:O1604"/>
-    <mergeCell ref="F1605:O1605"/>
-    <mergeCell ref="F1606:O1606"/>
-    <mergeCell ref="F1607:O1607"/>
-    <mergeCell ref="F1608:O1608"/>
-    <mergeCell ref="F1597:O1597"/>
-    <mergeCell ref="F1598:O1598"/>
-    <mergeCell ref="F1599:O1599"/>
-    <mergeCell ref="F1600:O1600"/>
-    <mergeCell ref="F1601:O1601"/>
-    <mergeCell ref="F1602:O1602"/>
-    <mergeCell ref="F1591:O1591"/>
-    <mergeCell ref="F1592:O1592"/>
-    <mergeCell ref="F1593:O1593"/>
-    <mergeCell ref="F1594:O1594"/>
-    <mergeCell ref="F1595:O1595"/>
-    <mergeCell ref="F1596:O1596"/>
-    <mergeCell ref="F1585:O1585"/>
-    <mergeCell ref="F1586:O1586"/>
-    <mergeCell ref="F1587:O1587"/>
-    <mergeCell ref="F1588:O1588"/>
-    <mergeCell ref="F1589:O1589"/>
-    <mergeCell ref="F1590:O1590"/>
-    <mergeCell ref="F1579:O1579"/>
-    <mergeCell ref="F1580:O1580"/>
-    <mergeCell ref="F1581:O1581"/>
-    <mergeCell ref="F1582:O1582"/>
-    <mergeCell ref="F1583:O1583"/>
-    <mergeCell ref="F1584:O1584"/>
-    <mergeCell ref="F1573:O1573"/>
-    <mergeCell ref="F1574:O1574"/>
-    <mergeCell ref="F1575:O1575"/>
-    <mergeCell ref="F1576:O1576"/>
-    <mergeCell ref="F1577:O1577"/>
-    <mergeCell ref="F1578:O1578"/>
-    <mergeCell ref="F1567:O1567"/>
-    <mergeCell ref="F1568:O1568"/>
-    <mergeCell ref="F1569:O1569"/>
-    <mergeCell ref="F1570:O1570"/>
-    <mergeCell ref="F1571:O1571"/>
-    <mergeCell ref="F1572:O1572"/>
-    <mergeCell ref="F1561:O1561"/>
-    <mergeCell ref="F1562:O1562"/>
-    <mergeCell ref="F1563:O1563"/>
-    <mergeCell ref="F1564:O1564"/>
-    <mergeCell ref="F1565:O1565"/>
-    <mergeCell ref="F1566:O1566"/>
-    <mergeCell ref="F1555:O1555"/>
-    <mergeCell ref="F1556:O1556"/>
-    <mergeCell ref="F1557:O1557"/>
-    <mergeCell ref="F1558:O1558"/>
-    <mergeCell ref="F1559:O1559"/>
-    <mergeCell ref="F1560:O1560"/>
-    <mergeCell ref="F1549:O1549"/>
-    <mergeCell ref="F1550:O1550"/>
-    <mergeCell ref="F1551:O1551"/>
-    <mergeCell ref="F1552:O1552"/>
-    <mergeCell ref="F1553:O1553"/>
-    <mergeCell ref="F1554:O1554"/>
-    <mergeCell ref="F1543:O1543"/>
-    <mergeCell ref="F1544:O1544"/>
-    <mergeCell ref="F1545:O1545"/>
-    <mergeCell ref="F1546:O1546"/>
-    <mergeCell ref="F1547:O1547"/>
-    <mergeCell ref="F1548:O1548"/>
-    <mergeCell ref="F1537:O1537"/>
-    <mergeCell ref="F1538:O1538"/>
-    <mergeCell ref="F1539:O1539"/>
-    <mergeCell ref="F1540:O1540"/>
-    <mergeCell ref="F1541:O1541"/>
-    <mergeCell ref="F1542:O1542"/>
-    <mergeCell ref="F1531:O1531"/>
-    <mergeCell ref="F1532:O1532"/>
-    <mergeCell ref="F1533:O1533"/>
-    <mergeCell ref="F1534:O1534"/>
-    <mergeCell ref="F1535:O1535"/>
-    <mergeCell ref="F1536:O1536"/>
-    <mergeCell ref="F1525:O1525"/>
-    <mergeCell ref="F1526:O1526"/>
-    <mergeCell ref="F1527:O1527"/>
-    <mergeCell ref="F1528:O1528"/>
-    <mergeCell ref="F1529:O1529"/>
-    <mergeCell ref="F1530:O1530"/>
-    <mergeCell ref="F1519:O1519"/>
-    <mergeCell ref="F1520:O1520"/>
-    <mergeCell ref="F1521:O1521"/>
-    <mergeCell ref="F1522:O1522"/>
-    <mergeCell ref="F1523:O1523"/>
-    <mergeCell ref="F1524:O1524"/>
-    <mergeCell ref="F1513:O1513"/>
-    <mergeCell ref="F1514:O1514"/>
-    <mergeCell ref="F1515:O1515"/>
-    <mergeCell ref="F1516:O1516"/>
-    <mergeCell ref="F1517:O1517"/>
-    <mergeCell ref="F1518:O1518"/>
-    <mergeCell ref="F1507:O1507"/>
-    <mergeCell ref="F1508:O1508"/>
-    <mergeCell ref="F1509:O1509"/>
-    <mergeCell ref="F1510:O1510"/>
-    <mergeCell ref="F1511:O1511"/>
-    <mergeCell ref="F1512:O1512"/>
-    <mergeCell ref="F1501:O1501"/>
-    <mergeCell ref="F1502:O1502"/>
-    <mergeCell ref="F1503:O1503"/>
-    <mergeCell ref="F1504:O1504"/>
-    <mergeCell ref="F1505:O1505"/>
-    <mergeCell ref="F1506:O1506"/>
-    <mergeCell ref="F1495:O1495"/>
-    <mergeCell ref="F1496:O1496"/>
-    <mergeCell ref="F1497:O1497"/>
-    <mergeCell ref="F1498:O1498"/>
-    <mergeCell ref="F1499:O1499"/>
-    <mergeCell ref="F1500:O1500"/>
-    <mergeCell ref="F1489:O1489"/>
-    <mergeCell ref="F1490:O1490"/>
-    <mergeCell ref="F1491:O1491"/>
-    <mergeCell ref="F1492:O1492"/>
-    <mergeCell ref="F1493:O1493"/>
-    <mergeCell ref="F1494:O1494"/>
-    <mergeCell ref="F1483:O1483"/>
-    <mergeCell ref="F1484:O1484"/>
-    <mergeCell ref="F1485:O1485"/>
-    <mergeCell ref="F1486:O1486"/>
-    <mergeCell ref="F1487:O1487"/>
-    <mergeCell ref="F1488:O1488"/>
-    <mergeCell ref="F1477:O1477"/>
-    <mergeCell ref="F1478:O1478"/>
-    <mergeCell ref="F1479:O1479"/>
-    <mergeCell ref="F1480:O1480"/>
-    <mergeCell ref="F1481:O1481"/>
-    <mergeCell ref="F1482:O1482"/>
-    <mergeCell ref="F1471:O1471"/>
-    <mergeCell ref="F1472:O1472"/>
-    <mergeCell ref="F1473:O1473"/>
-    <mergeCell ref="F1474:O1474"/>
-    <mergeCell ref="F1475:O1475"/>
-    <mergeCell ref="F1476:O1476"/>
-    <mergeCell ref="F1465:O1465"/>
-    <mergeCell ref="F1466:O1466"/>
-    <mergeCell ref="F1467:O1467"/>
-    <mergeCell ref="F1468:O1468"/>
-    <mergeCell ref="F1469:O1469"/>
-    <mergeCell ref="F1470:O1470"/>
-    <mergeCell ref="F1459:O1459"/>
-    <mergeCell ref="F1460:O1460"/>
-    <mergeCell ref="F1461:O1461"/>
-    <mergeCell ref="F1462:O1462"/>
-    <mergeCell ref="F1463:O1463"/>
-    <mergeCell ref="F1464:O1464"/>
-    <mergeCell ref="F1453:O1453"/>
-    <mergeCell ref="F1454:O1454"/>
-    <mergeCell ref="F1455:O1455"/>
-    <mergeCell ref="F1456:O1456"/>
-    <mergeCell ref="F1457:O1457"/>
-    <mergeCell ref="F1458:O1458"/>
-    <mergeCell ref="F1447:O1447"/>
-    <mergeCell ref="F1448:O1448"/>
-    <mergeCell ref="F1449:O1449"/>
-    <mergeCell ref="F1450:O1450"/>
-    <mergeCell ref="F1451:O1451"/>
-    <mergeCell ref="F1452:O1452"/>
-    <mergeCell ref="F1441:O1441"/>
-    <mergeCell ref="F1442:O1442"/>
-    <mergeCell ref="F1443:O1443"/>
-    <mergeCell ref="F1444:O1444"/>
-    <mergeCell ref="F1445:O1445"/>
-    <mergeCell ref="F1446:O1446"/>
-    <mergeCell ref="F1435:O1435"/>
-    <mergeCell ref="F1436:O1436"/>
-    <mergeCell ref="F1437:O1437"/>
-    <mergeCell ref="F1438:O1438"/>
-    <mergeCell ref="F1439:O1439"/>
-    <mergeCell ref="F1440:O1440"/>
-    <mergeCell ref="F1429:O1429"/>
-    <mergeCell ref="F1430:O1430"/>
-    <mergeCell ref="F1431:O1431"/>
-    <mergeCell ref="F1432:O1432"/>
-    <mergeCell ref="F1433:O1433"/>
-    <mergeCell ref="F1434:O1434"/>
-    <mergeCell ref="F1423:O1423"/>
-    <mergeCell ref="F1424:O1424"/>
-    <mergeCell ref="F1425:O1425"/>
-    <mergeCell ref="F1426:O1426"/>
-    <mergeCell ref="F1427:O1427"/>
-    <mergeCell ref="F1428:O1428"/>
-    <mergeCell ref="F1417:O1417"/>
-    <mergeCell ref="F1418:O1418"/>
-    <mergeCell ref="F1419:O1419"/>
-    <mergeCell ref="F1420:O1420"/>
-    <mergeCell ref="F1421:O1421"/>
-    <mergeCell ref="F1422:O1422"/>
-    <mergeCell ref="F1411:O1411"/>
-    <mergeCell ref="F1412:O1412"/>
-    <mergeCell ref="F1413:O1413"/>
-    <mergeCell ref="F1414:O1414"/>
-    <mergeCell ref="F1415:O1415"/>
-    <mergeCell ref="F1416:O1416"/>
-    <mergeCell ref="F1405:O1405"/>
-    <mergeCell ref="F1406:O1406"/>
-    <mergeCell ref="F1407:O1407"/>
-    <mergeCell ref="F1408:O1408"/>
-    <mergeCell ref="F1409:O1409"/>
-    <mergeCell ref="F1410:O1410"/>
-    <mergeCell ref="F1399:O1399"/>
-    <mergeCell ref="F1400:O1400"/>
-    <mergeCell ref="F1401:O1401"/>
-    <mergeCell ref="F1402:O1402"/>
-    <mergeCell ref="F1403:O1403"/>
-    <mergeCell ref="F1404:O1404"/>
-    <mergeCell ref="F1393:O1393"/>
-    <mergeCell ref="F1394:O1394"/>
-    <mergeCell ref="F1395:O1395"/>
-    <mergeCell ref="F1396:O1396"/>
-    <mergeCell ref="F1397:O1397"/>
-    <mergeCell ref="F1398:O1398"/>
-    <mergeCell ref="F1387:O1387"/>
-    <mergeCell ref="F1388:O1388"/>
-    <mergeCell ref="F1389:O1389"/>
-    <mergeCell ref="F1390:O1390"/>
-    <mergeCell ref="F1391:O1391"/>
-    <mergeCell ref="F1392:O1392"/>
-    <mergeCell ref="F1381:O1381"/>
-    <mergeCell ref="F1382:O1382"/>
-    <mergeCell ref="F1383:O1383"/>
-    <mergeCell ref="F1384:O1384"/>
-    <mergeCell ref="F1385:O1385"/>
-    <mergeCell ref="F1386:O1386"/>
-    <mergeCell ref="F1375:O1375"/>
-    <mergeCell ref="F1376:O1376"/>
-    <mergeCell ref="F1377:O1377"/>
-    <mergeCell ref="F1378:O1378"/>
-    <mergeCell ref="F1379:O1379"/>
-    <mergeCell ref="F1380:O1380"/>
-    <mergeCell ref="F1369:O1369"/>
-    <mergeCell ref="F1370:O1370"/>
-    <mergeCell ref="F1371:O1371"/>
-    <mergeCell ref="F1372:O1372"/>
-    <mergeCell ref="F1373:O1373"/>
-    <mergeCell ref="F1374:O1374"/>
-    <mergeCell ref="F1363:O1363"/>
-    <mergeCell ref="F1364:O1364"/>
-    <mergeCell ref="F1365:O1365"/>
-    <mergeCell ref="F1366:O1366"/>
-    <mergeCell ref="F1367:O1367"/>
-    <mergeCell ref="F1368:O1368"/>
-    <mergeCell ref="F1357:O1357"/>
-    <mergeCell ref="F1358:O1358"/>
-    <mergeCell ref="F1359:O1359"/>
-    <mergeCell ref="F1360:O1360"/>
-    <mergeCell ref="F1361:O1361"/>
-    <mergeCell ref="F1362:O1362"/>
-    <mergeCell ref="F1351:O1351"/>
-    <mergeCell ref="F1352:O1352"/>
-    <mergeCell ref="F1353:O1353"/>
-    <mergeCell ref="F1354:O1354"/>
-    <mergeCell ref="F1355:O1355"/>
-    <mergeCell ref="F1356:O1356"/>
-    <mergeCell ref="F1345:O1345"/>
-    <mergeCell ref="F1346:O1346"/>
-    <mergeCell ref="F1347:O1347"/>
-    <mergeCell ref="F1348:O1348"/>
-    <mergeCell ref="F1349:O1349"/>
-    <mergeCell ref="F1350:O1350"/>
-    <mergeCell ref="F1339:O1339"/>
-    <mergeCell ref="F1340:O1340"/>
-    <mergeCell ref="F1341:O1341"/>
-    <mergeCell ref="F1342:O1342"/>
-    <mergeCell ref="F1343:O1343"/>
-    <mergeCell ref="F1344:O1344"/>
-    <mergeCell ref="F1333:O1333"/>
-    <mergeCell ref="F1334:O1334"/>
-    <mergeCell ref="F1335:O1335"/>
-    <mergeCell ref="F1336:O1336"/>
-    <mergeCell ref="F1337:O1337"/>
-    <mergeCell ref="F1338:O1338"/>
-    <mergeCell ref="F1327:O1327"/>
-    <mergeCell ref="F1328:O1328"/>
-    <mergeCell ref="F1329:O1329"/>
-    <mergeCell ref="F1330:O1330"/>
-    <mergeCell ref="F1331:O1331"/>
-    <mergeCell ref="F1332:O1332"/>
-    <mergeCell ref="F1321:O1321"/>
-    <mergeCell ref="F1322:O1322"/>
-    <mergeCell ref="F1323:O1323"/>
-    <mergeCell ref="F1324:O1324"/>
-    <mergeCell ref="F1325:O1325"/>
-    <mergeCell ref="F1326:O1326"/>
-    <mergeCell ref="F1315:O1315"/>
-    <mergeCell ref="F1316:O1316"/>
-    <mergeCell ref="F1317:O1317"/>
-    <mergeCell ref="F1318:O1318"/>
-    <mergeCell ref="F1319:O1319"/>
-    <mergeCell ref="F1320:O1320"/>
-    <mergeCell ref="F1309:O1309"/>
-    <mergeCell ref="F1310:O1310"/>
-    <mergeCell ref="F1311:O1311"/>
-    <mergeCell ref="F1312:O1312"/>
-    <mergeCell ref="F1313:O1313"/>
-    <mergeCell ref="F1314:O1314"/>
-    <mergeCell ref="F1303:O1303"/>
-    <mergeCell ref="F1304:O1304"/>
-    <mergeCell ref="F1305:O1305"/>
-    <mergeCell ref="F1306:O1306"/>
-    <mergeCell ref="F1307:O1307"/>
-    <mergeCell ref="F1308:O1308"/>
-    <mergeCell ref="F1297:O1297"/>
-    <mergeCell ref="F1298:O1298"/>
-    <mergeCell ref="F1299:O1299"/>
-    <mergeCell ref="F1300:O1300"/>
-    <mergeCell ref="F1301:O1301"/>
-    <mergeCell ref="F1302:O1302"/>
-    <mergeCell ref="F1291:O1291"/>
-    <mergeCell ref="F1292:O1292"/>
-    <mergeCell ref="F1293:O1293"/>
-    <mergeCell ref="F1294:O1294"/>
-    <mergeCell ref="F1295:O1295"/>
-    <mergeCell ref="F1296:O1296"/>
-    <mergeCell ref="F1285:O1285"/>
-    <mergeCell ref="F1286:O1286"/>
-    <mergeCell ref="F1287:O1287"/>
-    <mergeCell ref="F1288:O1288"/>
-    <mergeCell ref="F1289:O1289"/>
-    <mergeCell ref="F1290:O1290"/>
-    <mergeCell ref="F1279:O1279"/>
-    <mergeCell ref="F1280:O1280"/>
-    <mergeCell ref="F1281:O1281"/>
-    <mergeCell ref="F1282:O1282"/>
-    <mergeCell ref="F1283:O1283"/>
-    <mergeCell ref="F1284:O1284"/>
-    <mergeCell ref="F1273:O1273"/>
-    <mergeCell ref="F1274:O1274"/>
-    <mergeCell ref="F1275:O1275"/>
-    <mergeCell ref="F1276:O1276"/>
-    <mergeCell ref="F1277:O1277"/>
-    <mergeCell ref="F1278:O1278"/>
-    <mergeCell ref="F1267:O1267"/>
-    <mergeCell ref="F1268:O1268"/>
-    <mergeCell ref="F1269:O1269"/>
-    <mergeCell ref="F1270:O1270"/>
-    <mergeCell ref="F1271:O1271"/>
-    <mergeCell ref="F1272:O1272"/>
-    <mergeCell ref="F1261:O1261"/>
-    <mergeCell ref="F1262:O1262"/>
-    <mergeCell ref="F1263:O1263"/>
-    <mergeCell ref="F1264:O1264"/>
-    <mergeCell ref="F1265:O1265"/>
-    <mergeCell ref="F1266:O1266"/>
-    <mergeCell ref="F1255:O1255"/>
-    <mergeCell ref="F1256:O1256"/>
-    <mergeCell ref="F1257:O1257"/>
-    <mergeCell ref="F1258:O1258"/>
-    <mergeCell ref="F1259:O1259"/>
-    <mergeCell ref="F1260:O1260"/>
-    <mergeCell ref="F1249:O1249"/>
-    <mergeCell ref="F1250:O1250"/>
-    <mergeCell ref="F1251:O1251"/>
-    <mergeCell ref="F1252:O1252"/>
-    <mergeCell ref="F1253:O1253"/>
-    <mergeCell ref="F1254:O1254"/>
-    <mergeCell ref="F1243:O1243"/>
-    <mergeCell ref="F1244:O1244"/>
-    <mergeCell ref="F1245:O1245"/>
-    <mergeCell ref="F1246:O1246"/>
-    <mergeCell ref="F1247:O1247"/>
-    <mergeCell ref="F1248:O1248"/>
-    <mergeCell ref="F1237:O1237"/>
-    <mergeCell ref="F1238:O1238"/>
-    <mergeCell ref="F1239:O1239"/>
-    <mergeCell ref="F1240:O1240"/>
-    <mergeCell ref="F1241:O1241"/>
-    <mergeCell ref="F1242:O1242"/>
-    <mergeCell ref="F1231:O1231"/>
-    <mergeCell ref="F1232:O1232"/>
-    <mergeCell ref="F1233:O1233"/>
-    <mergeCell ref="F1234:O1234"/>
-    <mergeCell ref="F1235:O1235"/>
-    <mergeCell ref="F1236:O1236"/>
-    <mergeCell ref="F1225:O1225"/>
-    <mergeCell ref="F1226:O1226"/>
-    <mergeCell ref="F1227:O1227"/>
-    <mergeCell ref="F1228:O1228"/>
-    <mergeCell ref="F1229:O1229"/>
-    <mergeCell ref="F1230:O1230"/>
-    <mergeCell ref="F1219:O1219"/>
-    <mergeCell ref="F1220:O1220"/>
-    <mergeCell ref="F1221:O1221"/>
-    <mergeCell ref="F1222:O1222"/>
-    <mergeCell ref="F1223:O1223"/>
-    <mergeCell ref="F1224:O1224"/>
-    <mergeCell ref="F1213:O1213"/>
-    <mergeCell ref="F1214:O1214"/>
-    <mergeCell ref="F1215:O1215"/>
-    <mergeCell ref="F1216:O1216"/>
-    <mergeCell ref="F1217:O1217"/>
-    <mergeCell ref="F1218:O1218"/>
-    <mergeCell ref="F1207:O1207"/>
-    <mergeCell ref="F1208:O1208"/>
-    <mergeCell ref="F1209:O1209"/>
-    <mergeCell ref="F1210:O1210"/>
-    <mergeCell ref="F1211:O1211"/>
-    <mergeCell ref="F1212:O1212"/>
-    <mergeCell ref="F1201:O1201"/>
-    <mergeCell ref="F1202:O1202"/>
-    <mergeCell ref="F1203:O1203"/>
-    <mergeCell ref="F1204:O1204"/>
-    <mergeCell ref="F1205:O1205"/>
-    <mergeCell ref="F1206:O1206"/>
-    <mergeCell ref="F1195:O1195"/>
-    <mergeCell ref="F1196:O1196"/>
-    <mergeCell ref="F1197:O1197"/>
-    <mergeCell ref="F1198:O1198"/>
-    <mergeCell ref="F1199:O1199"/>
-    <mergeCell ref="F1200:O1200"/>
-    <mergeCell ref="F1189:O1189"/>
-    <mergeCell ref="F1190:O1190"/>
-    <mergeCell ref="F1191:O1191"/>
-    <mergeCell ref="F1192:O1192"/>
-    <mergeCell ref="F1193:O1193"/>
-    <mergeCell ref="F1194:O1194"/>
-    <mergeCell ref="F1183:O1183"/>
-    <mergeCell ref="F1184:O1184"/>
-    <mergeCell ref="F1185:O1185"/>
-    <mergeCell ref="F1186:O1186"/>
-    <mergeCell ref="F1187:O1187"/>
-    <mergeCell ref="F1188:O1188"/>
-    <mergeCell ref="F1177:O1177"/>
-    <mergeCell ref="F1178:O1178"/>
-    <mergeCell ref="F1179:O1179"/>
-    <mergeCell ref="F1180:O1180"/>
-    <mergeCell ref="F1181:O1181"/>
-    <mergeCell ref="F1182:O1182"/>
-    <mergeCell ref="F1171:O1171"/>
-    <mergeCell ref="F1172:O1172"/>
-    <mergeCell ref="F1173:O1173"/>
-    <mergeCell ref="F1174:O1174"/>
-    <mergeCell ref="F1175:O1175"/>
-    <mergeCell ref="F1176:O1176"/>
-    <mergeCell ref="F1165:O1165"/>
-    <mergeCell ref="F1166:O1166"/>
-    <mergeCell ref="F1167:O1167"/>
-    <mergeCell ref="F1168:O1168"/>
-    <mergeCell ref="F1169:O1169"/>
-    <mergeCell ref="F1170:O1170"/>
-    <mergeCell ref="F1159:O1159"/>
-    <mergeCell ref="F1160:O1160"/>
-    <mergeCell ref="F1161:O1161"/>
-    <mergeCell ref="F1162:O1162"/>
-    <mergeCell ref="F1163:O1163"/>
-    <mergeCell ref="F1164:O1164"/>
-    <mergeCell ref="F1153:O1153"/>
-    <mergeCell ref="F1154:O1154"/>
-    <mergeCell ref="F1155:O1155"/>
-    <mergeCell ref="F1156:O1156"/>
-    <mergeCell ref="F1157:O1157"/>
-    <mergeCell ref="F1158:O1158"/>
-    <mergeCell ref="F1147:O1147"/>
-    <mergeCell ref="F1148:O1148"/>
-    <mergeCell ref="F1149:O1149"/>
-    <mergeCell ref="F1150:O1150"/>
-    <mergeCell ref="F1151:O1151"/>
-    <mergeCell ref="F1152:O1152"/>
-    <mergeCell ref="F1141:O1141"/>
-    <mergeCell ref="F1142:O1142"/>
-    <mergeCell ref="F1143:O1143"/>
-    <mergeCell ref="F1144:O1144"/>
-    <mergeCell ref="F1145:O1145"/>
-    <mergeCell ref="F1146:O1146"/>
-    <mergeCell ref="F1135:O1135"/>
-    <mergeCell ref="F1136:O1136"/>
-    <mergeCell ref="F1137:O1137"/>
-    <mergeCell ref="F1138:O1138"/>
-    <mergeCell ref="F1139:O1139"/>
-    <mergeCell ref="F1140:O1140"/>
-    <mergeCell ref="F1129:O1129"/>
-    <mergeCell ref="F1130:O1130"/>
-    <mergeCell ref="F1131:O1131"/>
-    <mergeCell ref="F1132:O1132"/>
-    <mergeCell ref="F1133:O1133"/>
-    <mergeCell ref="F1134:O1134"/>
-    <mergeCell ref="F1123:O1123"/>
-    <mergeCell ref="F1124:O1124"/>
-    <mergeCell ref="F1125:O1125"/>
-    <mergeCell ref="F1126:O1126"/>
-    <mergeCell ref="F1127:O1127"/>
-    <mergeCell ref="F1128:O1128"/>
-    <mergeCell ref="F1117:O1117"/>
-    <mergeCell ref="F1118:O1118"/>
-    <mergeCell ref="F1119:O1119"/>
-    <mergeCell ref="F1120:O1120"/>
-    <mergeCell ref="F1121:O1121"/>
-    <mergeCell ref="F1122:O1122"/>
-    <mergeCell ref="F1111:O1111"/>
-    <mergeCell ref="F1112:O1112"/>
-    <mergeCell ref="F1113:O1113"/>
-    <mergeCell ref="F1114:O1114"/>
-    <mergeCell ref="F1115:O1115"/>
-    <mergeCell ref="F1116:O1116"/>
-    <mergeCell ref="F1105:O1105"/>
-    <mergeCell ref="F1106:O1106"/>
-    <mergeCell ref="F1107:O1107"/>
-    <mergeCell ref="F1108:O1108"/>
-    <mergeCell ref="F1109:O1109"/>
-    <mergeCell ref="F1110:O1110"/>
-    <mergeCell ref="F1099:O1099"/>
-    <mergeCell ref="F1100:O1100"/>
-    <mergeCell ref="F1101:O1101"/>
-    <mergeCell ref="F1102:O1102"/>
-    <mergeCell ref="F1103:O1103"/>
-    <mergeCell ref="F1104:O1104"/>
-    <mergeCell ref="F1093:O1093"/>
-    <mergeCell ref="F1094:O1094"/>
-    <mergeCell ref="F1095:O1095"/>
-    <mergeCell ref="F1096:O1096"/>
-    <mergeCell ref="F1097:O1097"/>
-    <mergeCell ref="F1098:O1098"/>
-    <mergeCell ref="F1087:O1087"/>
-    <mergeCell ref="F1088:O1088"/>
-    <mergeCell ref="F1089:O1089"/>
-    <mergeCell ref="F1090:O1090"/>
-    <mergeCell ref="F1091:O1091"/>
-    <mergeCell ref="F1092:O1092"/>
-    <mergeCell ref="F1081:O1081"/>
-    <mergeCell ref="F1082:O1082"/>
-    <mergeCell ref="F1083:O1083"/>
-    <mergeCell ref="F1084:O1084"/>
-    <mergeCell ref="F1085:O1085"/>
-    <mergeCell ref="F1086:O1086"/>
-    <mergeCell ref="F1075:O1075"/>
-    <mergeCell ref="F1076:O1076"/>
-    <mergeCell ref="F1077:O1077"/>
-    <mergeCell ref="F1078:O1078"/>
-    <mergeCell ref="F1079:O1079"/>
-    <mergeCell ref="F1080:O1080"/>
-    <mergeCell ref="F1069:O1069"/>
-    <mergeCell ref="F1070:O1070"/>
-    <mergeCell ref="F1071:O1071"/>
-    <mergeCell ref="F1072:O1072"/>
-    <mergeCell ref="F1073:O1073"/>
-    <mergeCell ref="F1074:O1074"/>
-    <mergeCell ref="F1063:O1063"/>
-    <mergeCell ref="F1064:O1064"/>
-    <mergeCell ref="F1065:O1065"/>
-    <mergeCell ref="F1066:O1066"/>
-    <mergeCell ref="F1067:O1067"/>
-    <mergeCell ref="F1068:O1068"/>
-    <mergeCell ref="F1057:O1057"/>
-    <mergeCell ref="F1058:O1058"/>
-    <mergeCell ref="F1059:O1059"/>
-    <mergeCell ref="F1060:O1060"/>
-    <mergeCell ref="F1061:O1061"/>
-    <mergeCell ref="F1062:O1062"/>
-    <mergeCell ref="F1051:O1051"/>
-    <mergeCell ref="F1052:O1052"/>
-    <mergeCell ref="F1053:O1053"/>
-    <mergeCell ref="F1054:O1054"/>
-    <mergeCell ref="F1055:O1055"/>
-    <mergeCell ref="F1056:O1056"/>
-    <mergeCell ref="F1045:O1045"/>
-    <mergeCell ref="F1046:O1046"/>
-    <mergeCell ref="F1047:O1047"/>
-    <mergeCell ref="F1048:O1048"/>
-    <mergeCell ref="F1049:O1049"/>
-    <mergeCell ref="F1050:O1050"/>
-    <mergeCell ref="F1039:O1039"/>
-    <mergeCell ref="F1040:O1040"/>
-    <mergeCell ref="F1041:O1041"/>
-    <mergeCell ref="F1042:O1042"/>
-    <mergeCell ref="F1043:O1043"/>
-    <mergeCell ref="F1044:O1044"/>
-    <mergeCell ref="F1033:O1033"/>
-    <mergeCell ref="F1034:O1034"/>
-    <mergeCell ref="F1035:O1035"/>
-    <mergeCell ref="F1036:O1036"/>
-    <mergeCell ref="F1037:O1037"/>
-    <mergeCell ref="F1038:O1038"/>
-    <mergeCell ref="F1027:O1027"/>
-    <mergeCell ref="F1028:O1028"/>
-    <mergeCell ref="F1029:O1029"/>
-    <mergeCell ref="F1030:O1030"/>
-    <mergeCell ref="F1031:O1031"/>
-    <mergeCell ref="F1032:O1032"/>
-    <mergeCell ref="F1021:O1021"/>
-    <mergeCell ref="F1022:O1022"/>
-    <mergeCell ref="F1023:O1023"/>
-    <mergeCell ref="F1024:O1024"/>
-    <mergeCell ref="F1025:O1025"/>
-    <mergeCell ref="F1026:O1026"/>
-    <mergeCell ref="F1015:O1015"/>
-    <mergeCell ref="F1016:O1016"/>
-    <mergeCell ref="F1017:O1017"/>
-    <mergeCell ref="F1018:O1018"/>
-    <mergeCell ref="F1019:O1019"/>
-    <mergeCell ref="F1020:O1020"/>
-    <mergeCell ref="F1009:O1009"/>
-    <mergeCell ref="F1010:O1010"/>
-    <mergeCell ref="F1011:O1011"/>
-    <mergeCell ref="F1012:O1012"/>
-    <mergeCell ref="F1013:O1013"/>
-    <mergeCell ref="F1014:O1014"/>
-    <mergeCell ref="F1003:O1003"/>
-    <mergeCell ref="F1004:O1004"/>
-    <mergeCell ref="F1005:O1005"/>
-    <mergeCell ref="F1006:O1006"/>
-    <mergeCell ref="F1007:O1007"/>
-    <mergeCell ref="F1008:O1008"/>
-    <mergeCell ref="F997:O997"/>
-    <mergeCell ref="F998:O998"/>
-    <mergeCell ref="F999:O999"/>
-    <mergeCell ref="F1000:O1000"/>
-    <mergeCell ref="F1001:O1001"/>
-    <mergeCell ref="F1002:O1002"/>
-    <mergeCell ref="F991:O991"/>
-    <mergeCell ref="F992:O992"/>
-    <mergeCell ref="F993:O993"/>
-    <mergeCell ref="F994:O994"/>
-    <mergeCell ref="F995:O995"/>
-    <mergeCell ref="F996:O996"/>
-    <mergeCell ref="F985:O985"/>
-    <mergeCell ref="F986:O986"/>
-    <mergeCell ref="F987:O987"/>
-    <mergeCell ref="F988:O988"/>
-    <mergeCell ref="F989:O989"/>
-    <mergeCell ref="F990:O990"/>
-    <mergeCell ref="F979:O979"/>
-    <mergeCell ref="F980:O980"/>
-    <mergeCell ref="F981:O981"/>
-    <mergeCell ref="F982:O982"/>
-    <mergeCell ref="F983:O983"/>
-    <mergeCell ref="F984:O984"/>
-    <mergeCell ref="F973:O973"/>
-    <mergeCell ref="F974:O974"/>
-    <mergeCell ref="F975:O975"/>
-    <mergeCell ref="F976:O976"/>
-    <mergeCell ref="F977:O977"/>
-    <mergeCell ref="F978:O978"/>
-    <mergeCell ref="F967:O967"/>
-    <mergeCell ref="F968:O968"/>
-    <mergeCell ref="F969:O969"/>
-    <mergeCell ref="F970:O970"/>
-    <mergeCell ref="F971:O971"/>
-    <mergeCell ref="F972:O972"/>
-    <mergeCell ref="F961:O961"/>
-    <mergeCell ref="F962:O962"/>
-    <mergeCell ref="F963:O963"/>
-    <mergeCell ref="F964:O964"/>
-    <mergeCell ref="F965:O965"/>
-    <mergeCell ref="F966:O966"/>
-    <mergeCell ref="F955:O955"/>
-    <mergeCell ref="F956:O956"/>
-    <mergeCell ref="F957:O957"/>
-    <mergeCell ref="F958:O958"/>
-    <mergeCell ref="F959:O959"/>
-    <mergeCell ref="F960:O960"/>
-    <mergeCell ref="F949:O949"/>
-    <mergeCell ref="F950:O950"/>
-    <mergeCell ref="F951:O951"/>
-    <mergeCell ref="F952:O952"/>
-    <mergeCell ref="F953:O953"/>
-    <mergeCell ref="F954:O954"/>
-    <mergeCell ref="F943:O943"/>
-    <mergeCell ref="F944:O944"/>
-    <mergeCell ref="F945:O945"/>
-    <mergeCell ref="F946:O946"/>
-    <mergeCell ref="F947:O947"/>
-    <mergeCell ref="F948:O948"/>
-    <mergeCell ref="F937:O937"/>
-    <mergeCell ref="F938:O938"/>
-    <mergeCell ref="F939:O939"/>
-    <mergeCell ref="F940:O940"/>
-    <mergeCell ref="F941:O941"/>
-    <mergeCell ref="F942:O942"/>
-    <mergeCell ref="F931:O931"/>
-    <mergeCell ref="F932:O932"/>
-    <mergeCell ref="F933:O933"/>
-    <mergeCell ref="F934:O934"/>
-    <mergeCell ref="F935:O935"/>
-    <mergeCell ref="F936:O936"/>
-    <mergeCell ref="F925:O925"/>
-    <mergeCell ref="F926:O926"/>
-    <mergeCell ref="F927:O927"/>
-    <mergeCell ref="F928:O928"/>
-    <mergeCell ref="F929:O929"/>
-    <mergeCell ref="F930:O930"/>
-    <mergeCell ref="F919:O919"/>
-    <mergeCell ref="F920:O920"/>
-    <mergeCell ref="F921:O921"/>
-    <mergeCell ref="F922:O922"/>
-    <mergeCell ref="F923:O923"/>
-    <mergeCell ref="F924:O924"/>
-    <mergeCell ref="F913:O913"/>
-    <mergeCell ref="F914:O914"/>
-    <mergeCell ref="F915:O915"/>
-    <mergeCell ref="F916:O916"/>
-    <mergeCell ref="F917:O917"/>
-    <mergeCell ref="F918:O918"/>
-    <mergeCell ref="F907:O907"/>
-    <mergeCell ref="F908:O908"/>
-    <mergeCell ref="F909:O909"/>
-    <mergeCell ref="F910:O910"/>
-    <mergeCell ref="F911:O911"/>
-    <mergeCell ref="F912:O912"/>
-    <mergeCell ref="F901:O901"/>
-    <mergeCell ref="F902:O902"/>
-    <mergeCell ref="F903:O903"/>
-    <mergeCell ref="F904:O904"/>
-    <mergeCell ref="F905:O905"/>
-    <mergeCell ref="F906:O906"/>
-    <mergeCell ref="F895:O895"/>
-    <mergeCell ref="F896:O896"/>
-    <mergeCell ref="F897:O897"/>
-    <mergeCell ref="F898:O898"/>
-    <mergeCell ref="F899:O899"/>
-    <mergeCell ref="F900:O900"/>
-    <mergeCell ref="F889:O889"/>
-    <mergeCell ref="F890:O890"/>
-    <mergeCell ref="F891:O891"/>
-    <mergeCell ref="F892:O892"/>
-    <mergeCell ref="F893:O893"/>
-    <mergeCell ref="F894:O894"/>
-    <mergeCell ref="F883:O883"/>
-    <mergeCell ref="F884:O884"/>
-    <mergeCell ref="F885:O885"/>
-    <mergeCell ref="F886:O886"/>
-    <mergeCell ref="F887:O887"/>
-    <mergeCell ref="F888:O888"/>
-    <mergeCell ref="F877:O877"/>
-    <mergeCell ref="F878:O878"/>
-    <mergeCell ref="F879:O879"/>
-    <mergeCell ref="F880:O880"/>
-    <mergeCell ref="F881:O881"/>
-    <mergeCell ref="F882:O882"/>
-    <mergeCell ref="F871:O871"/>
-    <mergeCell ref="F872:O872"/>
-    <mergeCell ref="F873:O873"/>
-    <mergeCell ref="F874:O874"/>
-    <mergeCell ref="F875:O875"/>
-    <mergeCell ref="F876:O876"/>
-    <mergeCell ref="F865:O865"/>
-    <mergeCell ref="F866:O866"/>
-    <mergeCell ref="F867:O867"/>
-    <mergeCell ref="F868:O868"/>
-    <mergeCell ref="F869:O869"/>
-    <mergeCell ref="F870:O870"/>
-    <mergeCell ref="F859:O859"/>
-    <mergeCell ref="F860:O860"/>
-    <mergeCell ref="F861:O861"/>
-    <mergeCell ref="F862:O862"/>
-    <mergeCell ref="F863:O863"/>
-    <mergeCell ref="F864:O864"/>
-    <mergeCell ref="F853:O853"/>
-    <mergeCell ref="F854:O854"/>
-    <mergeCell ref="F855:O855"/>
-    <mergeCell ref="F856:O856"/>
-    <mergeCell ref="F857:O857"/>
-    <mergeCell ref="F858:O858"/>
-    <mergeCell ref="F847:O847"/>
-    <mergeCell ref="F848:O848"/>
-    <mergeCell ref="F849:O849"/>
-    <mergeCell ref="F850:O850"/>
-    <mergeCell ref="F851:O851"/>
-    <mergeCell ref="F852:O852"/>
-    <mergeCell ref="F841:O841"/>
-    <mergeCell ref="F842:O842"/>
-    <mergeCell ref="F843:O843"/>
-    <mergeCell ref="F844:O844"/>
-    <mergeCell ref="F845:O845"/>
-    <mergeCell ref="F846:O846"/>
-    <mergeCell ref="F835:O835"/>
-    <mergeCell ref="F836:O836"/>
-    <mergeCell ref="F837:O837"/>
-    <mergeCell ref="F838:O838"/>
-    <mergeCell ref="F839:O839"/>
-    <mergeCell ref="F840:O840"/>
-    <mergeCell ref="F829:O829"/>
-    <mergeCell ref="F830:O830"/>
-    <mergeCell ref="F831:O831"/>
-    <mergeCell ref="F832:O832"/>
-    <mergeCell ref="F833:O833"/>
-    <mergeCell ref="F834:O834"/>
-    <mergeCell ref="F823:O823"/>
-    <mergeCell ref="F824:O824"/>
-    <mergeCell ref="F825:O825"/>
-    <mergeCell ref="F826:O826"/>
-    <mergeCell ref="F827:O827"/>
-    <mergeCell ref="F828:O828"/>
-    <mergeCell ref="F817:O817"/>
-    <mergeCell ref="F818:O818"/>
-    <mergeCell ref="F819:O819"/>
-    <mergeCell ref="F820:O820"/>
-    <mergeCell ref="F821:O821"/>
-    <mergeCell ref="F822:O822"/>
-    <mergeCell ref="F811:O811"/>
-    <mergeCell ref="F812:O812"/>
-    <mergeCell ref="F813:O813"/>
-    <mergeCell ref="F814:O814"/>
-    <mergeCell ref="F815:O815"/>
-    <mergeCell ref="F816:O816"/>
-    <mergeCell ref="F805:O805"/>
-    <mergeCell ref="F806:O806"/>
-    <mergeCell ref="F807:O807"/>
-    <mergeCell ref="F808:O808"/>
-    <mergeCell ref="F809:O809"/>
-    <mergeCell ref="F810:O810"/>
-    <mergeCell ref="F799:O799"/>
-    <mergeCell ref="F800:O800"/>
-    <mergeCell ref="F801:O801"/>
-    <mergeCell ref="F802:O802"/>
-    <mergeCell ref="F803:O803"/>
-    <mergeCell ref="F804:O804"/>
-    <mergeCell ref="F793:O793"/>
-    <mergeCell ref="F794:O794"/>
-    <mergeCell ref="F795:O795"/>
-    <mergeCell ref="F796:O796"/>
-    <mergeCell ref="F797:O797"/>
-    <mergeCell ref="F798:O798"/>
-    <mergeCell ref="F787:O787"/>
-    <mergeCell ref="F788:O788"/>
-    <mergeCell ref="F789:O789"/>
-    <mergeCell ref="F790:O790"/>
-    <mergeCell ref="F791:O791"/>
-    <mergeCell ref="F792:O792"/>
-    <mergeCell ref="F781:O781"/>
-    <mergeCell ref="F782:O782"/>
-    <mergeCell ref="F783:O783"/>
-    <mergeCell ref="F784:O784"/>
-    <mergeCell ref="F785:O785"/>
-    <mergeCell ref="F786:O786"/>
-    <mergeCell ref="F775:O775"/>
-    <mergeCell ref="F776:O776"/>
-    <mergeCell ref="F777:O777"/>
-    <mergeCell ref="F778:O778"/>
-    <mergeCell ref="F779:O779"/>
-    <mergeCell ref="F780:O780"/>
-    <mergeCell ref="F769:O769"/>
-    <mergeCell ref="F770:O770"/>
-    <mergeCell ref="F771:O771"/>
-    <mergeCell ref="F772:O772"/>
-    <mergeCell ref="F773:O773"/>
-    <mergeCell ref="F774:O774"/>
-    <mergeCell ref="F763:O763"/>
-    <mergeCell ref="F764:O764"/>
-    <mergeCell ref="F765:O765"/>
-    <mergeCell ref="F766:O766"/>
-    <mergeCell ref="F767:O767"/>
-    <mergeCell ref="F768:O768"/>
-    <mergeCell ref="F757:O757"/>
-    <mergeCell ref="F758:O758"/>
-    <mergeCell ref="F759:O759"/>
-    <mergeCell ref="F760:O760"/>
-    <mergeCell ref="F761:O761"/>
-    <mergeCell ref="F762:O762"/>
-    <mergeCell ref="F751:O751"/>
-    <mergeCell ref="F752:O752"/>
-    <mergeCell ref="F753:O753"/>
-    <mergeCell ref="F754:O754"/>
-    <mergeCell ref="F755:O755"/>
-    <mergeCell ref="F756:O756"/>
-    <mergeCell ref="F745:O745"/>
-    <mergeCell ref="F746:O746"/>
-    <mergeCell ref="F747:O747"/>
-    <mergeCell ref="F748:O748"/>
-    <mergeCell ref="F749:O749"/>
-    <mergeCell ref="F750:O750"/>
-    <mergeCell ref="F739:O739"/>
-    <mergeCell ref="F740:O740"/>
-    <mergeCell ref="F741:O741"/>
-    <mergeCell ref="F742:O742"/>
-    <mergeCell ref="F743:O743"/>
-    <mergeCell ref="F744:O744"/>
-    <mergeCell ref="F733:O733"/>
-    <mergeCell ref="F734:O734"/>
-    <mergeCell ref="F735:O735"/>
-    <mergeCell ref="F736:O736"/>
-    <mergeCell ref="F737:O737"/>
-    <mergeCell ref="F738:O738"/>
-    <mergeCell ref="F727:O727"/>
-    <mergeCell ref="F728:O728"/>
-    <mergeCell ref="F729:O729"/>
-    <mergeCell ref="F730:O730"/>
-    <mergeCell ref="F731:O731"/>
-    <mergeCell ref="F732:O732"/>
-    <mergeCell ref="F721:O721"/>
-    <mergeCell ref="F722:O722"/>
-    <mergeCell ref="F723:O723"/>
-    <mergeCell ref="F724:O724"/>
-    <mergeCell ref="F725:O725"/>
-    <mergeCell ref="F726:O726"/>
-    <mergeCell ref="F715:O715"/>
-    <mergeCell ref="F716:O716"/>
-    <mergeCell ref="F717:O717"/>
-    <mergeCell ref="F718:O718"/>
-    <mergeCell ref="F719:O719"/>
-    <mergeCell ref="F720:O720"/>
-    <mergeCell ref="F709:O709"/>
-    <mergeCell ref="F710:O710"/>
-    <mergeCell ref="F711:O711"/>
-    <mergeCell ref="F712:O712"/>
-    <mergeCell ref="F713:O713"/>
-    <mergeCell ref="F714:O714"/>
-    <mergeCell ref="F703:O703"/>
-    <mergeCell ref="F704:O704"/>
-    <mergeCell ref="F705:O705"/>
-    <mergeCell ref="F706:O706"/>
-    <mergeCell ref="F707:O707"/>
-    <mergeCell ref="F708:O708"/>
-    <mergeCell ref="F697:O697"/>
-    <mergeCell ref="F698:O698"/>
-    <mergeCell ref="F699:O699"/>
-    <mergeCell ref="F700:O700"/>
-    <mergeCell ref="F701:O701"/>
-    <mergeCell ref="F702:O702"/>
-    <mergeCell ref="F691:O691"/>
-    <mergeCell ref="F692:O692"/>
-    <mergeCell ref="F693:O693"/>
-    <mergeCell ref="F694:O694"/>
-    <mergeCell ref="F695:O695"/>
-    <mergeCell ref="F696:O696"/>
-    <mergeCell ref="F685:O685"/>
-    <mergeCell ref="F686:O686"/>
-    <mergeCell ref="F687:O687"/>
-    <mergeCell ref="F688:O688"/>
-    <mergeCell ref="F689:O689"/>
-    <mergeCell ref="F690:O690"/>
-    <mergeCell ref="F679:O679"/>
-    <mergeCell ref="F680:O680"/>
-    <mergeCell ref="F681:O681"/>
-    <mergeCell ref="F682:O682"/>
-    <mergeCell ref="F683:O683"/>
-    <mergeCell ref="F684:O684"/>
-    <mergeCell ref="F673:O673"/>
-    <mergeCell ref="F674:O674"/>
-    <mergeCell ref="F675:O675"/>
-    <mergeCell ref="F676:O676"/>
-    <mergeCell ref="F677:O677"/>
-    <mergeCell ref="F678:O678"/>
-    <mergeCell ref="F667:O667"/>
-    <mergeCell ref="F668:O668"/>
-    <mergeCell ref="F669:O669"/>
-    <mergeCell ref="F670:O670"/>
-    <mergeCell ref="F671:O671"/>
-    <mergeCell ref="F672:O672"/>
-    <mergeCell ref="F661:O661"/>
-    <mergeCell ref="F662:O662"/>
-    <mergeCell ref="F663:O663"/>
-    <mergeCell ref="F664:O664"/>
-    <mergeCell ref="F665:O665"/>
-    <mergeCell ref="F666:O666"/>
-    <mergeCell ref="F655:O655"/>
-    <mergeCell ref="F656:O656"/>
-    <mergeCell ref="F657:O657"/>
-    <mergeCell ref="F658:O658"/>
-    <mergeCell ref="F659:O659"/>
-    <mergeCell ref="F660:O660"/>
-    <mergeCell ref="F649:O649"/>
-    <mergeCell ref="F650:O650"/>
-    <mergeCell ref="F651:O651"/>
-    <mergeCell ref="F652:O652"/>
-    <mergeCell ref="F653:O653"/>
-    <mergeCell ref="F654:O654"/>
-    <mergeCell ref="F643:O643"/>
-    <mergeCell ref="F644:O644"/>
-    <mergeCell ref="F645:O645"/>
-    <mergeCell ref="F646:O646"/>
-    <mergeCell ref="F647:O647"/>
-    <mergeCell ref="F648:O648"/>
-    <mergeCell ref="F637:O637"/>
-    <mergeCell ref="F638:O638"/>
-    <mergeCell ref="F639:O639"/>
-    <mergeCell ref="F640:O640"/>
-    <mergeCell ref="F641:O641"/>
-    <mergeCell ref="F642:O642"/>
-    <mergeCell ref="F631:O631"/>
-    <mergeCell ref="F632:O632"/>
-    <mergeCell ref="F633:O633"/>
-    <mergeCell ref="F634:O634"/>
-    <mergeCell ref="F635:O635"/>
-    <mergeCell ref="F636:O636"/>
-    <mergeCell ref="F625:O625"/>
-    <mergeCell ref="F626:O626"/>
-    <mergeCell ref="F627:O627"/>
-    <mergeCell ref="F628:O628"/>
-    <mergeCell ref="F629:O629"/>
-    <mergeCell ref="F630:O630"/>
-    <mergeCell ref="F619:O619"/>
-    <mergeCell ref="F620:O620"/>
-    <mergeCell ref="F621:O621"/>
-    <mergeCell ref="F622:O622"/>
-    <mergeCell ref="F623:O623"/>
-    <mergeCell ref="F624:O624"/>
-    <mergeCell ref="F613:O613"/>
-    <mergeCell ref="F614:O614"/>
-    <mergeCell ref="F615:O615"/>
-    <mergeCell ref="F616:O616"/>
-    <mergeCell ref="F617:O617"/>
-    <mergeCell ref="F618:O618"/>
-    <mergeCell ref="F607:O607"/>
-    <mergeCell ref="F608:O608"/>
-    <mergeCell ref="F609:O609"/>
-    <mergeCell ref="F610:O610"/>
-    <mergeCell ref="F611:O611"/>
-    <mergeCell ref="F612:O612"/>
-    <mergeCell ref="F601:O601"/>
-    <mergeCell ref="F602:O602"/>
-    <mergeCell ref="F603:O603"/>
-    <mergeCell ref="F604:O604"/>
-    <mergeCell ref="F605:O605"/>
-    <mergeCell ref="F606:O606"/>
-    <mergeCell ref="F595:O595"/>
-    <mergeCell ref="F596:O596"/>
-    <mergeCell ref="F597:O597"/>
-    <mergeCell ref="F598:O598"/>
-    <mergeCell ref="F599:O599"/>
-    <mergeCell ref="F600:O600"/>
-    <mergeCell ref="F589:O589"/>
-    <mergeCell ref="F590:O590"/>
-    <mergeCell ref="F591:O591"/>
-    <mergeCell ref="F592:O592"/>
-    <mergeCell ref="F593:O593"/>
-    <mergeCell ref="F594:O594"/>
-    <mergeCell ref="F583:O583"/>
-    <mergeCell ref="F584:O584"/>
-    <mergeCell ref="F585:O585"/>
-    <mergeCell ref="F586:O586"/>
-    <mergeCell ref="F587:O587"/>
-    <mergeCell ref="F588:O588"/>
-    <mergeCell ref="F577:O577"/>
-    <mergeCell ref="F578:O578"/>
-    <mergeCell ref="F579:O579"/>
-    <mergeCell ref="F580:O580"/>
-    <mergeCell ref="F581:O581"/>
-    <mergeCell ref="F582:O582"/>
-    <mergeCell ref="F571:O571"/>
-    <mergeCell ref="F572:O572"/>
-    <mergeCell ref="F573:O573"/>
-    <mergeCell ref="F574:O574"/>
-    <mergeCell ref="F575:O575"/>
-    <mergeCell ref="F576:O576"/>
-    <mergeCell ref="F565:O565"/>
-    <mergeCell ref="F566:O566"/>
-    <mergeCell ref="F567:O567"/>
-    <mergeCell ref="F568:O568"/>
-    <mergeCell ref="F569:O569"/>
-    <mergeCell ref="F570:O570"/>
-    <mergeCell ref="F559:O559"/>
-    <mergeCell ref="F560:O560"/>
-    <mergeCell ref="F561:O561"/>
-    <mergeCell ref="F562:O562"/>
-    <mergeCell ref="F563:O563"/>
-    <mergeCell ref="F564:O564"/>
-    <mergeCell ref="F553:O553"/>
-    <mergeCell ref="F554:O554"/>
-    <mergeCell ref="F555:O555"/>
-    <mergeCell ref="F556:O556"/>
-    <mergeCell ref="F557:O557"/>
-    <mergeCell ref="F558:O558"/>
-    <mergeCell ref="F547:O547"/>
-    <mergeCell ref="F548:O548"/>
-    <mergeCell ref="F549:O549"/>
-    <mergeCell ref="F550:O550"/>
-    <mergeCell ref="F551:O551"/>
-    <mergeCell ref="F552:O552"/>
-    <mergeCell ref="F541:O541"/>
-    <mergeCell ref="F542:O542"/>
-    <mergeCell ref="F543:O543"/>
-    <mergeCell ref="F544:O544"/>
-    <mergeCell ref="F545:O545"/>
-    <mergeCell ref="F546:O546"/>
-    <mergeCell ref="F535:O535"/>
-    <mergeCell ref="F536:O536"/>
-    <mergeCell ref="F537:O537"/>
-    <mergeCell ref="F538:O538"/>
-    <mergeCell ref="F539:O539"/>
-    <mergeCell ref="F540:O540"/>
-    <mergeCell ref="F529:O529"/>
-    <mergeCell ref="F530:O530"/>
-    <mergeCell ref="F531:O531"/>
-    <mergeCell ref="F532:O532"/>
-    <mergeCell ref="F533:O533"/>
-    <mergeCell ref="F534:O534"/>
-    <mergeCell ref="F523:O523"/>
-    <mergeCell ref="F524:O524"/>
-    <mergeCell ref="F525:O525"/>
-    <mergeCell ref="F526:O526"/>
-    <mergeCell ref="F527:O527"/>
-    <mergeCell ref="F528:O528"/>
-    <mergeCell ref="F517:O517"/>
-    <mergeCell ref="F518:O518"/>
-    <mergeCell ref="F519:O519"/>
-    <mergeCell ref="F520:O520"/>
-    <mergeCell ref="F521:O521"/>
-    <mergeCell ref="F522:O522"/>
-    <mergeCell ref="F511:O511"/>
-    <mergeCell ref="F512:O512"/>
-    <mergeCell ref="F513:O513"/>
-    <mergeCell ref="F514:O514"/>
-    <mergeCell ref="F515:O515"/>
-    <mergeCell ref="F516:O516"/>
-    <mergeCell ref="F505:O505"/>
-    <mergeCell ref="F506:O506"/>
-    <mergeCell ref="F507:O507"/>
-    <mergeCell ref="F508:O508"/>
-    <mergeCell ref="F509:O509"/>
-    <mergeCell ref="F510:O510"/>
-    <mergeCell ref="F499:O499"/>
-    <mergeCell ref="F500:O500"/>
-    <mergeCell ref="F501:O501"/>
-    <mergeCell ref="F502:O502"/>
-    <mergeCell ref="F503:O503"/>
-    <mergeCell ref="F504:O504"/>
-    <mergeCell ref="F493:O493"/>
-    <mergeCell ref="F494:O494"/>
-    <mergeCell ref="F495:O495"/>
-    <mergeCell ref="F496:O496"/>
-    <mergeCell ref="F497:O497"/>
-    <mergeCell ref="F498:O498"/>
-    <mergeCell ref="F487:O487"/>
-    <mergeCell ref="F488:O488"/>
-    <mergeCell ref="F489:O489"/>
-    <mergeCell ref="F490:O490"/>
-    <mergeCell ref="F491:O491"/>
-    <mergeCell ref="F492:O492"/>
-    <mergeCell ref="F481:O481"/>
-    <mergeCell ref="F482:O482"/>
-    <mergeCell ref="F483:O483"/>
-    <mergeCell ref="F484:O484"/>
-    <mergeCell ref="F485:O485"/>
-    <mergeCell ref="F486:O486"/>
-    <mergeCell ref="F475:O475"/>
-    <mergeCell ref="F476:O476"/>
-    <mergeCell ref="F477:O477"/>
-    <mergeCell ref="F478:O478"/>
-    <mergeCell ref="F479:O479"/>
-    <mergeCell ref="F480:O480"/>
-    <mergeCell ref="F469:O469"/>
-    <mergeCell ref="F470:O470"/>
-    <mergeCell ref="F471:O471"/>
-    <mergeCell ref="F472:O472"/>
-    <mergeCell ref="F473:O473"/>
-    <mergeCell ref="F474:O474"/>
-    <mergeCell ref="F463:O463"/>
-    <mergeCell ref="F464:O464"/>
-    <mergeCell ref="F465:O465"/>
-    <mergeCell ref="F466:O466"/>
-    <mergeCell ref="F467:O467"/>
-    <mergeCell ref="F468:O468"/>
-    <mergeCell ref="F457:O457"/>
-    <mergeCell ref="F458:O458"/>
-    <mergeCell ref="F459:O459"/>
-    <mergeCell ref="F460:O460"/>
-    <mergeCell ref="F461:O461"/>
-    <mergeCell ref="F462:O462"/>
-    <mergeCell ref="F451:O451"/>
-    <mergeCell ref="F452:O452"/>
-    <mergeCell ref="F453:O453"/>
-    <mergeCell ref="F454:O454"/>
-    <mergeCell ref="F455:O455"/>
-    <mergeCell ref="F456:O456"/>
-    <mergeCell ref="F445:O445"/>
-    <mergeCell ref="F446:O446"/>
-    <mergeCell ref="F447:O447"/>
-    <mergeCell ref="F448:O448"/>
-    <mergeCell ref="F449:O449"/>
-    <mergeCell ref="F450:O450"/>
-    <mergeCell ref="F439:O439"/>
-    <mergeCell ref="F440:O440"/>
-    <mergeCell ref="F441:O441"/>
-    <mergeCell ref="F442:O442"/>
-    <mergeCell ref="F443:O443"/>
-    <mergeCell ref="F444:O444"/>
-    <mergeCell ref="F433:O433"/>
-    <mergeCell ref="F434:O434"/>
-    <mergeCell ref="F435:O435"/>
-    <mergeCell ref="F436:O436"/>
-    <mergeCell ref="F437:O437"/>
-    <mergeCell ref="F438:O438"/>
-    <mergeCell ref="F427:O427"/>
-    <mergeCell ref="F428:O428"/>
-    <mergeCell ref="F429:O429"/>
-    <mergeCell ref="F430:O430"/>
-    <mergeCell ref="F431:O431"/>
-    <mergeCell ref="F432:O432"/>
-    <mergeCell ref="F421:O421"/>
-    <mergeCell ref="F422:O422"/>
-    <mergeCell ref="F423:O423"/>
-    <mergeCell ref="F424:O424"/>
-    <mergeCell ref="F425:O425"/>
-    <mergeCell ref="F426:O426"/>
-    <mergeCell ref="F415:O415"/>
-    <mergeCell ref="F416:O416"/>
-    <mergeCell ref="F417:O417"/>
-    <mergeCell ref="F418:O418"/>
-    <mergeCell ref="F419:O419"/>
-    <mergeCell ref="F420:O420"/>
-    <mergeCell ref="F409:O409"/>
-    <mergeCell ref="F410:O410"/>
-    <mergeCell ref="F411:O411"/>
-    <mergeCell ref="F412:O412"/>
-    <mergeCell ref="F413:O413"/>
-    <mergeCell ref="F414:O414"/>
-    <mergeCell ref="F403:O403"/>
-    <mergeCell ref="F404:O404"/>
-    <mergeCell ref="F405:O405"/>
-    <mergeCell ref="F406:O406"/>
-    <mergeCell ref="F407:O407"/>
-    <mergeCell ref="F408:O408"/>
-    <mergeCell ref="F397:O397"/>
-    <mergeCell ref="F398:O398"/>
-    <mergeCell ref="F399:O399"/>
-    <mergeCell ref="F400:O400"/>
-    <mergeCell ref="F401:O401"/>
-    <mergeCell ref="F402:O402"/>
-    <mergeCell ref="F391:O391"/>
-    <mergeCell ref="F392:O392"/>
-    <mergeCell ref="F393:O393"/>
-    <mergeCell ref="F394:O394"/>
-    <mergeCell ref="F395:O395"/>
-    <mergeCell ref="F396:O396"/>
-    <mergeCell ref="F385:O385"/>
-    <mergeCell ref="F386:O386"/>
-    <mergeCell ref="F387:O387"/>
-    <mergeCell ref="F388:O388"/>
-    <mergeCell ref="F389:O389"/>
-    <mergeCell ref="F390:O390"/>
-    <mergeCell ref="F379:O379"/>
-    <mergeCell ref="F380:O380"/>
-    <mergeCell ref="F381:O381"/>
-    <mergeCell ref="F382:O382"/>
-    <mergeCell ref="F383:O383"/>
-    <mergeCell ref="F384:O384"/>
-    <mergeCell ref="F373:O373"/>
-    <mergeCell ref="F374:O374"/>
-    <mergeCell ref="F375:O375"/>
-    <mergeCell ref="F376:O376"/>
-    <mergeCell ref="F377:O377"/>
-    <mergeCell ref="F378:O378"/>
-    <mergeCell ref="F367:O367"/>
-    <mergeCell ref="F368:O368"/>
-    <mergeCell ref="F369:O369"/>
-    <mergeCell ref="F370:O370"/>
-    <mergeCell ref="F371:O371"/>
-    <mergeCell ref="F372:O372"/>
-    <mergeCell ref="F361:O361"/>
-    <mergeCell ref="F362:O362"/>
-    <mergeCell ref="F363:O363"/>
-    <mergeCell ref="F364:O364"/>
-    <mergeCell ref="F365:O365"/>
-    <mergeCell ref="F366:O366"/>
-    <mergeCell ref="F355:O355"/>
-    <mergeCell ref="F356:O356"/>
-    <mergeCell ref="F357:O357"/>
-    <mergeCell ref="F358:O358"/>
-    <mergeCell ref="F359:O359"/>
-    <mergeCell ref="F360:O360"/>
-    <mergeCell ref="F349:O349"/>
-    <mergeCell ref="F350:O350"/>
-    <mergeCell ref="F351:O351"/>
-    <mergeCell ref="F352:O352"/>
-    <mergeCell ref="F353:O353"/>
-    <mergeCell ref="F354:O354"/>
-    <mergeCell ref="F343:O343"/>
-    <mergeCell ref="F344:O344"/>
-    <mergeCell ref="F345:O345"/>
-    <mergeCell ref="F346:O346"/>
-    <mergeCell ref="F347:O347"/>
-    <mergeCell ref="F348:O348"/>
-    <mergeCell ref="F337:O337"/>
-    <mergeCell ref="F338:O338"/>
-    <mergeCell ref="F339:O339"/>
-    <mergeCell ref="F340:O340"/>
-    <mergeCell ref="F341:O341"/>
-    <mergeCell ref="F342:O342"/>
-    <mergeCell ref="F331:O331"/>
-    <mergeCell ref="F332:O332"/>
-    <mergeCell ref="F333:O333"/>
-    <mergeCell ref="F334:O334"/>
-    <mergeCell ref="F335:O335"/>
-    <mergeCell ref="F336:O336"/>
-    <mergeCell ref="F325:O325"/>
-    <mergeCell ref="F326:O326"/>
-    <mergeCell ref="F327:O327"/>
-    <mergeCell ref="F328:O328"/>
-    <mergeCell ref="F329:O329"/>
-    <mergeCell ref="F330:O330"/>
-    <mergeCell ref="F319:O319"/>
-    <mergeCell ref="F320:O320"/>
-    <mergeCell ref="F321:O321"/>
-    <mergeCell ref="F322:O322"/>
-    <mergeCell ref="F323:O323"/>
-    <mergeCell ref="F324:O324"/>
-    <mergeCell ref="F313:O313"/>
-    <mergeCell ref="F314:O314"/>
-    <mergeCell ref="F315:O315"/>
-    <mergeCell ref="F316:O316"/>
-    <mergeCell ref="F317:O317"/>
-    <mergeCell ref="F318:O318"/>
-    <mergeCell ref="F307:O307"/>
-    <mergeCell ref="F308:O308"/>
-    <mergeCell ref="F309:O309"/>
-    <mergeCell ref="F310:O310"/>
-    <mergeCell ref="F311:O311"/>
-    <mergeCell ref="F312:O312"/>
-    <mergeCell ref="F301:O301"/>
-    <mergeCell ref="F302:O302"/>
-    <mergeCell ref="F303:O303"/>
-    <mergeCell ref="F304:O304"/>
-    <mergeCell ref="F305:O305"/>
-    <mergeCell ref="F306:O306"/>
-    <mergeCell ref="F295:O295"/>
-    <mergeCell ref="F296:O296"/>
-    <mergeCell ref="F297:O297"/>
-    <mergeCell ref="F298:O298"/>
-    <mergeCell ref="F299:O299"/>
-    <mergeCell ref="F300:O300"/>
-    <mergeCell ref="F289:O289"/>
-    <mergeCell ref="F290:O290"/>
-    <mergeCell ref="F291:O291"/>
-    <mergeCell ref="F292:O292"/>
-    <mergeCell ref="F293:O293"/>
-    <mergeCell ref="F294:O294"/>
-    <mergeCell ref="F283:O283"/>
-    <mergeCell ref="F284:O284"/>
-    <mergeCell ref="F285:O285"/>
-    <mergeCell ref="F286:O286"/>
-    <mergeCell ref="F287:O287"/>
-    <mergeCell ref="F288:O288"/>
-    <mergeCell ref="F277:O277"/>
-    <mergeCell ref="F278:O278"/>
-    <mergeCell ref="F279:O279"/>
-    <mergeCell ref="F280:O280"/>
-    <mergeCell ref="F281:O281"/>
-    <mergeCell ref="F282:O282"/>
-    <mergeCell ref="F271:O271"/>
-    <mergeCell ref="F272:O272"/>
-    <mergeCell ref="F273:O273"/>
-    <mergeCell ref="F274:O274"/>
-    <mergeCell ref="F275:O275"/>
-    <mergeCell ref="F276:O276"/>
-    <mergeCell ref="F265:O265"/>
-    <mergeCell ref="F266:O266"/>
-    <mergeCell ref="F267:O267"/>
-    <mergeCell ref="F268:O268"/>
-    <mergeCell ref="F269:O269"/>
-    <mergeCell ref="F270:O270"/>
-    <mergeCell ref="F259:O259"/>
-    <mergeCell ref="F260:O260"/>
-    <mergeCell ref="F261:O261"/>
-    <mergeCell ref="F262:O262"/>
-    <mergeCell ref="F263:O263"/>
-    <mergeCell ref="F264:O264"/>
-    <mergeCell ref="F253:O253"/>
-    <mergeCell ref="F254:O254"/>
-    <mergeCell ref="F255:O255"/>
-    <mergeCell ref="F256:O256"/>
-    <mergeCell ref="F257:O257"/>
-    <mergeCell ref="F258:O258"/>
-    <mergeCell ref="F247:O247"/>
-    <mergeCell ref="F248:O248"/>
-    <mergeCell ref="F249:O249"/>
-    <mergeCell ref="F250:O250"/>
-    <mergeCell ref="F251:O251"/>
-    <mergeCell ref="F252:O252"/>
-    <mergeCell ref="F241:O241"/>
-    <mergeCell ref="F242:O242"/>
-    <mergeCell ref="F243:O243"/>
-    <mergeCell ref="F244:O244"/>
-    <mergeCell ref="F245:O245"/>
-    <mergeCell ref="F246:O246"/>
-    <mergeCell ref="F235:O235"/>
-    <mergeCell ref="F236:O236"/>
-    <mergeCell ref="F237:O237"/>
-    <mergeCell ref="F238:O238"/>
-    <mergeCell ref="F239:O239"/>
-    <mergeCell ref="F240:O240"/>
-    <mergeCell ref="F229:O229"/>
-    <mergeCell ref="F230:O230"/>
-    <mergeCell ref="F231:O231"/>
-    <mergeCell ref="F232:O232"/>
-    <mergeCell ref="F233:O233"/>
-    <mergeCell ref="F234:O234"/>
-    <mergeCell ref="F223:O223"/>
-    <mergeCell ref="F224:O224"/>
-    <mergeCell ref="F225:O225"/>
-    <mergeCell ref="F226:O226"/>
-    <mergeCell ref="F227:O227"/>
-    <mergeCell ref="F228:O228"/>
-    <mergeCell ref="F217:O217"/>
-    <mergeCell ref="F218:O218"/>
-    <mergeCell ref="F219:O219"/>
-    <mergeCell ref="F220:O220"/>
-    <mergeCell ref="F221:O221"/>
-    <mergeCell ref="F222:O222"/>
-    <mergeCell ref="F211:O211"/>
-    <mergeCell ref="F212:O212"/>
-    <mergeCell ref="F213:O213"/>
-    <mergeCell ref="F214:O214"/>
-    <mergeCell ref="F215:O215"/>
-    <mergeCell ref="F216:O216"/>
-    <mergeCell ref="F205:O205"/>
-    <mergeCell ref="F206:O206"/>
-    <mergeCell ref="F207:O207"/>
-    <mergeCell ref="F208:O208"/>
-    <mergeCell ref="F209:O209"/>
-    <mergeCell ref="F210:O210"/>
-    <mergeCell ref="F199:O199"/>
-    <mergeCell ref="F200:O200"/>
-    <mergeCell ref="F201:O201"/>
-    <mergeCell ref="F202:O202"/>
-    <mergeCell ref="F203:O203"/>
-    <mergeCell ref="F204:O204"/>
-    <mergeCell ref="F193:O193"/>
-    <mergeCell ref="F194:O194"/>
-    <mergeCell ref="F195:O195"/>
-    <mergeCell ref="F196:O196"/>
-    <mergeCell ref="F197:O197"/>
-    <mergeCell ref="F198:O198"/>
-    <mergeCell ref="F187:O187"/>
-    <mergeCell ref="F188:O188"/>
-    <mergeCell ref="F189:O189"/>
-    <mergeCell ref="F190:O190"/>
-    <mergeCell ref="F191:O191"/>
-    <mergeCell ref="F192:O192"/>
-    <mergeCell ref="F181:O181"/>
-    <mergeCell ref="F182:O182"/>
-    <mergeCell ref="F183:O183"/>
-    <mergeCell ref="F184:O184"/>
-    <mergeCell ref="F185:O185"/>
-    <mergeCell ref="F186:O186"/>
-    <mergeCell ref="F175:O175"/>
-    <mergeCell ref="F176:O176"/>
-    <mergeCell ref="F177:O177"/>
-    <mergeCell ref="F178:O178"/>
-    <mergeCell ref="F179:O179"/>
-    <mergeCell ref="F180:O180"/>
-    <mergeCell ref="F169:O169"/>
-    <mergeCell ref="F170:O170"/>
-    <mergeCell ref="F171:O171"/>
-    <mergeCell ref="F172:O172"/>
-    <mergeCell ref="F173:O173"/>
-    <mergeCell ref="F174:O174"/>
-    <mergeCell ref="F163:O163"/>
-    <mergeCell ref="F164:O164"/>
-    <mergeCell ref="F165:O165"/>
-    <mergeCell ref="F166:O166"/>
-    <mergeCell ref="F167:O167"/>
-    <mergeCell ref="F168:O168"/>
-    <mergeCell ref="F157:O157"/>
-    <mergeCell ref="F158:O158"/>
-    <mergeCell ref="F159:O159"/>
-    <mergeCell ref="F160:O160"/>
-    <mergeCell ref="F161:O161"/>
-    <mergeCell ref="F162:O162"/>
-    <mergeCell ref="F151:O151"/>
-    <mergeCell ref="F152:O152"/>
-    <mergeCell ref="F153:O153"/>
-    <mergeCell ref="F154:O154"/>
-    <mergeCell ref="F155:O155"/>
-    <mergeCell ref="F156:O156"/>
-    <mergeCell ref="F145:O145"/>
-    <mergeCell ref="F146:O146"/>
-    <mergeCell ref="F147:O147"/>
-    <mergeCell ref="F148:O148"/>
-    <mergeCell ref="F149:O149"/>
-    <mergeCell ref="F150:O150"/>
-    <mergeCell ref="F139:O139"/>
-    <mergeCell ref="F140:O140"/>
-    <mergeCell ref="F141:O141"/>
-    <mergeCell ref="F142:O142"/>
-    <mergeCell ref="F143:O143"/>
-    <mergeCell ref="F144:O144"/>
-    <mergeCell ref="F133:O133"/>
-    <mergeCell ref="F134:O134"/>
-    <mergeCell ref="F135:O135"/>
-    <mergeCell ref="F136:O136"/>
-    <mergeCell ref="F137:O137"/>
-    <mergeCell ref="F138:O138"/>
-    <mergeCell ref="F127:O127"/>
-    <mergeCell ref="F128:O128"/>
-    <mergeCell ref="F129:O129"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="F121:O121"/>
-    <mergeCell ref="F122:O122"/>
-    <mergeCell ref="F123:O123"/>
-    <mergeCell ref="F124:O124"/>
-    <mergeCell ref="F125:O125"/>
-    <mergeCell ref="F126:O126"/>
-    <mergeCell ref="F115:O115"/>
-    <mergeCell ref="F116:O116"/>
-    <mergeCell ref="F117:O117"/>
-    <mergeCell ref="F118:O118"/>
-    <mergeCell ref="F119:O119"/>
-    <mergeCell ref="F120:O120"/>
-    <mergeCell ref="F109:O109"/>
-    <mergeCell ref="F110:O110"/>
-    <mergeCell ref="F111:O111"/>
-    <mergeCell ref="F112:O112"/>
-    <mergeCell ref="F113:O113"/>
-    <mergeCell ref="F114:O114"/>
-    <mergeCell ref="F103:O103"/>
-    <mergeCell ref="F104:O104"/>
-    <mergeCell ref="F105:O105"/>
-    <mergeCell ref="F106:O106"/>
-    <mergeCell ref="F107:O107"/>
-    <mergeCell ref="F108:O108"/>
-    <mergeCell ref="F97:O97"/>
-    <mergeCell ref="F98:O98"/>
-    <mergeCell ref="F99:O99"/>
-    <mergeCell ref="F100:O100"/>
-    <mergeCell ref="F101:O101"/>
-    <mergeCell ref="F102:O102"/>
-    <mergeCell ref="F91:O91"/>
-    <mergeCell ref="F92:O92"/>
-    <mergeCell ref="F93:O93"/>
-    <mergeCell ref="F94:O94"/>
-    <mergeCell ref="F95:O95"/>
-    <mergeCell ref="F96:O96"/>
-    <mergeCell ref="F85:O85"/>
-    <mergeCell ref="F86:O86"/>
-    <mergeCell ref="F87:O87"/>
-    <mergeCell ref="F88:O88"/>
-    <mergeCell ref="F89:O89"/>
-    <mergeCell ref="F90:O90"/>
-    <mergeCell ref="F79:O79"/>
-    <mergeCell ref="F80:O80"/>
-    <mergeCell ref="F81:O81"/>
-    <mergeCell ref="F82:O82"/>
-    <mergeCell ref="F83:O83"/>
-    <mergeCell ref="F84:O84"/>
-    <mergeCell ref="F73:O73"/>
-    <mergeCell ref="F74:O74"/>
-    <mergeCell ref="F75:O75"/>
-    <mergeCell ref="F76:O76"/>
-    <mergeCell ref="F77:O77"/>
-    <mergeCell ref="F78:O78"/>
-    <mergeCell ref="F67:O67"/>
-    <mergeCell ref="F68:O68"/>
-    <mergeCell ref="F69:O69"/>
-    <mergeCell ref="F70:O70"/>
-    <mergeCell ref="F71:O71"/>
-    <mergeCell ref="F72:O72"/>
-    <mergeCell ref="F61:O61"/>
-    <mergeCell ref="F62:O62"/>
-    <mergeCell ref="F63:O63"/>
-    <mergeCell ref="F64:O64"/>
-    <mergeCell ref="F65:O65"/>
-    <mergeCell ref="F66:O66"/>
-    <mergeCell ref="F55:O55"/>
-    <mergeCell ref="F56:O56"/>
-    <mergeCell ref="F57:O57"/>
-    <mergeCell ref="F58:O58"/>
-    <mergeCell ref="F59:O59"/>
-    <mergeCell ref="F60:O60"/>
-    <mergeCell ref="F49:O49"/>
-    <mergeCell ref="F50:O50"/>
-    <mergeCell ref="F51:O51"/>
-    <mergeCell ref="F52:O52"/>
-    <mergeCell ref="F53:O53"/>
-    <mergeCell ref="F54:O54"/>
-    <mergeCell ref="F43:O43"/>
-    <mergeCell ref="F44:O44"/>
-    <mergeCell ref="F45:O45"/>
-    <mergeCell ref="F46:O46"/>
-    <mergeCell ref="F47:O47"/>
-    <mergeCell ref="F48:O48"/>
-    <mergeCell ref="F37:O37"/>
-    <mergeCell ref="F38:O38"/>
-    <mergeCell ref="F39:O39"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="F41:O41"/>
-    <mergeCell ref="F42:O42"/>
-    <mergeCell ref="F31:O31"/>
-    <mergeCell ref="F32:O32"/>
-    <mergeCell ref="F33:O33"/>
-    <mergeCell ref="F34:O34"/>
-    <mergeCell ref="F35:O35"/>
-    <mergeCell ref="F36:O36"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="F27:O27"/>
-    <mergeCell ref="F28:O28"/>
-    <mergeCell ref="F29:O29"/>
-    <mergeCell ref="F30:O30"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F1675:O1675"/>
+    <mergeCell ref="F1676:O1676"/>
+    <mergeCell ref="F1677:O1677"/>
+    <mergeCell ref="F1678:O1678"/>
+    <mergeCell ref="F1679:O1679"/>
+    <mergeCell ref="F1669:O1669"/>
+    <mergeCell ref="F1670:O1670"/>
+    <mergeCell ref="F1671:O1671"/>
+    <mergeCell ref="F1672:O1672"/>
+    <mergeCell ref="F1673:O1673"/>
+    <mergeCell ref="F1674:O1674"/>
+    <mergeCell ref="F1663:O1663"/>
+    <mergeCell ref="F1664:O1664"/>
+    <mergeCell ref="F1665:O1665"/>
+    <mergeCell ref="F1666:O1666"/>
+    <mergeCell ref="F1667:O1667"/>
+    <mergeCell ref="F1668:O1668"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginInfo" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CustomerData" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BalanceSheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LoginInfo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CustomerData" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BalanceSheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -47,7 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -396,42 +397,70 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="3" max="4"/>
+    <col width="8.7265625" customWidth="1" style="3" min="3" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">User Id </t>
+          <t>User Id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Pin Code</t>
+          <t>Pin</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>UniqueNumber</t>
+          <t>Unique Number</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>User Number</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="H2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6297813995</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8001703966</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -449,10 +478,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -460,17 +489,51 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name </t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>MobileNumber</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Gmail</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bapan De</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6297813995</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>debapan2002@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sunit Mal</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8001703966</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sunitmal18302@gmail.com</t>
         </is>
       </c>
     </row>
@@ -487,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:O1679"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1649" sqref="A1649"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -504,5052 +567,5069 @@
           <t>Account Balance</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Transaction</t>
         </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bapan De</t>
+        </is>
+      </c>
       <c r="C2" t="n">
         <v>200</v>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>None;0+200</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="F3" s="1" t="n"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sunit Mal</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>None;0+2000</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="F4" s="1" t="n"/>
+      <c r="F4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="F5" s="1" t="n"/>
+      <c r="F5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="F6" s="1" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="F7" s="1" t="n"/>
+      <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="F8" s="1" t="n"/>
+      <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="F9" s="1" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="F10" s="1" t="n"/>
+      <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="F11" s="1" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="F12" s="1" t="n"/>
+      <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="F13" s="1" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="F14" s="1" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="F15" s="1" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="F16" s="1" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="F17" s="1" t="n"/>
+      <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="F18" s="1" t="n"/>
+      <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="F19" s="1" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="F20" s="1" t="n"/>
+      <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="F21" s="1" t="n"/>
+      <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="F22" s="1" t="n"/>
+      <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="F23" s="1" t="n"/>
+      <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="F24" s="1" t="n"/>
+      <c r="F24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="F25" s="1" t="n"/>
+      <c r="F25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="F26" s="1" t="n"/>
+      <c r="F26" s="2" t="n"/>
     </row>
     <row r="27">
-      <c r="F27" s="1" t="n"/>
+      <c r="F27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="F28" s="1" t="n"/>
+      <c r="F28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="1" t="n"/>
+      <c r="F29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="F30" s="1" t="n"/>
+      <c r="F30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="F31" s="1" t="n"/>
+      <c r="F31" s="2" t="n"/>
     </row>
     <row r="32">
-      <c r="F32" s="1" t="n"/>
+      <c r="F32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="F33" s="1" t="n"/>
+      <c r="F33" s="2" t="n"/>
     </row>
     <row r="34">
-      <c r="F34" s="1" t="n"/>
+      <c r="F34" s="2" t="n"/>
     </row>
     <row r="35">
-      <c r="F35" s="1" t="n"/>
+      <c r="F35" s="2" t="n"/>
     </row>
     <row r="36">
-      <c r="F36" s="1" t="n"/>
+      <c r="F36" s="2" t="n"/>
     </row>
     <row r="37">
-      <c r="F37" s="1" t="n"/>
+      <c r="F37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="F38" s="1" t="n"/>
+      <c r="F38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="F39" s="1" t="n"/>
+      <c r="F39" s="2" t="n"/>
     </row>
     <row r="40">
-      <c r="F40" s="1" t="n"/>
+      <c r="F40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="F41" s="1" t="n"/>
+      <c r="F41" s="2" t="n"/>
     </row>
     <row r="42">
-      <c r="F42" s="1" t="n"/>
+      <c r="F42" s="2" t="n"/>
     </row>
     <row r="43">
-      <c r="F43" s="1" t="n"/>
+      <c r="F43" s="2" t="n"/>
     </row>
     <row r="44">
-      <c r="F44" s="1" t="n"/>
+      <c r="F44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="F45" s="1" t="n"/>
+      <c r="F45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="F46" s="1" t="n"/>
+      <c r="F46" s="2" t="n"/>
     </row>
     <row r="47">
-      <c r="F47" s="1" t="n"/>
+      <c r="F47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="F48" s="1" t="n"/>
+      <c r="F48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="F49" s="1" t="n"/>
+      <c r="F49" s="2" t="n"/>
     </row>
     <row r="50">
-      <c r="F50" s="1" t="n"/>
+      <c r="F50" s="2" t="n"/>
     </row>
     <row r="51">
-      <c r="F51" s="1" t="n"/>
+      <c r="F51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="F52" s="1" t="n"/>
+      <c r="F52" s="2" t="n"/>
     </row>
     <row r="53">
-      <c r="F53" s="1" t="n"/>
+      <c r="F53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="F54" s="1" t="n"/>
+      <c r="F54" s="2" t="n"/>
     </row>
     <row r="55">
-      <c r="F55" s="1" t="n"/>
+      <c r="F55" s="2" t="n"/>
     </row>
     <row r="56">
-      <c r="F56" s="1" t="n"/>
+      <c r="F56" s="2" t="n"/>
     </row>
     <row r="57">
-      <c r="F57" s="1" t="n"/>
+      <c r="F57" s="2" t="n"/>
     </row>
     <row r="58">
-      <c r="F58" s="1" t="n"/>
+      <c r="F58" s="2" t="n"/>
     </row>
     <row r="59">
-      <c r="F59" s="1" t="n"/>
+      <c r="F59" s="2" t="n"/>
     </row>
     <row r="60">
-      <c r="F60" s="1" t="n"/>
+      <c r="F60" s="2" t="n"/>
     </row>
     <row r="61">
-      <c r="F61" s="1" t="n"/>
+      <c r="F61" s="2" t="n"/>
     </row>
     <row r="62">
-      <c r="F62" s="1" t="n"/>
+      <c r="F62" s="2" t="n"/>
     </row>
     <row r="63">
-      <c r="F63" s="1" t="n"/>
+      <c r="F63" s="2" t="n"/>
     </row>
     <row r="64">
-      <c r="F64" s="1" t="n"/>
+      <c r="F64" s="2" t="n"/>
     </row>
     <row r="65">
-      <c r="F65" s="1" t="n"/>
+      <c r="F65" s="2" t="n"/>
     </row>
     <row r="66">
-      <c r="F66" s="1" t="n"/>
+      <c r="F66" s="2" t="n"/>
     </row>
     <row r="67">
-      <c r="F67" s="1" t="n"/>
+      <c r="F67" s="2" t="n"/>
     </row>
     <row r="68">
-      <c r="F68" s="1" t="n"/>
+      <c r="F68" s="2" t="n"/>
     </row>
     <row r="69">
-      <c r="F69" s="1" t="n"/>
+      <c r="F69" s="2" t="n"/>
     </row>
     <row r="70">
-      <c r="F70" s="1" t="n"/>
+      <c r="F70" s="2" t="n"/>
     </row>
     <row r="71">
-      <c r="F71" s="1" t="n"/>
+      <c r="F71" s="2" t="n"/>
     </row>
     <row r="72">
-      <c r="F72" s="1" t="n"/>
+      <c r="F72" s="2" t="n"/>
     </row>
     <row r="73">
-      <c r="F73" s="1" t="n"/>
+      <c r="F73" s="2" t="n"/>
     </row>
     <row r="74">
-      <c r="F74" s="1" t="n"/>
+      <c r="F74" s="2" t="n"/>
     </row>
     <row r="75">
-      <c r="F75" s="1" t="n"/>
+      <c r="F75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="F76" s="1" t="n"/>
+      <c r="F76" s="2" t="n"/>
     </row>
     <row r="77">
-      <c r="F77" s="1" t="n"/>
+      <c r="F77" s="2" t="n"/>
     </row>
     <row r="78">
-      <c r="F78" s="1" t="n"/>
+      <c r="F78" s="2" t="n"/>
     </row>
     <row r="79">
-      <c r="F79" s="1" t="n"/>
+      <c r="F79" s="2" t="n"/>
     </row>
     <row r="80">
-      <c r="F80" s="1" t="n"/>
+      <c r="F80" s="2" t="n"/>
     </row>
     <row r="81">
-      <c r="F81" s="1" t="n"/>
+      <c r="F81" s="2" t="n"/>
     </row>
     <row r="82">
-      <c r="F82" s="1" t="n"/>
+      <c r="F82" s="2" t="n"/>
     </row>
     <row r="83">
-      <c r="F83" s="1" t="n"/>
+      <c r="F83" s="2" t="n"/>
     </row>
     <row r="84">
-      <c r="F84" s="1" t="n"/>
+      <c r="F84" s="2" t="n"/>
     </row>
     <row r="85">
-      <c r="F85" s="1" t="n"/>
+      <c r="F85" s="2" t="n"/>
     </row>
     <row r="86">
-      <c r="F86" s="1" t="n"/>
+      <c r="F86" s="2" t="n"/>
     </row>
     <row r="87">
-      <c r="F87" s="1" t="n"/>
+      <c r="F87" s="2" t="n"/>
     </row>
     <row r="88">
-      <c r="F88" s="1" t="n"/>
+      <c r="F88" s="2" t="n"/>
     </row>
     <row r="89">
-      <c r="F89" s="1" t="n"/>
+      <c r="F89" s="2" t="n"/>
     </row>
     <row r="90">
-      <c r="F90" s="1" t="n"/>
+      <c r="F90" s="2" t="n"/>
     </row>
     <row r="91">
-      <c r="F91" s="1" t="n"/>
+      <c r="F91" s="2" t="n"/>
     </row>
     <row r="92">
-      <c r="F92" s="1" t="n"/>
+      <c r="F92" s="2" t="n"/>
     </row>
     <row r="93">
-      <c r="F93" s="1" t="n"/>
+      <c r="F93" s="2" t="n"/>
     </row>
     <row r="94">
-      <c r="F94" s="1" t="n"/>
+      <c r="F94" s="2" t="n"/>
     </row>
     <row r="95">
-      <c r="F95" s="1" t="n"/>
+      <c r="F95" s="2" t="n"/>
     </row>
     <row r="96">
-      <c r="F96" s="1" t="n"/>
+      <c r="F96" s="2" t="n"/>
     </row>
     <row r="97">
-      <c r="F97" s="1" t="n"/>
+      <c r="F97" s="2" t="n"/>
     </row>
     <row r="98">
-      <c r="F98" s="1" t="n"/>
+      <c r="F98" s="2" t="n"/>
     </row>
     <row r="99">
-      <c r="F99" s="1" t="n"/>
+      <c r="F99" s="2" t="n"/>
     </row>
     <row r="100">
-      <c r="F100" s="1" t="n"/>
+      <c r="F100" s="2" t="n"/>
     </row>
     <row r="101">
-      <c r="F101" s="1" t="n"/>
+      <c r="F101" s="2" t="n"/>
     </row>
     <row r="102">
-      <c r="F102" s="1" t="n"/>
+      <c r="F102" s="2" t="n"/>
     </row>
     <row r="103">
-      <c r="F103" s="1" t="n"/>
+      <c r="F103" s="2" t="n"/>
     </row>
     <row r="104">
-      <c r="F104" s="1" t="n"/>
+      <c r="F104" s="2" t="n"/>
     </row>
     <row r="105">
-      <c r="F105" s="1" t="n"/>
+      <c r="F105" s="2" t="n"/>
     </row>
     <row r="106">
-      <c r="F106" s="1" t="n"/>
+      <c r="F106" s="2" t="n"/>
     </row>
     <row r="107">
-      <c r="F107" s="1" t="n"/>
+      <c r="F107" s="2" t="n"/>
     </row>
     <row r="108">
-      <c r="F108" s="1" t="n"/>
+      <c r="F108" s="2" t="n"/>
     </row>
     <row r="109">
-      <c r="F109" s="1" t="n"/>
+      <c r="F109" s="2" t="n"/>
     </row>
     <row r="110">
-      <c r="F110" s="1" t="n"/>
+      <c r="F110" s="2" t="n"/>
     </row>
     <row r="111">
-      <c r="F111" s="1" t="n"/>
+      <c r="F111" s="2" t="n"/>
     </row>
     <row r="112">
-      <c r="F112" s="1" t="n"/>
+      <c r="F112" s="2" t="n"/>
     </row>
     <row r="113">
-      <c r="F113" s="1" t="n"/>
+      <c r="F113" s="2" t="n"/>
     </row>
     <row r="114">
-      <c r="F114" s="1" t="n"/>
+      <c r="F114" s="2" t="n"/>
     </row>
     <row r="115">
-      <c r="F115" s="1" t="n"/>
+      <c r="F115" s="2" t="n"/>
     </row>
     <row r="116">
-      <c r="F116" s="1" t="n"/>
+      <c r="F116" s="2" t="n"/>
     </row>
     <row r="117">
-      <c r="F117" s="1" t="n"/>
+      <c r="F117" s="2" t="n"/>
     </row>
     <row r="118">
-      <c r="F118" s="1" t="n"/>
+      <c r="F118" s="2" t="n"/>
     </row>
     <row r="119">
-      <c r="F119" s="1" t="n"/>
+      <c r="F119" s="2" t="n"/>
     </row>
     <row r="120">
-      <c r="F120" s="1" t="n"/>
+      <c r="F120" s="2" t="n"/>
     </row>
     <row r="121">
-      <c r="F121" s="1" t="n"/>
+      <c r="F121" s="2" t="n"/>
     </row>
     <row r="122">
-      <c r="F122" s="1" t="n"/>
+      <c r="F122" s="2" t="n"/>
     </row>
     <row r="123">
-      <c r="F123" s="1" t="n"/>
+      <c r="F123" s="2" t="n"/>
     </row>
     <row r="124">
-      <c r="F124" s="1" t="n"/>
+      <c r="F124" s="2" t="n"/>
     </row>
     <row r="125">
-      <c r="F125" s="1" t="n"/>
+      <c r="F125" s="2" t="n"/>
     </row>
     <row r="126">
-      <c r="F126" s="1" t="n"/>
+      <c r="F126" s="2" t="n"/>
     </row>
     <row r="127">
-      <c r="F127" s="1" t="n"/>
+      <c r="F127" s="2" t="n"/>
     </row>
     <row r="128">
-      <c r="F128" s="1" t="n"/>
+      <c r="F128" s="2" t="n"/>
     </row>
     <row r="129">
-      <c r="F129" s="1" t="n"/>
+      <c r="F129" s="2" t="n"/>
     </row>
     <row r="130">
-      <c r="F130" s="1" t="n"/>
+      <c r="F130" s="2" t="n"/>
     </row>
     <row r="131">
-      <c r="F131" s="1" t="n"/>
+      <c r="F131" s="2" t="n"/>
     </row>
     <row r="132">
-      <c r="F132" s="1" t="n"/>
+      <c r="F132" s="2" t="n"/>
     </row>
     <row r="133">
-      <c r="F133" s="1" t="n"/>
+      <c r="F133" s="2" t="n"/>
     </row>
     <row r="134">
-      <c r="F134" s="1" t="n"/>
+      <c r="F134" s="2" t="n"/>
     </row>
     <row r="135">
-      <c r="F135" s="1" t="n"/>
+      <c r="F135" s="2" t="n"/>
     </row>
     <row r="136">
-      <c r="F136" s="1" t="n"/>
+      <c r="F136" s="2" t="n"/>
     </row>
     <row r="137">
-      <c r="F137" s="1" t="n"/>
+      <c r="F137" s="2" t="n"/>
     </row>
     <row r="138">
-      <c r="F138" s="1" t="n"/>
+      <c r="F138" s="2" t="n"/>
     </row>
     <row r="139">
-      <c r="F139" s="1" t="n"/>
+      <c r="F139" s="2" t="n"/>
     </row>
     <row r="140">
-      <c r="F140" s="1" t="n"/>
+      <c r="F140" s="2" t="n"/>
     </row>
     <row r="141">
-      <c r="F141" s="1" t="n"/>
+      <c r="F141" s="2" t="n"/>
     </row>
     <row r="142">
-      <c r="F142" s="1" t="n"/>
+      <c r="F142" s="2" t="n"/>
     </row>
     <row r="143">
-      <c r="F143" s="1" t="n"/>
+      <c r="F143" s="2" t="n"/>
     </row>
     <row r="144">
-      <c r="F144" s="1" t="n"/>
+      <c r="F144" s="2" t="n"/>
     </row>
     <row r="145">
-      <c r="F145" s="1" t="n"/>
+      <c r="F145" s="2" t="n"/>
     </row>
     <row r="146">
-      <c r="F146" s="1" t="n"/>
+      <c r="F146" s="2" t="n"/>
     </row>
     <row r="147">
-      <c r="F147" s="1" t="n"/>
+      <c r="F147" s="2" t="n"/>
     </row>
     <row r="148">
-      <c r="F148" s="1" t="n"/>
+      <c r="F148" s="2" t="n"/>
     </row>
     <row r="149">
-      <c r="F149" s="1" t="n"/>
+      <c r="F149" s="2" t="n"/>
     </row>
     <row r="150">
-      <c r="F150" s="1" t="n"/>
+      <c r="F150" s="2" t="n"/>
     </row>
     <row r="151">
-      <c r="F151" s="1" t="n"/>
+      <c r="F151" s="2" t="n"/>
     </row>
     <row r="152">
-      <c r="F152" s="1" t="n"/>
+      <c r="F152" s="2" t="n"/>
     </row>
     <row r="153">
-      <c r="F153" s="1" t="n"/>
+      <c r="F153" s="2" t="n"/>
     </row>
     <row r="154">
-      <c r="F154" s="1" t="n"/>
+      <c r="F154" s="2" t="n"/>
     </row>
     <row r="155">
-      <c r="F155" s="1" t="n"/>
+      <c r="F155" s="2" t="n"/>
     </row>
     <row r="156">
-      <c r="F156" s="1" t="n"/>
+      <c r="F156" s="2" t="n"/>
     </row>
     <row r="157">
-      <c r="F157" s="1" t="n"/>
+      <c r="F157" s="2" t="n"/>
     </row>
     <row r="158">
-      <c r="F158" s="1" t="n"/>
+      <c r="F158" s="2" t="n"/>
     </row>
     <row r="159">
-      <c r="F159" s="1" t="n"/>
+      <c r="F159" s="2" t="n"/>
     </row>
     <row r="160">
-      <c r="F160" s="1" t="n"/>
+      <c r="F160" s="2" t="n"/>
     </row>
     <row r="161">
-      <c r="F161" s="1" t="n"/>
+      <c r="F161" s="2" t="n"/>
     </row>
     <row r="162">
-      <c r="F162" s="1" t="n"/>
+      <c r="F162" s="2" t="n"/>
     </row>
     <row r="163">
-      <c r="F163" s="1" t="n"/>
+      <c r="F163" s="2" t="n"/>
     </row>
     <row r="164">
-      <c r="F164" s="1" t="n"/>
+      <c r="F164" s="2" t="n"/>
     </row>
     <row r="165">
-      <c r="F165" s="1" t="n"/>
+      <c r="F165" s="2" t="n"/>
     </row>
     <row r="166">
-      <c r="F166" s="1" t="n"/>
+      <c r="F166" s="2" t="n"/>
     </row>
     <row r="167">
-      <c r="F167" s="1" t="n"/>
+      <c r="F167" s="2" t="n"/>
     </row>
     <row r="168">
-      <c r="F168" s="1" t="n"/>
+      <c r="F168" s="2" t="n"/>
     </row>
     <row r="169">
-      <c r="F169" s="1" t="n"/>
+      <c r="F169" s="2" t="n"/>
     </row>
     <row r="170">
-      <c r="F170" s="1" t="n"/>
+      <c r="F170" s="2" t="n"/>
     </row>
     <row r="171">
-      <c r="F171" s="1" t="n"/>
+      <c r="F171" s="2" t="n"/>
     </row>
     <row r="172">
-      <c r="F172" s="1" t="n"/>
+      <c r="F172" s="2" t="n"/>
     </row>
     <row r="173">
-      <c r="F173" s="1" t="n"/>
+      <c r="F173" s="2" t="n"/>
     </row>
     <row r="174">
-      <c r="F174" s="1" t="n"/>
+      <c r="F174" s="2" t="n"/>
     </row>
     <row r="175">
-      <c r="F175" s="1" t="n"/>
+      <c r="F175" s="2" t="n"/>
     </row>
     <row r="176">
-      <c r="F176" s="1" t="n"/>
+      <c r="F176" s="2" t="n"/>
     </row>
     <row r="177">
-      <c r="F177" s="1" t="n"/>
+      <c r="F177" s="2" t="n"/>
     </row>
     <row r="178">
-      <c r="F178" s="1" t="n"/>
+      <c r="F178" s="2" t="n"/>
     </row>
     <row r="179">
-      <c r="F179" s="1" t="n"/>
+      <c r="F179" s="2" t="n"/>
     </row>
     <row r="180">
-      <c r="F180" s="1" t="n"/>
+      <c r="F180" s="2" t="n"/>
     </row>
     <row r="181">
-      <c r="F181" s="1" t="n"/>
+      <c r="F181" s="2" t="n"/>
     </row>
     <row r="182">
-      <c r="F182" s="1" t="n"/>
+      <c r="F182" s="2" t="n"/>
     </row>
     <row r="183">
-      <c r="F183" s="1" t="n"/>
+      <c r="F183" s="2" t="n"/>
     </row>
     <row r="184">
-      <c r="F184" s="1" t="n"/>
+      <c r="F184" s="2" t="n"/>
     </row>
     <row r="185">
-      <c r="F185" s="1" t="n"/>
+      <c r="F185" s="2" t="n"/>
     </row>
     <row r="186">
-      <c r="F186" s="1" t="n"/>
+      <c r="F186" s="2" t="n"/>
     </row>
     <row r="187">
-      <c r="F187" s="1" t="n"/>
+      <c r="F187" s="2" t="n"/>
     </row>
     <row r="188">
-      <c r="F188" s="1" t="n"/>
+      <c r="F188" s="2" t="n"/>
     </row>
     <row r="189">
-      <c r="F189" s="1" t="n"/>
+      <c r="F189" s="2" t="n"/>
     </row>
     <row r="190">
-      <c r="F190" s="1" t="n"/>
+      <c r="F190" s="2" t="n"/>
     </row>
     <row r="191">
-      <c r="F191" s="1" t="n"/>
+      <c r="F191" s="2" t="n"/>
     </row>
     <row r="192">
-      <c r="F192" s="1" t="n"/>
+      <c r="F192" s="2" t="n"/>
     </row>
     <row r="193">
-      <c r="F193" s="1" t="n"/>
+      <c r="F193" s="2" t="n"/>
     </row>
     <row r="194">
-      <c r="F194" s="1" t="n"/>
+      <c r="F194" s="2" t="n"/>
     </row>
     <row r="195">
-      <c r="F195" s="1" t="n"/>
+      <c r="F195" s="2" t="n"/>
     </row>
     <row r="196">
-      <c r="F196" s="1" t="n"/>
+      <c r="F196" s="2" t="n"/>
     </row>
     <row r="197">
-      <c r="F197" s="1" t="n"/>
+      <c r="F197" s="2" t="n"/>
     </row>
     <row r="198">
-      <c r="F198" s="1" t="n"/>
+      <c r="F198" s="2" t="n"/>
     </row>
     <row r="199">
-      <c r="F199" s="1" t="n"/>
+      <c r="F199" s="2" t="n"/>
     </row>
     <row r="200">
-      <c r="F200" s="1" t="n"/>
+      <c r="F200" s="2" t="n"/>
     </row>
     <row r="201">
-      <c r="F201" s="1" t="n"/>
+      <c r="F201" s="2" t="n"/>
     </row>
     <row r="202">
-      <c r="F202" s="1" t="n"/>
+      <c r="F202" s="2" t="n"/>
     </row>
     <row r="203">
-      <c r="F203" s="1" t="n"/>
+      <c r="F203" s="2" t="n"/>
     </row>
     <row r="204">
-      <c r="F204" s="1" t="n"/>
+      <c r="F204" s="2" t="n"/>
     </row>
     <row r="205">
-      <c r="F205" s="1" t="n"/>
+      <c r="F205" s="2" t="n"/>
     </row>
     <row r="206">
-      <c r="F206" s="1" t="n"/>
+      <c r="F206" s="2" t="n"/>
     </row>
     <row r="207">
-      <c r="F207" s="1" t="n"/>
+      <c r="F207" s="2" t="n"/>
     </row>
     <row r="208">
-      <c r="F208" s="1" t="n"/>
+      <c r="F208" s="2" t="n"/>
     </row>
     <row r="209">
-      <c r="F209" s="1" t="n"/>
+      <c r="F209" s="2" t="n"/>
     </row>
     <row r="210">
-      <c r="F210" s="1" t="n"/>
+      <c r="F210" s="2" t="n"/>
     </row>
     <row r="211">
-      <c r="F211" s="1" t="n"/>
+      <c r="F211" s="2" t="n"/>
     </row>
     <row r="212">
-      <c r="F212" s="1" t="n"/>
+      <c r="F212" s="2" t="n"/>
     </row>
     <row r="213">
-      <c r="F213" s="1" t="n"/>
+      <c r="F213" s="2" t="n"/>
     </row>
     <row r="214">
-      <c r="F214" s="1" t="n"/>
+      <c r="F214" s="2" t="n"/>
     </row>
     <row r="215">
-      <c r="F215" s="1" t="n"/>
+      <c r="F215" s="2" t="n"/>
     </row>
     <row r="216">
-      <c r="F216" s="1" t="n"/>
+      <c r="F216" s="2" t="n"/>
     </row>
     <row r="217">
-      <c r="F217" s="1" t="n"/>
+      <c r="F217" s="2" t="n"/>
     </row>
     <row r="218">
-      <c r="F218" s="1" t="n"/>
+      <c r="F218" s="2" t="n"/>
     </row>
     <row r="219">
-      <c r="F219" s="1" t="n"/>
+      <c r="F219" s="2" t="n"/>
     </row>
     <row r="220">
-      <c r="F220" s="1" t="n"/>
+      <c r="F220" s="2" t="n"/>
     </row>
     <row r="221">
-      <c r="F221" s="1" t="n"/>
+      <c r="F221" s="2" t="n"/>
     </row>
     <row r="222">
-      <c r="F222" s="1" t="n"/>
+      <c r="F222" s="2" t="n"/>
     </row>
     <row r="223">
-      <c r="F223" s="1" t="n"/>
+      <c r="F223" s="2" t="n"/>
     </row>
     <row r="224">
-      <c r="F224" s="1" t="n"/>
+      <c r="F224" s="2" t="n"/>
     </row>
     <row r="225">
-      <c r="F225" s="1" t="n"/>
+      <c r="F225" s="2" t="n"/>
     </row>
     <row r="226">
-      <c r="F226" s="1" t="n"/>
+      <c r="F226" s="2" t="n"/>
     </row>
     <row r="227">
-      <c r="F227" s="1" t="n"/>
+      <c r="F227" s="2" t="n"/>
     </row>
     <row r="228">
-      <c r="F228" s="1" t="n"/>
+      <c r="F228" s="2" t="n"/>
     </row>
     <row r="229">
-      <c r="F229" s="1" t="n"/>
+      <c r="F229" s="2" t="n"/>
     </row>
     <row r="230">
-      <c r="F230" s="1" t="n"/>
+      <c r="F230" s="2" t="n"/>
     </row>
     <row r="231">
-      <c r="F231" s="1" t="n"/>
+      <c r="F231" s="2" t="n"/>
     </row>
     <row r="232">
-      <c r="F232" s="1" t="n"/>
+      <c r="F232" s="2" t="n"/>
     </row>
     <row r="233">
-      <c r="F233" s="1" t="n"/>
+      <c r="F233" s="2" t="n"/>
     </row>
     <row r="234">
-      <c r="F234" s="1" t="n"/>
+      <c r="F234" s="2" t="n"/>
     </row>
     <row r="235">
-      <c r="F235" s="1" t="n"/>
+      <c r="F235" s="2" t="n"/>
     </row>
     <row r="236">
-      <c r="F236" s="1" t="n"/>
+      <c r="F236" s="2" t="n"/>
     </row>
     <row r="237">
-      <c r="F237" s="1" t="n"/>
+      <c r="F237" s="2" t="n"/>
     </row>
     <row r="238">
-      <c r="F238" s="1" t="n"/>
+      <c r="F238" s="2" t="n"/>
     </row>
     <row r="239">
-      <c r="F239" s="1" t="n"/>
+      <c r="F239" s="2" t="n"/>
     </row>
     <row r="240">
-      <c r="F240" s="1" t="n"/>
+      <c r="F240" s="2" t="n"/>
     </row>
     <row r="241">
-      <c r="F241" s="1" t="n"/>
+      <c r="F241" s="2" t="n"/>
     </row>
     <row r="242">
-      <c r="F242" s="1" t="n"/>
+      <c r="F242" s="2" t="n"/>
     </row>
     <row r="243">
-      <c r="F243" s="1" t="n"/>
+      <c r="F243" s="2" t="n"/>
     </row>
     <row r="244">
-      <c r="F244" s="1" t="n"/>
+      <c r="F244" s="2" t="n"/>
     </row>
     <row r="245">
-      <c r="F245" s="1" t="n"/>
+      <c r="F245" s="2" t="n"/>
     </row>
     <row r="246">
-      <c r="F246" s="1" t="n"/>
+      <c r="F246" s="2" t="n"/>
     </row>
     <row r="247">
-      <c r="F247" s="1" t="n"/>
+      <c r="F247" s="2" t="n"/>
     </row>
     <row r="248">
-      <c r="F248" s="1" t="n"/>
+      <c r="F248" s="2" t="n"/>
     </row>
     <row r="249">
-      <c r="F249" s="1" t="n"/>
+      <c r="F249" s="2" t="n"/>
     </row>
     <row r="250">
-      <c r="F250" s="1" t="n"/>
+      <c r="F250" s="2" t="n"/>
     </row>
     <row r="251">
-      <c r="F251" s="1" t="n"/>
+      <c r="F251" s="2" t="n"/>
     </row>
     <row r="252">
-      <c r="F252" s="1" t="n"/>
+      <c r="F252" s="2" t="n"/>
     </row>
     <row r="253">
-      <c r="F253" s="1" t="n"/>
+      <c r="F253" s="2" t="n"/>
     </row>
     <row r="254">
-      <c r="F254" s="1" t="n"/>
+      <c r="F254" s="2" t="n"/>
     </row>
     <row r="255">
-      <c r="F255" s="1" t="n"/>
+      <c r="F255" s="2" t="n"/>
     </row>
     <row r="256">
-      <c r="F256" s="1" t="n"/>
+      <c r="F256" s="2" t="n"/>
     </row>
     <row r="257">
-      <c r="F257" s="1" t="n"/>
+      <c r="F257" s="2" t="n"/>
     </row>
     <row r="258">
-      <c r="F258" s="1" t="n"/>
+      <c r="F258" s="2" t="n"/>
     </row>
     <row r="259">
-      <c r="F259" s="1" t="n"/>
+      <c r="F259" s="2" t="n"/>
     </row>
     <row r="260">
-      <c r="F260" s="1" t="n"/>
+      <c r="F260" s="2" t="n"/>
     </row>
     <row r="261">
-      <c r="F261" s="1" t="n"/>
+      <c r="F261" s="2" t="n"/>
     </row>
     <row r="262">
-      <c r="F262" s="1" t="n"/>
+      <c r="F262" s="2" t="n"/>
     </row>
     <row r="263">
-      <c r="F263" s="1" t="n"/>
+      <c r="F263" s="2" t="n"/>
     </row>
     <row r="264">
-      <c r="F264" s="1" t="n"/>
+      <c r="F264" s="2" t="n"/>
     </row>
     <row r="265">
-      <c r="F265" s="1" t="n"/>
+      <c r="F265" s="2" t="n"/>
     </row>
     <row r="266">
-      <c r="F266" s="1" t="n"/>
+      <c r="F266" s="2" t="n"/>
     </row>
     <row r="267">
-      <c r="F267" s="1" t="n"/>
+      <c r="F267" s="2" t="n"/>
     </row>
     <row r="268">
-      <c r="F268" s="1" t="n"/>
+      <c r="F268" s="2" t="n"/>
     </row>
     <row r="269">
-      <c r="F269" s="1" t="n"/>
+      <c r="F269" s="2" t="n"/>
     </row>
     <row r="270">
-      <c r="F270" s="1" t="n"/>
+      <c r="F270" s="2" t="n"/>
     </row>
     <row r="271">
-      <c r="F271" s="1" t="n"/>
+      <c r="F271" s="2" t="n"/>
     </row>
     <row r="272">
-      <c r="F272" s="1" t="n"/>
+      <c r="F272" s="2" t="n"/>
     </row>
     <row r="273">
-      <c r="F273" s="1" t="n"/>
+      <c r="F273" s="2" t="n"/>
     </row>
     <row r="274">
-      <c r="F274" s="1" t="n"/>
+      <c r="F274" s="2" t="n"/>
     </row>
     <row r="275">
-      <c r="F275" s="1" t="n"/>
+      <c r="F275" s="2" t="n"/>
     </row>
     <row r="276">
-      <c r="F276" s="1" t="n"/>
+      <c r="F276" s="2" t="n"/>
     </row>
     <row r="277">
-      <c r="F277" s="1" t="n"/>
+      <c r="F277" s="2" t="n"/>
     </row>
     <row r="278">
-      <c r="F278" s="1" t="n"/>
+      <c r="F278" s="2" t="n"/>
     </row>
     <row r="279">
-      <c r="F279" s="1" t="n"/>
+      <c r="F279" s="2" t="n"/>
     </row>
     <row r="280">
-      <c r="F280" s="1" t="n"/>
+      <c r="F280" s="2" t="n"/>
     </row>
     <row r="281">
-      <c r="F281" s="1" t="n"/>
+      <c r="F281" s="2" t="n"/>
     </row>
     <row r="282">
-      <c r="F282" s="1" t="n"/>
+      <c r="F282" s="2" t="n"/>
     </row>
     <row r="283">
-      <c r="F283" s="1" t="n"/>
+      <c r="F283" s="2" t="n"/>
     </row>
     <row r="284">
-      <c r="F284" s="1" t="n"/>
+      <c r="F284" s="2" t="n"/>
     </row>
     <row r="285">
-      <c r="F285" s="1" t="n"/>
+      <c r="F285" s="2" t="n"/>
     </row>
     <row r="286">
-      <c r="F286" s="1" t="n"/>
+      <c r="F286" s="2" t="n"/>
     </row>
     <row r="287">
-      <c r="F287" s="1" t="n"/>
+      <c r="F287" s="2" t="n"/>
     </row>
     <row r="288">
-      <c r="F288" s="1" t="n"/>
+      <c r="F288" s="2" t="n"/>
     </row>
     <row r="289">
-      <c r="F289" s="1" t="n"/>
+      <c r="F289" s="2" t="n"/>
     </row>
     <row r="290">
-      <c r="F290" s="1" t="n"/>
+      <c r="F290" s="2" t="n"/>
     </row>
     <row r="291">
-      <c r="F291" s="1" t="n"/>
+      <c r="F291" s="2" t="n"/>
     </row>
     <row r="292">
-      <c r="F292" s="1" t="n"/>
+      <c r="F292" s="2" t="n"/>
     </row>
     <row r="293">
-      <c r="F293" s="1" t="n"/>
+      <c r="F293" s="2" t="n"/>
     </row>
     <row r="294">
-      <c r="F294" s="1" t="n"/>
+      <c r="F294" s="2" t="n"/>
     </row>
     <row r="295">
-      <c r="F295" s="1" t="n"/>
+      <c r="F295" s="2" t="n"/>
     </row>
     <row r="296">
-      <c r="F296" s="1" t="n"/>
+      <c r="F296" s="2" t="n"/>
     </row>
     <row r="297">
-      <c r="F297" s="1" t="n"/>
+      <c r="F297" s="2" t="n"/>
     </row>
     <row r="298">
-      <c r="F298" s="1" t="n"/>
+      <c r="F298" s="2" t="n"/>
     </row>
     <row r="299">
-      <c r="F299" s="1" t="n"/>
+      <c r="F299" s="2" t="n"/>
     </row>
     <row r="300">
-      <c r="F300" s="1" t="n"/>
+      <c r="F300" s="2" t="n"/>
     </row>
     <row r="301">
-      <c r="F301" s="1" t="n"/>
+      <c r="F301" s="2" t="n"/>
     </row>
     <row r="302">
-      <c r="F302" s="1" t="n"/>
+      <c r="F302" s="2" t="n"/>
     </row>
     <row r="303">
-      <c r="F303" s="1" t="n"/>
+      <c r="F303" s="2" t="n"/>
     </row>
     <row r="304">
-      <c r="F304" s="1" t="n"/>
+      <c r="F304" s="2" t="n"/>
     </row>
     <row r="305">
-      <c r="F305" s="1" t="n"/>
+      <c r="F305" s="2" t="n"/>
     </row>
     <row r="306">
-      <c r="F306" s="1" t="n"/>
+      <c r="F306" s="2" t="n"/>
     </row>
     <row r="307">
-      <c r="F307" s="1" t="n"/>
+      <c r="F307" s="2" t="n"/>
     </row>
     <row r="308">
-      <c r="F308" s="1" t="n"/>
+      <c r="F308" s="2" t="n"/>
     </row>
     <row r="309">
-      <c r="F309" s="1" t="n"/>
+      <c r="F309" s="2" t="n"/>
     </row>
     <row r="310">
-      <c r="F310" s="1" t="n"/>
+      <c r="F310" s="2" t="n"/>
     </row>
     <row r="311">
-      <c r="F311" s="1" t="n"/>
+      <c r="F311" s="2" t="n"/>
     </row>
     <row r="312">
-      <c r="F312" s="1" t="n"/>
+      <c r="F312" s="2" t="n"/>
     </row>
     <row r="313">
-      <c r="F313" s="1" t="n"/>
+      <c r="F313" s="2" t="n"/>
     </row>
     <row r="314">
-      <c r="F314" s="1" t="n"/>
+      <c r="F314" s="2" t="n"/>
     </row>
     <row r="315">
-      <c r="F315" s="1" t="n"/>
+      <c r="F315" s="2" t="n"/>
     </row>
     <row r="316">
-      <c r="F316" s="1" t="n"/>
+      <c r="F316" s="2" t="n"/>
     </row>
     <row r="317">
-      <c r="F317" s="1" t="n"/>
+      <c r="F317" s="2" t="n"/>
     </row>
     <row r="318">
-      <c r="F318" s="1" t="n"/>
+      <c r="F318" s="2" t="n"/>
     </row>
     <row r="319">
-      <c r="F319" s="1" t="n"/>
+      <c r="F319" s="2" t="n"/>
     </row>
     <row r="320">
-      <c r="F320" s="1" t="n"/>
+      <c r="F320" s="2" t="n"/>
     </row>
     <row r="321">
-      <c r="F321" s="1" t="n"/>
+      <c r="F321" s="2" t="n"/>
     </row>
     <row r="322">
-      <c r="F322" s="1" t="n"/>
+      <c r="F322" s="2" t="n"/>
     </row>
     <row r="323">
-      <c r="F323" s="1" t="n"/>
+      <c r="F323" s="2" t="n"/>
     </row>
     <row r="324">
-      <c r="F324" s="1" t="n"/>
+      <c r="F324" s="2" t="n"/>
     </row>
     <row r="325">
-      <c r="F325" s="1" t="n"/>
+      <c r="F325" s="2" t="n"/>
     </row>
     <row r="326">
-      <c r="F326" s="1" t="n"/>
+      <c r="F326" s="2" t="n"/>
     </row>
     <row r="327">
-      <c r="F327" s="1" t="n"/>
+      <c r="F327" s="2" t="n"/>
     </row>
     <row r="328">
-      <c r="F328" s="1" t="n"/>
+      <c r="F328" s="2" t="n"/>
     </row>
     <row r="329">
-      <c r="F329" s="1" t="n"/>
+      <c r="F329" s="2" t="n"/>
     </row>
     <row r="330">
-      <c r="F330" s="1" t="n"/>
+      <c r="F330" s="2" t="n"/>
     </row>
     <row r="331">
-      <c r="F331" s="1" t="n"/>
+      <c r="F331" s="2" t="n"/>
     </row>
     <row r="332">
-      <c r="F332" s="1" t="n"/>
+      <c r="F332" s="2" t="n"/>
     </row>
     <row r="333">
-      <c r="F333" s="1" t="n"/>
+      <c r="F333" s="2" t="n"/>
     </row>
     <row r="334">
-      <c r="F334" s="1" t="n"/>
+      <c r="F334" s="2" t="n"/>
     </row>
     <row r="335">
-      <c r="F335" s="1" t="n"/>
+      <c r="F335" s="2" t="n"/>
     </row>
     <row r="336">
-      <c r="F336" s="1" t="n"/>
+      <c r="F336" s="2" t="n"/>
     </row>
     <row r="337">
-      <c r="F337" s="1" t="n"/>
+      <c r="F337" s="2" t="n"/>
     </row>
     <row r="338">
-      <c r="F338" s="1" t="n"/>
+      <c r="F338" s="2" t="n"/>
     </row>
     <row r="339">
-      <c r="F339" s="1" t="n"/>
+      <c r="F339" s="2" t="n"/>
     </row>
     <row r="340">
-      <c r="F340" s="1" t="n"/>
+      <c r="F340" s="2" t="n"/>
     </row>
     <row r="341">
-      <c r="F341" s="1" t="n"/>
+      <c r="F341" s="2" t="n"/>
     </row>
     <row r="342">
-      <c r="F342" s="1" t="n"/>
+      <c r="F342" s="2" t="n"/>
     </row>
     <row r="343">
-      <c r="F343" s="1" t="n"/>
+      <c r="F343" s="2" t="n"/>
     </row>
     <row r="344">
-      <c r="F344" s="1" t="n"/>
+      <c r="F344" s="2" t="n"/>
     </row>
     <row r="345">
-      <c r="F345" s="1" t="n"/>
+      <c r="F345" s="2" t="n"/>
     </row>
     <row r="346">
-      <c r="F346" s="1" t="n"/>
+      <c r="F346" s="2" t="n"/>
     </row>
     <row r="347">
-      <c r="F347" s="1" t="n"/>
+      <c r="F347" s="2" t="n"/>
     </row>
     <row r="348">
-      <c r="F348" s="1" t="n"/>
+      <c r="F348" s="2" t="n"/>
     </row>
     <row r="349">
-      <c r="F349" s="1" t="n"/>
+      <c r="F349" s="2" t="n"/>
     </row>
     <row r="350">
-      <c r="F350" s="1" t="n"/>
+      <c r="F350" s="2" t="n"/>
     </row>
     <row r="351">
-      <c r="F351" s="1" t="n"/>
+      <c r="F351" s="2" t="n"/>
     </row>
     <row r="352">
-      <c r="F352" s="1" t="n"/>
+      <c r="F352" s="2" t="n"/>
     </row>
     <row r="353">
-      <c r="F353" s="1" t="n"/>
+      <c r="F353" s="2" t="n"/>
     </row>
     <row r="354">
-      <c r="F354" s="1" t="n"/>
+      <c r="F354" s="2" t="n"/>
     </row>
     <row r="355">
-      <c r="F355" s="1" t="n"/>
+      <c r="F355" s="2" t="n"/>
     </row>
     <row r="356">
-      <c r="F356" s="1" t="n"/>
+      <c r="F356" s="2" t="n"/>
     </row>
     <row r="357">
-      <c r="F357" s="1" t="n"/>
+      <c r="F357" s="2" t="n"/>
     </row>
     <row r="358">
-      <c r="F358" s="1" t="n"/>
+      <c r="F358" s="2" t="n"/>
     </row>
     <row r="359">
-      <c r="F359" s="1" t="n"/>
+      <c r="F359" s="2" t="n"/>
     </row>
     <row r="360">
-      <c r="F360" s="1" t="n"/>
+      <c r="F360" s="2" t="n"/>
     </row>
     <row r="361">
-      <c r="F361" s="1" t="n"/>
+      <c r="F361" s="2" t="n"/>
     </row>
     <row r="362">
-      <c r="F362" s="1" t="n"/>
+      <c r="F362" s="2" t="n"/>
     </row>
     <row r="363">
-      <c r="F363" s="1" t="n"/>
+      <c r="F363" s="2" t="n"/>
     </row>
     <row r="364">
-      <c r="F364" s="1" t="n"/>
+      <c r="F364" s="2" t="n"/>
     </row>
     <row r="365">
-      <c r="F365" s="1" t="n"/>
+      <c r="F365" s="2" t="n"/>
     </row>
     <row r="366">
-      <c r="F366" s="1" t="n"/>
+      <c r="F366" s="2" t="n"/>
     </row>
     <row r="367">
-      <c r="F367" s="1" t="n"/>
+      <c r="F367" s="2" t="n"/>
     </row>
     <row r="368">
-      <c r="F368" s="1" t="n"/>
+      <c r="F368" s="2" t="n"/>
     </row>
     <row r="369">
-      <c r="F369" s="1" t="n"/>
+      <c r="F369" s="2" t="n"/>
     </row>
     <row r="370">
-      <c r="F370" s="1" t="n"/>
+      <c r="F370" s="2" t="n"/>
     </row>
     <row r="371">
-      <c r="F371" s="1" t="n"/>
+      <c r="F371" s="2" t="n"/>
     </row>
     <row r="372">
-      <c r="F372" s="1" t="n"/>
+      <c r="F372" s="2" t="n"/>
     </row>
     <row r="373">
-      <c r="F373" s="1" t="n"/>
+      <c r="F373" s="2" t="n"/>
     </row>
     <row r="374">
-      <c r="F374" s="1" t="n"/>
+      <c r="F374" s="2" t="n"/>
     </row>
     <row r="375">
-      <c r="F375" s="1" t="n"/>
+      <c r="F375" s="2" t="n"/>
     </row>
     <row r="376">
-      <c r="F376" s="1" t="n"/>
+      <c r="F376" s="2" t="n"/>
     </row>
     <row r="377">
-      <c r="F377" s="1" t="n"/>
+      <c r="F377" s="2" t="n"/>
     </row>
     <row r="378">
-      <c r="F378" s="1" t="n"/>
+      <c r="F378" s="2" t="n"/>
     </row>
     <row r="379">
-      <c r="F379" s="1" t="n"/>
+      <c r="F379" s="2" t="n"/>
     </row>
     <row r="380">
-      <c r="F380" s="1" t="n"/>
+      <c r="F380" s="2" t="n"/>
     </row>
     <row r="381">
-      <c r="F381" s="1" t="n"/>
+      <c r="F381" s="2" t="n"/>
     </row>
     <row r="382">
-      <c r="F382" s="1" t="n"/>
+      <c r="F382" s="2" t="n"/>
     </row>
     <row r="383">
-      <c r="F383" s="1" t="n"/>
+      <c r="F383" s="2" t="n"/>
     </row>
     <row r="384">
-      <c r="F384" s="1" t="n"/>
+      <c r="F384" s="2" t="n"/>
     </row>
     <row r="385">
-      <c r="F385" s="1" t="n"/>
+      <c r="F385" s="2" t="n"/>
     </row>
     <row r="386">
-      <c r="F386" s="1" t="n"/>
+      <c r="F386" s="2" t="n"/>
     </row>
     <row r="387">
-      <c r="F387" s="1" t="n"/>
+      <c r="F387" s="2" t="n"/>
     </row>
     <row r="388">
-      <c r="F388" s="1" t="n"/>
+      <c r="F388" s="2" t="n"/>
     </row>
     <row r="389">
-      <c r="F389" s="1" t="n"/>
+      <c r="F389" s="2" t="n"/>
     </row>
     <row r="390">
-      <c r="F390" s="1" t="n"/>
+      <c r="F390" s="2" t="n"/>
     </row>
     <row r="391">
-      <c r="F391" s="1" t="n"/>
+      <c r="F391" s="2" t="n"/>
     </row>
     <row r="392">
-      <c r="F392" s="1" t="n"/>
+      <c r="F392" s="2" t="n"/>
     </row>
     <row r="393">
-      <c r="F393" s="1" t="n"/>
+      <c r="F393" s="2" t="n"/>
     </row>
     <row r="394">
-      <c r="F394" s="1" t="n"/>
+      <c r="F394" s="2" t="n"/>
     </row>
     <row r="395">
-      <c r="F395" s="1" t="n"/>
+      <c r="F395" s="2" t="n"/>
     </row>
     <row r="396">
-      <c r="F396" s="1" t="n"/>
+      <c r="F396" s="2" t="n"/>
     </row>
     <row r="397">
-      <c r="F397" s="1" t="n"/>
+      <c r="F397" s="2" t="n"/>
     </row>
     <row r="398">
-      <c r="F398" s="1" t="n"/>
+      <c r="F398" s="2" t="n"/>
     </row>
     <row r="399">
-      <c r="F399" s="1" t="n"/>
+      <c r="F399" s="2" t="n"/>
     </row>
     <row r="400">
-      <c r="F400" s="1" t="n"/>
+      <c r="F400" s="2" t="n"/>
     </row>
     <row r="401">
-      <c r="F401" s="1" t="n"/>
+      <c r="F401" s="2" t="n"/>
     </row>
     <row r="402">
-      <c r="F402" s="1" t="n"/>
+      <c r="F402" s="2" t="n"/>
     </row>
     <row r="403">
-      <c r="F403" s="1" t="n"/>
+      <c r="F403" s="2" t="n"/>
     </row>
     <row r="404">
-      <c r="F404" s="1" t="n"/>
+      <c r="F404" s="2" t="n"/>
     </row>
     <row r="405">
-      <c r="F405" s="1" t="n"/>
+      <c r="F405" s="2" t="n"/>
     </row>
     <row r="406">
-      <c r="F406" s="1" t="n"/>
+      <c r="F406" s="2" t="n"/>
     </row>
     <row r="407">
-      <c r="F407" s="1" t="n"/>
+      <c r="F407" s="2" t="n"/>
     </row>
     <row r="408">
-      <c r="F408" s="1" t="n"/>
+      <c r="F408" s="2" t="n"/>
     </row>
     <row r="409">
-      <c r="F409" s="1" t="n"/>
+      <c r="F409" s="2" t="n"/>
     </row>
     <row r="410">
-      <c r="F410" s="1" t="n"/>
+      <c r="F410" s="2" t="n"/>
     </row>
     <row r="411">
-      <c r="F411" s="1" t="n"/>
+      <c r="F411" s="2" t="n"/>
     </row>
     <row r="412">
-      <c r="F412" s="1" t="n"/>
+      <c r="F412" s="2" t="n"/>
     </row>
     <row r="413">
-      <c r="F413" s="1" t="n"/>
+      <c r="F413" s="2" t="n"/>
     </row>
     <row r="414">
-      <c r="F414" s="1" t="n"/>
+      <c r="F414" s="2" t="n"/>
     </row>
     <row r="415">
-      <c r="F415" s="1" t="n"/>
+      <c r="F415" s="2" t="n"/>
     </row>
     <row r="416">
-      <c r="F416" s="1" t="n"/>
+      <c r="F416" s="2" t="n"/>
     </row>
     <row r="417">
-      <c r="F417" s="1" t="n"/>
+      <c r="F417" s="2" t="n"/>
     </row>
     <row r="418">
-      <c r="F418" s="1" t="n"/>
+      <c r="F418" s="2" t="n"/>
     </row>
     <row r="419">
-      <c r="F419" s="1" t="n"/>
+      <c r="F419" s="2" t="n"/>
     </row>
     <row r="420">
-      <c r="F420" s="1" t="n"/>
+      <c r="F420" s="2" t="n"/>
     </row>
     <row r="421">
-      <c r="F421" s="1" t="n"/>
+      <c r="F421" s="2" t="n"/>
     </row>
     <row r="422">
-      <c r="F422" s="1" t="n"/>
+      <c r="F422" s="2" t="n"/>
     </row>
     <row r="423">
-      <c r="F423" s="1" t="n"/>
+      <c r="F423" s="2" t="n"/>
     </row>
     <row r="424">
-      <c r="F424" s="1" t="n"/>
+      <c r="F424" s="2" t="n"/>
     </row>
     <row r="425">
-      <c r="F425" s="1" t="n"/>
+      <c r="F425" s="2" t="n"/>
     </row>
     <row r="426">
-      <c r="F426" s="1" t="n"/>
+      <c r="F426" s="2" t="n"/>
     </row>
     <row r="427">
-      <c r="F427" s="1" t="n"/>
+      <c r="F427" s="2" t="n"/>
     </row>
     <row r="428">
-      <c r="F428" s="1" t="n"/>
+      <c r="F428" s="2" t="n"/>
     </row>
     <row r="429">
-      <c r="F429" s="1" t="n"/>
+      <c r="F429" s="2" t="n"/>
     </row>
     <row r="430">
-      <c r="F430" s="1" t="n"/>
+      <c r="F430" s="2" t="n"/>
     </row>
     <row r="431">
-      <c r="F431" s="1" t="n"/>
+      <c r="F431" s="2" t="n"/>
     </row>
     <row r="432">
-      <c r="F432" s="1" t="n"/>
+      <c r="F432" s="2" t="n"/>
     </row>
     <row r="433">
-      <c r="F433" s="1" t="n"/>
+      <c r="F433" s="2" t="n"/>
     </row>
     <row r="434">
-      <c r="F434" s="1" t="n"/>
+      <c r="F434" s="2" t="n"/>
     </row>
     <row r="435">
-      <c r="F435" s="1" t="n"/>
+      <c r="F435" s="2" t="n"/>
     </row>
     <row r="436">
-      <c r="F436" s="1" t="n"/>
+      <c r="F436" s="2" t="n"/>
     </row>
     <row r="437">
-      <c r="F437" s="1" t="n"/>
+      <c r="F437" s="2" t="n"/>
     </row>
     <row r="438">
-      <c r="F438" s="1" t="n"/>
+      <c r="F438" s="2" t="n"/>
     </row>
     <row r="439">
-      <c r="F439" s="1" t="n"/>
+      <c r="F439" s="2" t="n"/>
     </row>
     <row r="440">
-      <c r="F440" s="1" t="n"/>
+      <c r="F440" s="2" t="n"/>
     </row>
     <row r="441">
-      <c r="F441" s="1" t="n"/>
+      <c r="F441" s="2" t="n"/>
     </row>
     <row r="442">
-      <c r="F442" s="1" t="n"/>
+      <c r="F442" s="2" t="n"/>
     </row>
     <row r="443">
-      <c r="F443" s="1" t="n"/>
+      <c r="F443" s="2" t="n"/>
     </row>
     <row r="444">
-      <c r="F444" s="1" t="n"/>
+      <c r="F444" s="2" t="n"/>
     </row>
     <row r="445">
-      <c r="F445" s="1" t="n"/>
+      <c r="F445" s="2" t="n"/>
     </row>
     <row r="446">
-      <c r="F446" s="1" t="n"/>
+      <c r="F446" s="2" t="n"/>
     </row>
     <row r="447">
-      <c r="F447" s="1" t="n"/>
+      <c r="F447" s="2" t="n"/>
     </row>
     <row r="448">
-      <c r="F448" s="1" t="n"/>
+      <c r="F448" s="2" t="n"/>
     </row>
     <row r="449">
-      <c r="F449" s="1" t="n"/>
+      <c r="F449" s="2" t="n"/>
     </row>
     <row r="450">
-      <c r="F450" s="1" t="n"/>
+      <c r="F450" s="2" t="n"/>
     </row>
     <row r="451">
-      <c r="F451" s="1" t="n"/>
+      <c r="F451" s="2" t="n"/>
     </row>
     <row r="452">
-      <c r="F452" s="1" t="n"/>
+      <c r="F452" s="2" t="n"/>
     </row>
     <row r="453">
-      <c r="F453" s="1" t="n"/>
+      <c r="F453" s="2" t="n"/>
     </row>
     <row r="454">
-      <c r="F454" s="1" t="n"/>
+      <c r="F454" s="2" t="n"/>
     </row>
     <row r="455">
-      <c r="F455" s="1" t="n"/>
+      <c r="F455" s="2" t="n"/>
     </row>
     <row r="456">
-      <c r="F456" s="1" t="n"/>
+      <c r="F456" s="2" t="n"/>
     </row>
     <row r="457">
-      <c r="F457" s="1" t="n"/>
+      <c r="F457" s="2" t="n"/>
     </row>
     <row r="458">
-      <c r="F458" s="1" t="n"/>
+      <c r="F458" s="2" t="n"/>
     </row>
     <row r="459">
-      <c r="F459" s="1" t="n"/>
+      <c r="F459" s="2" t="n"/>
     </row>
     <row r="460">
-      <c r="F460" s="1" t="n"/>
+      <c r="F460" s="2" t="n"/>
     </row>
     <row r="461">
-      <c r="F461" s="1" t="n"/>
+      <c r="F461" s="2" t="n"/>
     </row>
     <row r="462">
-      <c r="F462" s="1" t="n"/>
+      <c r="F462" s="2" t="n"/>
     </row>
     <row r="463">
-      <c r="F463" s="1" t="n"/>
+      <c r="F463" s="2" t="n"/>
     </row>
     <row r="464">
-      <c r="F464" s="1" t="n"/>
+      <c r="F464" s="2" t="n"/>
     </row>
     <row r="465">
-      <c r="F465" s="1" t="n"/>
+      <c r="F465" s="2" t="n"/>
     </row>
     <row r="466">
-      <c r="F466" s="1" t="n"/>
+      <c r="F466" s="2" t="n"/>
     </row>
     <row r="467">
-      <c r="F467" s="1" t="n"/>
+      <c r="F467" s="2" t="n"/>
     </row>
     <row r="468">
-      <c r="F468" s="1" t="n"/>
+      <c r="F468" s="2" t="n"/>
     </row>
     <row r="469">
-      <c r="F469" s="1" t="n"/>
+      <c r="F469" s="2" t="n"/>
     </row>
     <row r="470">
-      <c r="F470" s="1" t="n"/>
+      <c r="F470" s="2" t="n"/>
     </row>
     <row r="471">
-      <c r="F471" s="1" t="n"/>
+      <c r="F471" s="2" t="n"/>
     </row>
     <row r="472">
-      <c r="F472" s="1" t="n"/>
+      <c r="F472" s="2" t="n"/>
     </row>
     <row r="473">
-      <c r="F473" s="1" t="n"/>
+      <c r="F473" s="2" t="n"/>
     </row>
     <row r="474">
-      <c r="F474" s="1" t="n"/>
+      <c r="F474" s="2" t="n"/>
     </row>
     <row r="475">
-      <c r="F475" s="1" t="n"/>
+      <c r="F475" s="2" t="n"/>
     </row>
     <row r="476">
-      <c r="F476" s="1" t="n"/>
+      <c r="F476" s="2" t="n"/>
     </row>
     <row r="477">
-      <c r="F477" s="1" t="n"/>
+      <c r="F477" s="2" t="n"/>
     </row>
     <row r="478">
-      <c r="F478" s="1" t="n"/>
+      <c r="F478" s="2" t="n"/>
     </row>
     <row r="479">
-      <c r="F479" s="1" t="n"/>
+      <c r="F479" s="2" t="n"/>
     </row>
     <row r="480">
-      <c r="F480" s="1" t="n"/>
+      <c r="F480" s="2" t="n"/>
     </row>
     <row r="481">
-      <c r="F481" s="1" t="n"/>
+      <c r="F481" s="2" t="n"/>
     </row>
     <row r="482">
-      <c r="F482" s="1" t="n"/>
+      <c r="F482" s="2" t="n"/>
     </row>
     <row r="483">
-      <c r="F483" s="1" t="n"/>
+      <c r="F483" s="2" t="n"/>
     </row>
     <row r="484">
-      <c r="F484" s="1" t="n"/>
+      <c r="F484" s="2" t="n"/>
     </row>
     <row r="485">
-      <c r="F485" s="1" t="n"/>
+      <c r="F485" s="2" t="n"/>
     </row>
     <row r="486">
-      <c r="F486" s="1" t="n"/>
+      <c r="F486" s="2" t="n"/>
     </row>
     <row r="487">
-      <c r="F487" s="1" t="n"/>
+      <c r="F487" s="2" t="n"/>
     </row>
     <row r="488">
-      <c r="F488" s="1" t="n"/>
+      <c r="F488" s="2" t="n"/>
     </row>
     <row r="489">
-      <c r="F489" s="1" t="n"/>
+      <c r="F489" s="2" t="n"/>
     </row>
     <row r="490">
-      <c r="F490" s="1" t="n"/>
+      <c r="F490" s="2" t="n"/>
     </row>
     <row r="491">
-      <c r="F491" s="1" t="n"/>
+      <c r="F491" s="2" t="n"/>
     </row>
     <row r="492">
-      <c r="F492" s="1" t="n"/>
+      <c r="F492" s="2" t="n"/>
     </row>
     <row r="493">
-      <c r="F493" s="1" t="n"/>
+      <c r="F493" s="2" t="n"/>
     </row>
     <row r="494">
-      <c r="F494" s="1" t="n"/>
+      <c r="F494" s="2" t="n"/>
     </row>
     <row r="495">
-      <c r="F495" s="1" t="n"/>
+      <c r="F495" s="2" t="n"/>
     </row>
     <row r="496">
-      <c r="F496" s="1" t="n"/>
+      <c r="F496" s="2" t="n"/>
     </row>
     <row r="497">
-      <c r="F497" s="1" t="n"/>
+      <c r="F497" s="2" t="n"/>
     </row>
     <row r="498">
-      <c r="F498" s="1" t="n"/>
+      <c r="F498" s="2" t="n"/>
     </row>
     <row r="499">
-      <c r="F499" s="1" t="n"/>
+      <c r="F499" s="2" t="n"/>
     </row>
     <row r="500">
-      <c r="F500" s="1" t="n"/>
+      <c r="F500" s="2" t="n"/>
     </row>
     <row r="501">
-      <c r="F501" s="1" t="n"/>
+      <c r="F501" s="2" t="n"/>
     </row>
     <row r="502">
-      <c r="F502" s="1" t="n"/>
+      <c r="F502" s="2" t="n"/>
     </row>
     <row r="503">
-      <c r="F503" s="1" t="n"/>
+      <c r="F503" s="2" t="n"/>
     </row>
     <row r="504">
-      <c r="F504" s="1" t="n"/>
+      <c r="F504" s="2" t="n"/>
     </row>
     <row r="505">
-      <c r="F505" s="1" t="n"/>
+      <c r="F505" s="2" t="n"/>
     </row>
     <row r="506">
-      <c r="F506" s="1" t="n"/>
+      <c r="F506" s="2" t="n"/>
     </row>
     <row r="507">
-      <c r="F507" s="1" t="n"/>
+      <c r="F507" s="2" t="n"/>
     </row>
     <row r="508">
-      <c r="F508" s="1" t="n"/>
+      <c r="F508" s="2" t="n"/>
     </row>
     <row r="509">
-      <c r="F509" s="1" t="n"/>
+      <c r="F509" s="2" t="n"/>
     </row>
     <row r="510">
-      <c r="F510" s="1" t="n"/>
+      <c r="F510" s="2" t="n"/>
     </row>
     <row r="511">
-      <c r="F511" s="1" t="n"/>
+      <c r="F511" s="2" t="n"/>
     </row>
     <row r="512">
-      <c r="F512" s="1" t="n"/>
+      <c r="F512" s="2" t="n"/>
     </row>
     <row r="513">
-      <c r="F513" s="1" t="n"/>
+      <c r="F513" s="2" t="n"/>
     </row>
     <row r="514">
-      <c r="F514" s="1" t="n"/>
+      <c r="F514" s="2" t="n"/>
     </row>
     <row r="515">
-      <c r="F515" s="1" t="n"/>
+      <c r="F515" s="2" t="n"/>
     </row>
     <row r="516">
-      <c r="F516" s="1" t="n"/>
+      <c r="F516" s="2" t="n"/>
     </row>
     <row r="517">
-      <c r="F517" s="1" t="n"/>
+      <c r="F517" s="2" t="n"/>
     </row>
     <row r="518">
-      <c r="F518" s="1" t="n"/>
+      <c r="F518" s="2" t="n"/>
     </row>
     <row r="519">
-      <c r="F519" s="1" t="n"/>
+      <c r="F519" s="2" t="n"/>
     </row>
     <row r="520">
-      <c r="F520" s="1" t="n"/>
+      <c r="F520" s="2" t="n"/>
     </row>
     <row r="521">
-      <c r="F521" s="1" t="n"/>
+      <c r="F521" s="2" t="n"/>
     </row>
     <row r="522">
-      <c r="F522" s="1" t="n"/>
+      <c r="F522" s="2" t="n"/>
     </row>
     <row r="523">
-      <c r="F523" s="1" t="n"/>
+      <c r="F523" s="2" t="n"/>
     </row>
     <row r="524">
-      <c r="F524" s="1" t="n"/>
+      <c r="F524" s="2" t="n"/>
     </row>
     <row r="525">
-      <c r="F525" s="1" t="n"/>
+      <c r="F525" s="2" t="n"/>
     </row>
     <row r="526">
-      <c r="F526" s="1" t="n"/>
+      <c r="F526" s="2" t="n"/>
     </row>
     <row r="527">
-      <c r="F527" s="1" t="n"/>
+      <c r="F527" s="2" t="n"/>
     </row>
     <row r="528">
-      <c r="F528" s="1" t="n"/>
+      <c r="F528" s="2" t="n"/>
     </row>
     <row r="529">
-      <c r="F529" s="1" t="n"/>
+      <c r="F529" s="2" t="n"/>
     </row>
     <row r="530">
-      <c r="F530" s="1" t="n"/>
+      <c r="F530" s="2" t="n"/>
     </row>
     <row r="531">
-      <c r="F531" s="1" t="n"/>
+      <c r="F531" s="2" t="n"/>
     </row>
     <row r="532">
-      <c r="F532" s="1" t="n"/>
+      <c r="F532" s="2" t="n"/>
     </row>
     <row r="533">
-      <c r="F533" s="1" t="n"/>
+      <c r="F533" s="2" t="n"/>
     </row>
     <row r="534">
-      <c r="F534" s="1" t="n"/>
+      <c r="F534" s="2" t="n"/>
     </row>
     <row r="535">
-      <c r="F535" s="1" t="n"/>
+      <c r="F535" s="2" t="n"/>
     </row>
     <row r="536">
-      <c r="F536" s="1" t="n"/>
+      <c r="F536" s="2" t="n"/>
     </row>
     <row r="537">
-      <c r="F537" s="1" t="n"/>
+      <c r="F537" s="2" t="n"/>
     </row>
     <row r="538">
-      <c r="F538" s="1" t="n"/>
+      <c r="F538" s="2" t="n"/>
     </row>
     <row r="539">
-      <c r="F539" s="1" t="n"/>
+      <c r="F539" s="2" t="n"/>
     </row>
     <row r="540">
-      <c r="F540" s="1" t="n"/>
+      <c r="F540" s="2" t="n"/>
     </row>
     <row r="541">
-      <c r="F541" s="1" t="n"/>
+      <c r="F541" s="2" t="n"/>
     </row>
     <row r="542">
-      <c r="F542" s="1" t="n"/>
+      <c r="F542" s="2" t="n"/>
     </row>
     <row r="543">
-      <c r="F543" s="1" t="n"/>
+      <c r="F543" s="2" t="n"/>
     </row>
     <row r="544">
-      <c r="F544" s="1" t="n"/>
+      <c r="F544" s="2" t="n"/>
     </row>
     <row r="545">
-      <c r="F545" s="1" t="n"/>
+      <c r="F545" s="2" t="n"/>
     </row>
     <row r="546">
-      <c r="F546" s="1" t="n"/>
+      <c r="F546" s="2" t="n"/>
     </row>
     <row r="547">
-      <c r="F547" s="1" t="n"/>
+      <c r="F547" s="2" t="n"/>
     </row>
     <row r="548">
-      <c r="F548" s="1" t="n"/>
+      <c r="F548" s="2" t="n"/>
     </row>
     <row r="549">
-      <c r="F549" s="1" t="n"/>
+      <c r="F549" s="2" t="n"/>
     </row>
     <row r="550">
-      <c r="F550" s="1" t="n"/>
+      <c r="F550" s="2" t="n"/>
     </row>
     <row r="551">
-      <c r="F551" s="1" t="n"/>
+      <c r="F551" s="2" t="n"/>
     </row>
     <row r="552">
-      <c r="F552" s="1" t="n"/>
+      <c r="F552" s="2" t="n"/>
     </row>
     <row r="553">
-      <c r="F553" s="1" t="n"/>
+      <c r="F553" s="2" t="n"/>
     </row>
     <row r="554">
-      <c r="F554" s="1" t="n"/>
+      <c r="F554" s="2" t="n"/>
     </row>
     <row r="555">
-      <c r="F555" s="1" t="n"/>
+      <c r="F555" s="2" t="n"/>
     </row>
     <row r="556">
-      <c r="F556" s="1" t="n"/>
+      <c r="F556" s="2" t="n"/>
     </row>
     <row r="557">
-      <c r="F557" s="1" t="n"/>
+      <c r="F557" s="2" t="n"/>
     </row>
     <row r="558">
-      <c r="F558" s="1" t="n"/>
+      <c r="F558" s="2" t="n"/>
     </row>
     <row r="559">
-      <c r="F559" s="1" t="n"/>
+      <c r="F559" s="2" t="n"/>
     </row>
     <row r="560">
-      <c r="F560" s="1" t="n"/>
+      <c r="F560" s="2" t="n"/>
     </row>
     <row r="561">
-      <c r="F561" s="1" t="n"/>
+      <c r="F561" s="2" t="n"/>
     </row>
     <row r="562">
-      <c r="F562" s="1" t="n"/>
+      <c r="F562" s="2" t="n"/>
     </row>
     <row r="563">
-      <c r="F563" s="1" t="n"/>
+      <c r="F563" s="2" t="n"/>
     </row>
     <row r="564">
-      <c r="F564" s="1" t="n"/>
+      <c r="F564" s="2" t="n"/>
     </row>
     <row r="565">
-      <c r="F565" s="1" t="n"/>
+      <c r="F565" s="2" t="n"/>
     </row>
     <row r="566">
-      <c r="F566" s="1" t="n"/>
+      <c r="F566" s="2" t="n"/>
     </row>
     <row r="567">
-      <c r="F567" s="1" t="n"/>
+      <c r="F567" s="2" t="n"/>
     </row>
     <row r="568">
-      <c r="F568" s="1" t="n"/>
+      <c r="F568" s="2" t="n"/>
     </row>
     <row r="569">
-      <c r="F569" s="1" t="n"/>
+      <c r="F569" s="2" t="n"/>
     </row>
     <row r="570">
-      <c r="F570" s="1" t="n"/>
+      <c r="F570" s="2" t="n"/>
     </row>
     <row r="571">
-      <c r="F571" s="1" t="n"/>
+      <c r="F571" s="2" t="n"/>
     </row>
     <row r="572">
-      <c r="F572" s="1" t="n"/>
+      <c r="F572" s="2" t="n"/>
     </row>
     <row r="573">
-      <c r="F573" s="1" t="n"/>
+      <c r="F573" s="2" t="n"/>
     </row>
     <row r="574">
-      <c r="F574" s="1" t="n"/>
+      <c r="F574" s="2" t="n"/>
     </row>
     <row r="575">
-      <c r="F575" s="1" t="n"/>
+      <c r="F575" s="2" t="n"/>
     </row>
     <row r="576">
-      <c r="F576" s="1" t="n"/>
+      <c r="F576" s="2" t="n"/>
     </row>
     <row r="577">
-      <c r="F577" s="1" t="n"/>
+      <c r="F577" s="2" t="n"/>
     </row>
     <row r="578">
-      <c r="F578" s="1" t="n"/>
+      <c r="F578" s="2" t="n"/>
     </row>
     <row r="579">
-      <c r="F579" s="1" t="n"/>
+      <c r="F579" s="2" t="n"/>
     </row>
     <row r="580">
-      <c r="F580" s="1" t="n"/>
+      <c r="F580" s="2" t="n"/>
     </row>
     <row r="581">
-      <c r="F581" s="1" t="n"/>
+      <c r="F581" s="2" t="n"/>
     </row>
     <row r="582">
-      <c r="F582" s="1" t="n"/>
+      <c r="F582" s="2" t="n"/>
     </row>
     <row r="583">
-      <c r="F583" s="1" t="n"/>
+      <c r="F583" s="2" t="n"/>
     </row>
     <row r="584">
-      <c r="F584" s="1" t="n"/>
+      <c r="F584" s="2" t="n"/>
     </row>
     <row r="585">
-      <c r="F585" s="1" t="n"/>
+      <c r="F585" s="2" t="n"/>
     </row>
     <row r="586">
-      <c r="F586" s="1" t="n"/>
+      <c r="F586" s="2" t="n"/>
     </row>
     <row r="587">
-      <c r="F587" s="1" t="n"/>
+      <c r="F587" s="2" t="n"/>
     </row>
     <row r="588">
-      <c r="F588" s="1" t="n"/>
+      <c r="F588" s="2" t="n"/>
     </row>
     <row r="589">
-      <c r="F589" s="1" t="n"/>
+      <c r="F589" s="2" t="n"/>
     </row>
     <row r="590">
-      <c r="F590" s="1" t="n"/>
+      <c r="F590" s="2" t="n"/>
     </row>
     <row r="591">
-      <c r="F591" s="1" t="n"/>
+      <c r="F591" s="2" t="n"/>
     </row>
     <row r="592">
-      <c r="F592" s="1" t="n"/>
+      <c r="F592" s="2" t="n"/>
     </row>
     <row r="593">
-      <c r="F593" s="1" t="n"/>
+      <c r="F593" s="2" t="n"/>
     </row>
     <row r="594">
-      <c r="F594" s="1" t="n"/>
+      <c r="F594" s="2" t="n"/>
     </row>
     <row r="595">
-      <c r="F595" s="1" t="n"/>
+      <c r="F595" s="2" t="n"/>
     </row>
     <row r="596">
-      <c r="F596" s="1" t="n"/>
+      <c r="F596" s="2" t="n"/>
     </row>
     <row r="597">
-      <c r="F597" s="1" t="n"/>
+      <c r="F597" s="2" t="n"/>
     </row>
     <row r="598">
-      <c r="F598" s="1" t="n"/>
+      <c r="F598" s="2" t="n"/>
     </row>
     <row r="599">
-      <c r="F599" s="1" t="n"/>
+      <c r="F599" s="2" t="n"/>
     </row>
     <row r="600">
-      <c r="F600" s="1" t="n"/>
+      <c r="F600" s="2" t="n"/>
     </row>
     <row r="601">
-      <c r="F601" s="1" t="n"/>
+      <c r="F601" s="2" t="n"/>
     </row>
     <row r="602">
-      <c r="F602" s="1" t="n"/>
+      <c r="F602" s="2" t="n"/>
     </row>
     <row r="603">
-      <c r="F603" s="1" t="n"/>
+      <c r="F603" s="2" t="n"/>
     </row>
     <row r="604">
-      <c r="F604" s="1" t="n"/>
+      <c r="F604" s="2" t="n"/>
     </row>
     <row r="605">
-      <c r="F605" s="1" t="n"/>
+      <c r="F605" s="2" t="n"/>
     </row>
     <row r="606">
-      <c r="F606" s="1" t="n"/>
+      <c r="F606" s="2" t="n"/>
     </row>
     <row r="607">
-      <c r="F607" s="1" t="n"/>
+      <c r="F607" s="2" t="n"/>
     </row>
     <row r="608">
-      <c r="F608" s="1" t="n"/>
+      <c r="F608" s="2" t="n"/>
     </row>
     <row r="609">
-      <c r="F609" s="1" t="n"/>
+      <c r="F609" s="2" t="n"/>
     </row>
     <row r="610">
-      <c r="F610" s="1" t="n"/>
+      <c r="F610" s="2" t="n"/>
     </row>
     <row r="611">
-      <c r="F611" s="1" t="n"/>
+      <c r="F611" s="2" t="n"/>
     </row>
     <row r="612">
-      <c r="F612" s="1" t="n"/>
+      <c r="F612" s="2" t="n"/>
     </row>
     <row r="613">
-      <c r="F613" s="1" t="n"/>
+      <c r="F613" s="2" t="n"/>
     </row>
     <row r="614">
-      <c r="F614" s="1" t="n"/>
+      <c r="F614" s="2" t="n"/>
     </row>
     <row r="615">
-      <c r="F615" s="1" t="n"/>
+      <c r="F615" s="2" t="n"/>
     </row>
     <row r="616">
-      <c r="F616" s="1" t="n"/>
+      <c r="F616" s="2" t="n"/>
     </row>
     <row r="617">
-      <c r="F617" s="1" t="n"/>
+      <c r="F617" s="2" t="n"/>
     </row>
     <row r="618">
-      <c r="F618" s="1" t="n"/>
+      <c r="F618" s="2" t="n"/>
     </row>
     <row r="619">
-      <c r="F619" s="1" t="n"/>
+      <c r="F619" s="2" t="n"/>
     </row>
     <row r="620">
-      <c r="F620" s="1" t="n"/>
+      <c r="F620" s="2" t="n"/>
     </row>
     <row r="621">
-      <c r="F621" s="1" t="n"/>
+      <c r="F621" s="2" t="n"/>
     </row>
     <row r="622">
-      <c r="F622" s="1" t="n"/>
+      <c r="F622" s="2" t="n"/>
     </row>
     <row r="623">
-      <c r="F623" s="1" t="n"/>
+      <c r="F623" s="2" t="n"/>
     </row>
     <row r="624">
-      <c r="F624" s="1" t="n"/>
+      <c r="F624" s="2" t="n"/>
     </row>
     <row r="625">
-      <c r="F625" s="1" t="n"/>
+      <c r="F625" s="2" t="n"/>
     </row>
     <row r="626">
-      <c r="F626" s="1" t="n"/>
+      <c r="F626" s="2" t="n"/>
     </row>
     <row r="627">
-      <c r="F627" s="1" t="n"/>
+      <c r="F627" s="2" t="n"/>
     </row>
     <row r="628">
-      <c r="F628" s="1" t="n"/>
+      <c r="F628" s="2" t="n"/>
     </row>
     <row r="629">
-      <c r="F629" s="1" t="n"/>
+      <c r="F629" s="2" t="n"/>
     </row>
     <row r="630">
-      <c r="F630" s="1" t="n"/>
+      <c r="F630" s="2" t="n"/>
     </row>
     <row r="631">
-      <c r="F631" s="1" t="n"/>
+      <c r="F631" s="2" t="n"/>
     </row>
     <row r="632">
-      <c r="F632" s="1" t="n"/>
+      <c r="F632" s="2" t="n"/>
     </row>
     <row r="633">
-      <c r="F633" s="1" t="n"/>
+      <c r="F633" s="2" t="n"/>
     </row>
     <row r="634">
-      <c r="F634" s="1" t="n"/>
+      <c r="F634" s="2" t="n"/>
     </row>
     <row r="635">
-      <c r="F635" s="1" t="n"/>
+      <c r="F635" s="2" t="n"/>
     </row>
     <row r="636">
-      <c r="F636" s="1" t="n"/>
+      <c r="F636" s="2" t="n"/>
     </row>
     <row r="637">
-      <c r="F637" s="1" t="n"/>
+      <c r="F637" s="2" t="n"/>
     </row>
     <row r="638">
-      <c r="F638" s="1" t="n"/>
+      <c r="F638" s="2" t="n"/>
     </row>
     <row r="639">
-      <c r="F639" s="1" t="n"/>
+      <c r="F639" s="2" t="n"/>
     </row>
     <row r="640">
-      <c r="F640" s="1" t="n"/>
+      <c r="F640" s="2" t="n"/>
     </row>
     <row r="641">
-      <c r="F641" s="1" t="n"/>
+      <c r="F641" s="2" t="n"/>
     </row>
     <row r="642">
-      <c r="F642" s="1" t="n"/>
+      <c r="F642" s="2" t="n"/>
     </row>
     <row r="643">
-      <c r="F643" s="1" t="n"/>
+      <c r="F643" s="2" t="n"/>
     </row>
     <row r="644">
-      <c r="F644" s="1" t="n"/>
+      <c r="F644" s="2" t="n"/>
     </row>
     <row r="645">
-      <c r="F645" s="1" t="n"/>
+      <c r="F645" s="2" t="n"/>
     </row>
     <row r="646">
-      <c r="F646" s="1" t="n"/>
+      <c r="F646" s="2" t="n"/>
     </row>
     <row r="647">
-      <c r="F647" s="1" t="n"/>
+      <c r="F647" s="2" t="n"/>
     </row>
     <row r="648">
-      <c r="F648" s="1" t="n"/>
+      <c r="F648" s="2" t="n"/>
     </row>
     <row r="649">
-      <c r="F649" s="1" t="n"/>
+      <c r="F649" s="2" t="n"/>
     </row>
     <row r="650">
-      <c r="F650" s="1" t="n"/>
+      <c r="F650" s="2" t="n"/>
     </row>
     <row r="651">
-      <c r="F651" s="1" t="n"/>
+      <c r="F651" s="2" t="n"/>
     </row>
     <row r="652">
-      <c r="F652" s="1" t="n"/>
+      <c r="F652" s="2" t="n"/>
     </row>
     <row r="653">
-      <c r="F653" s="1" t="n"/>
+      <c r="F653" s="2" t="n"/>
     </row>
     <row r="654">
-      <c r="F654" s="1" t="n"/>
+      <c r="F654" s="2" t="n"/>
     </row>
     <row r="655">
-      <c r="F655" s="1" t="n"/>
+      <c r="F655" s="2" t="n"/>
     </row>
     <row r="656">
-      <c r="F656" s="1" t="n"/>
+      <c r="F656" s="2" t="n"/>
     </row>
     <row r="657">
-      <c r="F657" s="1" t="n"/>
+      <c r="F657" s="2" t="n"/>
     </row>
     <row r="658">
-      <c r="F658" s="1" t="n"/>
+      <c r="F658" s="2" t="n"/>
     </row>
     <row r="659">
-      <c r="F659" s="1" t="n"/>
+      <c r="F659" s="2" t="n"/>
     </row>
     <row r="660">
-      <c r="F660" s="1" t="n"/>
+      <c r="F660" s="2" t="n"/>
     </row>
     <row r="661">
-      <c r="F661" s="1" t="n"/>
+      <c r="F661" s="2" t="n"/>
     </row>
     <row r="662">
-      <c r="F662" s="1" t="n"/>
+      <c r="F662" s="2" t="n"/>
     </row>
     <row r="663">
-      <c r="F663" s="1" t="n"/>
+      <c r="F663" s="2" t="n"/>
     </row>
     <row r="664">
-      <c r="F664" s="1" t="n"/>
+      <c r="F664" s="2" t="n"/>
     </row>
     <row r="665">
-      <c r="F665" s="1" t="n"/>
+      <c r="F665" s="2" t="n"/>
     </row>
     <row r="666">
-      <c r="F666" s="1" t="n"/>
+      <c r="F666" s="2" t="n"/>
     </row>
     <row r="667">
-      <c r="F667" s="1" t="n"/>
+      <c r="F667" s="2" t="n"/>
     </row>
     <row r="668">
-      <c r="F668" s="1" t="n"/>
+      <c r="F668" s="2" t="n"/>
     </row>
     <row r="669">
-      <c r="F669" s="1" t="n"/>
+      <c r="F669" s="2" t="n"/>
     </row>
     <row r="670">
-      <c r="F670" s="1" t="n"/>
+      <c r="F670" s="2" t="n"/>
     </row>
     <row r="671">
-      <c r="F671" s="1" t="n"/>
+      <c r="F671" s="2" t="n"/>
     </row>
     <row r="672">
-      <c r="F672" s="1" t="n"/>
+      <c r="F672" s="2" t="n"/>
     </row>
     <row r="673">
-      <c r="F673" s="1" t="n"/>
+      <c r="F673" s="2" t="n"/>
     </row>
     <row r="674">
-      <c r="F674" s="1" t="n"/>
+      <c r="F674" s="2" t="n"/>
     </row>
     <row r="675">
-      <c r="F675" s="1" t="n"/>
+      <c r="F675" s="2" t="n"/>
     </row>
     <row r="676">
-      <c r="F676" s="1" t="n"/>
+      <c r="F676" s="2" t="n"/>
     </row>
     <row r="677">
-      <c r="F677" s="1" t="n"/>
+      <c r="F677" s="2" t="n"/>
     </row>
     <row r="678">
-      <c r="F678" s="1" t="n"/>
+      <c r="F678" s="2" t="n"/>
     </row>
     <row r="679">
-      <c r="F679" s="1" t="n"/>
+      <c r="F679" s="2" t="n"/>
     </row>
     <row r="680">
-      <c r="F680" s="1" t="n"/>
+      <c r="F680" s="2" t="n"/>
     </row>
     <row r="681">
-      <c r="F681" s="1" t="n"/>
+      <c r="F681" s="2" t="n"/>
     </row>
     <row r="682">
-      <c r="F682" s="1" t="n"/>
+      <c r="F682" s="2" t="n"/>
     </row>
     <row r="683">
-      <c r="F683" s="1" t="n"/>
+      <c r="F683" s="2" t="n"/>
     </row>
     <row r="684">
-      <c r="F684" s="1" t="n"/>
+      <c r="F684" s="2" t="n"/>
     </row>
     <row r="685">
-      <c r="F685" s="1" t="n"/>
+      <c r="F685" s="2" t="n"/>
     </row>
     <row r="686">
-      <c r="F686" s="1" t="n"/>
+      <c r="F686" s="2" t="n"/>
     </row>
     <row r="687">
-      <c r="F687" s="1" t="n"/>
+      <c r="F687" s="2" t="n"/>
     </row>
     <row r="688">
-      <c r="F688" s="1" t="n"/>
+      <c r="F688" s="2" t="n"/>
     </row>
     <row r="689">
-      <c r="F689" s="1" t="n"/>
+      <c r="F689" s="2" t="n"/>
     </row>
     <row r="690">
-      <c r="F690" s="1" t="n"/>
+      <c r="F690" s="2" t="n"/>
     </row>
     <row r="691">
-      <c r="F691" s="1" t="n"/>
+      <c r="F691" s="2" t="n"/>
     </row>
     <row r="692">
-      <c r="F692" s="1" t="n"/>
+      <c r="F692" s="2" t="n"/>
     </row>
     <row r="693">
-      <c r="F693" s="1" t="n"/>
+      <c r="F693" s="2" t="n"/>
     </row>
     <row r="694">
-      <c r="F694" s="1" t="n"/>
+      <c r="F694" s="2" t="n"/>
     </row>
     <row r="695">
-      <c r="F695" s="1" t="n"/>
+      <c r="F695" s="2" t="n"/>
     </row>
     <row r="696">
-      <c r="F696" s="1" t="n"/>
+      <c r="F696" s="2" t="n"/>
     </row>
     <row r="697">
-      <c r="F697" s="1" t="n"/>
+      <c r="F697" s="2" t="n"/>
     </row>
     <row r="698">
-      <c r="F698" s="1" t="n"/>
+      <c r="F698" s="2" t="n"/>
     </row>
     <row r="699">
-      <c r="F699" s="1" t="n"/>
+      <c r="F699" s="2" t="n"/>
     </row>
     <row r="700">
-      <c r="F700" s="1" t="n"/>
+      <c r="F700" s="2" t="n"/>
     </row>
     <row r="701">
-      <c r="F701" s="1" t="n"/>
+      <c r="F701" s="2" t="n"/>
     </row>
     <row r="702">
-      <c r="F702" s="1" t="n"/>
+      <c r="F702" s="2" t="n"/>
     </row>
     <row r="703">
-      <c r="F703" s="1" t="n"/>
+      <c r="F703" s="2" t="n"/>
     </row>
     <row r="704">
-      <c r="F704" s="1" t="n"/>
+      <c r="F704" s="2" t="n"/>
     </row>
     <row r="705">
-      <c r="F705" s="1" t="n"/>
+      <c r="F705" s="2" t="n"/>
     </row>
     <row r="706">
-      <c r="F706" s="1" t="n"/>
+      <c r="F706" s="2" t="n"/>
     </row>
     <row r="707">
-      <c r="F707" s="1" t="n"/>
+      <c r="F707" s="2" t="n"/>
     </row>
     <row r="708">
-      <c r="F708" s="1" t="n"/>
+      <c r="F708" s="2" t="n"/>
     </row>
     <row r="709">
-      <c r="F709" s="1" t="n"/>
+      <c r="F709" s="2" t="n"/>
     </row>
     <row r="710">
-      <c r="F710" s="1" t="n"/>
+      <c r="F710" s="2" t="n"/>
     </row>
     <row r="711">
-      <c r="F711" s="1" t="n"/>
+      <c r="F711" s="2" t="n"/>
     </row>
     <row r="712">
-      <c r="F712" s="1" t="n"/>
+      <c r="F712" s="2" t="n"/>
     </row>
     <row r="713">
-      <c r="F713" s="1" t="n"/>
+      <c r="F713" s="2" t="n"/>
     </row>
     <row r="714">
-      <c r="F714" s="1" t="n"/>
+      <c r="F714" s="2" t="n"/>
     </row>
     <row r="715">
-      <c r="F715" s="1" t="n"/>
+      <c r="F715" s="2" t="n"/>
     </row>
     <row r="716">
-      <c r="F716" s="1" t="n"/>
+      <c r="F716" s="2" t="n"/>
     </row>
     <row r="717">
-      <c r="F717" s="1" t="n"/>
+      <c r="F717" s="2" t="n"/>
     </row>
     <row r="718">
-      <c r="F718" s="1" t="n"/>
+      <c r="F718" s="2" t="n"/>
     </row>
     <row r="719">
-      <c r="F719" s="1" t="n"/>
+      <c r="F719" s="2" t="n"/>
     </row>
     <row r="720">
-      <c r="F720" s="1" t="n"/>
+      <c r="F720" s="2" t="n"/>
     </row>
     <row r="721">
-      <c r="F721" s="1" t="n"/>
+      <c r="F721" s="2" t="n"/>
     </row>
     <row r="722">
-      <c r="F722" s="1" t="n"/>
+      <c r="F722" s="2" t="n"/>
     </row>
     <row r="723">
-      <c r="F723" s="1" t="n"/>
+      <c r="F723" s="2" t="n"/>
     </row>
     <row r="724">
-      <c r="F724" s="1" t="n"/>
+      <c r="F724" s="2" t="n"/>
     </row>
     <row r="725">
-      <c r="F725" s="1" t="n"/>
+      <c r="F725" s="2" t="n"/>
     </row>
     <row r="726">
-      <c r="F726" s="1" t="n"/>
+      <c r="F726" s="2" t="n"/>
     </row>
     <row r="727">
-      <c r="F727" s="1" t="n"/>
+      <c r="F727" s="2" t="n"/>
     </row>
     <row r="728">
-      <c r="F728" s="1" t="n"/>
+      <c r="F728" s="2" t="n"/>
     </row>
     <row r="729">
-      <c r="F729" s="1" t="n"/>
+      <c r="F729" s="2" t="n"/>
     </row>
     <row r="730">
-      <c r="F730" s="1" t="n"/>
+      <c r="F730" s="2" t="n"/>
     </row>
     <row r="731">
-      <c r="F731" s="1" t="n"/>
+      <c r="F731" s="2" t="n"/>
     </row>
     <row r="732">
-      <c r="F732" s="1" t="n"/>
+      <c r="F732" s="2" t="n"/>
     </row>
     <row r="733">
-      <c r="F733" s="1" t="n"/>
+      <c r="F733" s="2" t="n"/>
     </row>
     <row r="734">
-      <c r="F734" s="1" t="n"/>
+      <c r="F734" s="2" t="n"/>
     </row>
     <row r="735">
-      <c r="F735" s="1" t="n"/>
+      <c r="F735" s="2" t="n"/>
     </row>
     <row r="736">
-      <c r="F736" s="1" t="n"/>
+      <c r="F736" s="2" t="n"/>
     </row>
     <row r="737">
-      <c r="F737" s="1" t="n"/>
+      <c r="F737" s="2" t="n"/>
     </row>
     <row r="738">
-      <c r="F738" s="1" t="n"/>
+      <c r="F738" s="2" t="n"/>
     </row>
     <row r="739">
-      <c r="F739" s="1" t="n"/>
+      <c r="F739" s="2" t="n"/>
     </row>
     <row r="740">
-      <c r="F740" s="1" t="n"/>
+      <c r="F740" s="2" t="n"/>
     </row>
     <row r="741">
-      <c r="F741" s="1" t="n"/>
+      <c r="F741" s="2" t="n"/>
     </row>
     <row r="742">
-      <c r="F742" s="1" t="n"/>
+      <c r="F742" s="2" t="n"/>
     </row>
     <row r="743">
-      <c r="F743" s="1" t="n"/>
+      <c r="F743" s="2" t="n"/>
     </row>
     <row r="744">
-      <c r="F744" s="1" t="n"/>
+      <c r="F744" s="2" t="n"/>
     </row>
     <row r="745">
-      <c r="F745" s="1" t="n"/>
+      <c r="F745" s="2" t="n"/>
     </row>
     <row r="746">
-      <c r="F746" s="1" t="n"/>
+      <c r="F746" s="2" t="n"/>
     </row>
     <row r="747">
-      <c r="F747" s="1" t="n"/>
+      <c r="F747" s="2" t="n"/>
     </row>
     <row r="748">
-      <c r="F748" s="1" t="n"/>
+      <c r="F748" s="2" t="n"/>
     </row>
     <row r="749">
-      <c r="F749" s="1" t="n"/>
+      <c r="F749" s="2" t="n"/>
     </row>
     <row r="750">
-      <c r="F750" s="1" t="n"/>
+      <c r="F750" s="2" t="n"/>
     </row>
     <row r="751">
-      <c r="F751" s="1" t="n"/>
+      <c r="F751" s="2" t="n"/>
     </row>
     <row r="752">
-      <c r="F752" s="1" t="n"/>
+      <c r="F752" s="2" t="n"/>
     </row>
     <row r="753">
-      <c r="F753" s="1" t="n"/>
+      <c r="F753" s="2" t="n"/>
     </row>
     <row r="754">
-      <c r="F754" s="1" t="n"/>
+      <c r="F754" s="2" t="n"/>
     </row>
     <row r="755">
-      <c r="F755" s="1" t="n"/>
+      <c r="F755" s="2" t="n"/>
     </row>
     <row r="756">
-      <c r="F756" s="1" t="n"/>
+      <c r="F756" s="2" t="n"/>
     </row>
     <row r="757">
-      <c r="F757" s="1" t="n"/>
+      <c r="F757" s="2" t="n"/>
     </row>
     <row r="758">
-      <c r="F758" s="1" t="n"/>
+      <c r="F758" s="2" t="n"/>
     </row>
     <row r="759">
-      <c r="F759" s="1" t="n"/>
+      <c r="F759" s="2" t="n"/>
     </row>
     <row r="760">
-      <c r="F760" s="1" t="n"/>
+      <c r="F760" s="2" t="n"/>
     </row>
     <row r="761">
-      <c r="F761" s="1" t="n"/>
+      <c r="F761" s="2" t="n"/>
     </row>
     <row r="762">
-      <c r="F762" s="1" t="n"/>
+      <c r="F762" s="2" t="n"/>
     </row>
     <row r="763">
-      <c r="F763" s="1" t="n"/>
+      <c r="F763" s="2" t="n"/>
     </row>
     <row r="764">
-      <c r="F764" s="1" t="n"/>
+      <c r="F764" s="2" t="n"/>
     </row>
     <row r="765">
-      <c r="F765" s="1" t="n"/>
+      <c r="F765" s="2" t="n"/>
     </row>
     <row r="766">
-      <c r="F766" s="1" t="n"/>
+      <c r="F766" s="2" t="n"/>
     </row>
     <row r="767">
-      <c r="F767" s="1" t="n"/>
+      <c r="F767" s="2" t="n"/>
     </row>
     <row r="768">
-      <c r="F768" s="1" t="n"/>
+      <c r="F768" s="2" t="n"/>
     </row>
     <row r="769">
-      <c r="F769" s="1" t="n"/>
+      <c r="F769" s="2" t="n"/>
     </row>
     <row r="770">
-      <c r="F770" s="1" t="n"/>
+      <c r="F770" s="2" t="n"/>
     </row>
     <row r="771">
-      <c r="F771" s="1" t="n"/>
+      <c r="F771" s="2" t="n"/>
     </row>
     <row r="772">
-      <c r="F772" s="1" t="n"/>
+      <c r="F772" s="2" t="n"/>
     </row>
     <row r="773">
-      <c r="F773" s="1" t="n"/>
+      <c r="F773" s="2" t="n"/>
     </row>
     <row r="774">
-      <c r="F774" s="1" t="n"/>
+      <c r="F774" s="2" t="n"/>
     </row>
     <row r="775">
-      <c r="F775" s="1" t="n"/>
+      <c r="F775" s="2" t="n"/>
     </row>
     <row r="776">
-      <c r="F776" s="1" t="n"/>
+      <c r="F776" s="2" t="n"/>
     </row>
     <row r="777">
-      <c r="F777" s="1" t="n"/>
+      <c r="F777" s="2" t="n"/>
     </row>
     <row r="778">
-      <c r="F778" s="1" t="n"/>
+      <c r="F778" s="2" t="n"/>
     </row>
     <row r="779">
-      <c r="F779" s="1" t="n"/>
+      <c r="F779" s="2" t="n"/>
     </row>
     <row r="780">
-      <c r="F780" s="1" t="n"/>
+      <c r="F780" s="2" t="n"/>
     </row>
     <row r="781">
-      <c r="F781" s="1" t="n"/>
+      <c r="F781" s="2" t="n"/>
     </row>
     <row r="782">
-      <c r="F782" s="1" t="n"/>
+      <c r="F782" s="2" t="n"/>
     </row>
     <row r="783">
-      <c r="F783" s="1" t="n"/>
+      <c r="F783" s="2" t="n"/>
     </row>
     <row r="784">
-      <c r="F784" s="1" t="n"/>
+      <c r="F784" s="2" t="n"/>
     </row>
     <row r="785">
-      <c r="F785" s="1" t="n"/>
+      <c r="F785" s="2" t="n"/>
     </row>
     <row r="786">
-      <c r="F786" s="1" t="n"/>
+      <c r="F786" s="2" t="n"/>
     </row>
     <row r="787">
-      <c r="F787" s="1" t="n"/>
+      <c r="F787" s="2" t="n"/>
     </row>
     <row r="788">
-      <c r="F788" s="1" t="n"/>
+      <c r="F788" s="2" t="n"/>
     </row>
     <row r="789">
-      <c r="F789" s="1" t="n"/>
+      <c r="F789" s="2" t="n"/>
     </row>
     <row r="790">
-      <c r="F790" s="1" t="n"/>
+      <c r="F790" s="2" t="n"/>
     </row>
     <row r="791">
-      <c r="F791" s="1" t="n"/>
+      <c r="F791" s="2" t="n"/>
     </row>
     <row r="792">
-      <c r="F792" s="1" t="n"/>
+      <c r="F792" s="2" t="n"/>
     </row>
     <row r="793">
-      <c r="F793" s="1" t="n"/>
+      <c r="F793" s="2" t="n"/>
     </row>
     <row r="794">
-      <c r="F794" s="1" t="n"/>
+      <c r="F794" s="2" t="n"/>
     </row>
     <row r="795">
-      <c r="F795" s="1" t="n"/>
+      <c r="F795" s="2" t="n"/>
     </row>
     <row r="796">
-      <c r="F796" s="1" t="n"/>
+      <c r="F796" s="2" t="n"/>
     </row>
     <row r="797">
-      <c r="F797" s="1" t="n"/>
+      <c r="F797" s="2" t="n"/>
     </row>
     <row r="798">
-      <c r="F798" s="1" t="n"/>
+      <c r="F798" s="2" t="n"/>
     </row>
     <row r="799">
-      <c r="F799" s="1" t="n"/>
+      <c r="F799" s="2" t="n"/>
     </row>
     <row r="800">
-      <c r="F800" s="1" t="n"/>
+      <c r="F800" s="2" t="n"/>
     </row>
     <row r="801">
-      <c r="F801" s="1" t="n"/>
+      <c r="F801" s="2" t="n"/>
     </row>
     <row r="802">
-      <c r="F802" s="1" t="n"/>
+      <c r="F802" s="2" t="n"/>
     </row>
     <row r="803">
-      <c r="F803" s="1" t="n"/>
+      <c r="F803" s="2" t="n"/>
     </row>
     <row r="804">
-      <c r="F804" s="1" t="n"/>
+      <c r="F804" s="2" t="n"/>
     </row>
     <row r="805">
-      <c r="F805" s="1" t="n"/>
+      <c r="F805" s="2" t="n"/>
     </row>
     <row r="806">
-      <c r="F806" s="1" t="n"/>
+      <c r="F806" s="2" t="n"/>
     </row>
     <row r="807">
-      <c r="F807" s="1" t="n"/>
+      <c r="F807" s="2" t="n"/>
     </row>
     <row r="808">
-      <c r="F808" s="1" t="n"/>
+      <c r="F808" s="2" t="n"/>
     </row>
     <row r="809">
-      <c r="F809" s="1" t="n"/>
+      <c r="F809" s="2" t="n"/>
     </row>
     <row r="810">
-      <c r="F810" s="1" t="n"/>
+      <c r="F810" s="2" t="n"/>
     </row>
     <row r="811">
-      <c r="F811" s="1" t="n"/>
+      <c r="F811" s="2" t="n"/>
     </row>
     <row r="812">
-      <c r="F812" s="1" t="n"/>
+      <c r="F812" s="2" t="n"/>
     </row>
     <row r="813">
-      <c r="F813" s="1" t="n"/>
+      <c r="F813" s="2" t="n"/>
     </row>
     <row r="814">
-      <c r="F814" s="1" t="n"/>
+      <c r="F814" s="2" t="n"/>
     </row>
     <row r="815">
-      <c r="F815" s="1" t="n"/>
+      <c r="F815" s="2" t="n"/>
     </row>
     <row r="816">
-      <c r="F816" s="1" t="n"/>
+      <c r="F816" s="2" t="n"/>
     </row>
     <row r="817">
-      <c r="F817" s="1" t="n"/>
+      <c r="F817" s="2" t="n"/>
     </row>
     <row r="818">
-      <c r="F818" s="1" t="n"/>
+      <c r="F818" s="2" t="n"/>
     </row>
     <row r="819">
-      <c r="F819" s="1" t="n"/>
+      <c r="F819" s="2" t="n"/>
     </row>
     <row r="820">
-      <c r="F820" s="1" t="n"/>
+      <c r="F820" s="2" t="n"/>
     </row>
     <row r="821">
-      <c r="F821" s="1" t="n"/>
+      <c r="F821" s="2" t="n"/>
     </row>
     <row r="822">
-      <c r="F822" s="1" t="n"/>
+      <c r="F822" s="2" t="n"/>
     </row>
     <row r="823">
-      <c r="F823" s="1" t="n"/>
+      <c r="F823" s="2" t="n"/>
     </row>
     <row r="824">
-      <c r="F824" s="1" t="n"/>
+      <c r="F824" s="2" t="n"/>
     </row>
     <row r="825">
-      <c r="F825" s="1" t="n"/>
+      <c r="F825" s="2" t="n"/>
     </row>
     <row r="826">
-      <c r="F826" s="1" t="n"/>
+      <c r="F826" s="2" t="n"/>
     </row>
     <row r="827">
-      <c r="F827" s="1" t="n"/>
+      <c r="F827" s="2" t="n"/>
     </row>
     <row r="828">
-      <c r="F828" s="1" t="n"/>
+      <c r="F828" s="2" t="n"/>
     </row>
     <row r="829">
-      <c r="F829" s="1" t="n"/>
+      <c r="F829" s="2" t="n"/>
     </row>
     <row r="830">
-      <c r="F830" s="1" t="n"/>
+      <c r="F830" s="2" t="n"/>
     </row>
     <row r="831">
-      <c r="F831" s="1" t="n"/>
+      <c r="F831" s="2" t="n"/>
     </row>
     <row r="832">
-      <c r="F832" s="1" t="n"/>
+      <c r="F832" s="2" t="n"/>
     </row>
     <row r="833">
-      <c r="F833" s="1" t="n"/>
+      <c r="F833" s="2" t="n"/>
     </row>
     <row r="834">
-      <c r="F834" s="1" t="n"/>
+      <c r="F834" s="2" t="n"/>
     </row>
     <row r="835">
-      <c r="F835" s="1" t="n"/>
+      <c r="F835" s="2" t="n"/>
     </row>
     <row r="836">
-      <c r="F836" s="1" t="n"/>
+      <c r="F836" s="2" t="n"/>
     </row>
     <row r="837">
-      <c r="F837" s="1" t="n"/>
+      <c r="F837" s="2" t="n"/>
     </row>
     <row r="838">
-      <c r="F838" s="1" t="n"/>
+      <c r="F838" s="2" t="n"/>
     </row>
     <row r="839">
-      <c r="F839" s="1" t="n"/>
+      <c r="F839" s="2" t="n"/>
     </row>
     <row r="840">
-      <c r="F840" s="1" t="n"/>
+      <c r="F840" s="2" t="n"/>
     </row>
     <row r="841">
-      <c r="F841" s="1" t="n"/>
+      <c r="F841" s="2" t="n"/>
     </row>
     <row r="842">
-      <c r="F842" s="1" t="n"/>
+      <c r="F842" s="2" t="n"/>
     </row>
     <row r="843">
-      <c r="F843" s="1" t="n"/>
+      <c r="F843" s="2" t="n"/>
     </row>
     <row r="844">
-      <c r="F844" s="1" t="n"/>
+      <c r="F844" s="2" t="n"/>
     </row>
     <row r="845">
-      <c r="F845" s="1" t="n"/>
+      <c r="F845" s="2" t="n"/>
     </row>
     <row r="846">
-      <c r="F846" s="1" t="n"/>
+      <c r="F846" s="2" t="n"/>
     </row>
     <row r="847">
-      <c r="F847" s="1" t="n"/>
+      <c r="F847" s="2" t="n"/>
     </row>
     <row r="848">
-      <c r="F848" s="1" t="n"/>
+      <c r="F848" s="2" t="n"/>
     </row>
     <row r="849">
-      <c r="F849" s="1" t="n"/>
+      <c r="F849" s="2" t="n"/>
     </row>
     <row r="850">
-      <c r="F850" s="1" t="n"/>
+      <c r="F850" s="2" t="n"/>
     </row>
     <row r="851">
-      <c r="F851" s="1" t="n"/>
+      <c r="F851" s="2" t="n"/>
     </row>
     <row r="852">
-      <c r="F852" s="1" t="n"/>
+      <c r="F852" s="2" t="n"/>
     </row>
     <row r="853">
-      <c r="F853" s="1" t="n"/>
+      <c r="F853" s="2" t="n"/>
     </row>
     <row r="854">
-      <c r="F854" s="1" t="n"/>
+      <c r="F854" s="2" t="n"/>
     </row>
     <row r="855">
-      <c r="F855" s="1" t="n"/>
+      <c r="F855" s="2" t="n"/>
     </row>
     <row r="856">
-      <c r="F856" s="1" t="n"/>
+      <c r="F856" s="2" t="n"/>
     </row>
     <row r="857">
-      <c r="F857" s="1" t="n"/>
+      <c r="F857" s="2" t="n"/>
     </row>
     <row r="858">
-      <c r="F858" s="1" t="n"/>
+      <c r="F858" s="2" t="n"/>
     </row>
     <row r="859">
-      <c r="F859" s="1" t="n"/>
+      <c r="F859" s="2" t="n"/>
     </row>
     <row r="860">
-      <c r="F860" s="1" t="n"/>
+      <c r="F860" s="2" t="n"/>
     </row>
     <row r="861">
-      <c r="F861" s="1" t="n"/>
+      <c r="F861" s="2" t="n"/>
     </row>
     <row r="862">
-      <c r="F862" s="1" t="n"/>
+      <c r="F862" s="2" t="n"/>
     </row>
     <row r="863">
-      <c r="F863" s="1" t="n"/>
+      <c r="F863" s="2" t="n"/>
     </row>
     <row r="864">
-      <c r="F864" s="1" t="n"/>
+      <c r="F864" s="2" t="n"/>
     </row>
     <row r="865">
-      <c r="F865" s="1" t="n"/>
+      <c r="F865" s="2" t="n"/>
     </row>
     <row r="866">
-      <c r="F866" s="1" t="n"/>
+      <c r="F866" s="2" t="n"/>
     </row>
     <row r="867">
-      <c r="F867" s="1" t="n"/>
+      <c r="F867" s="2" t="n"/>
     </row>
     <row r="868">
-      <c r="F868" s="1" t="n"/>
+      <c r="F868" s="2" t="n"/>
     </row>
     <row r="869">
-      <c r="F869" s="1" t="n"/>
+      <c r="F869" s="2" t="n"/>
     </row>
     <row r="870">
-      <c r="F870" s="1" t="n"/>
+      <c r="F870" s="2" t="n"/>
     </row>
     <row r="871">
-      <c r="F871" s="1" t="n"/>
+      <c r="F871" s="2" t="n"/>
     </row>
     <row r="872">
-      <c r="F872" s="1" t="n"/>
+      <c r="F872" s="2" t="n"/>
     </row>
     <row r="873">
-      <c r="F873" s="1" t="n"/>
+      <c r="F873" s="2" t="n"/>
     </row>
     <row r="874">
-      <c r="F874" s="1" t="n"/>
+      <c r="F874" s="2" t="n"/>
     </row>
     <row r="875">
-      <c r="F875" s="1" t="n"/>
+      <c r="F875" s="2" t="n"/>
     </row>
     <row r="876">
-      <c r="F876" s="1" t="n"/>
+      <c r="F876" s="2" t="n"/>
     </row>
     <row r="877">
-      <c r="F877" s="1" t="n"/>
+      <c r="F877" s="2" t="n"/>
     </row>
     <row r="878">
-      <c r="F878" s="1" t="n"/>
+      <c r="F878" s="2" t="n"/>
     </row>
     <row r="879">
-      <c r="F879" s="1" t="n"/>
+      <c r="F879" s="2" t="n"/>
     </row>
     <row r="880">
-      <c r="F880" s="1" t="n"/>
+      <c r="F880" s="2" t="n"/>
     </row>
     <row r="881">
-      <c r="F881" s="1" t="n"/>
+      <c r="F881" s="2" t="n"/>
     </row>
     <row r="882">
-      <c r="F882" s="1" t="n"/>
+      <c r="F882" s="2" t="n"/>
     </row>
     <row r="883">
-      <c r="F883" s="1" t="n"/>
+      <c r="F883" s="2" t="n"/>
     </row>
     <row r="884">
-      <c r="F884" s="1" t="n"/>
+      <c r="F884" s="2" t="n"/>
     </row>
     <row r="885">
-      <c r="F885" s="1" t="n"/>
+      <c r="F885" s="2" t="n"/>
     </row>
     <row r="886">
-      <c r="F886" s="1" t="n"/>
+      <c r="F886" s="2" t="n"/>
     </row>
     <row r="887">
-      <c r="F887" s="1" t="n"/>
+      <c r="F887" s="2" t="n"/>
     </row>
     <row r="888">
-      <c r="F888" s="1" t="n"/>
+      <c r="F888" s="2" t="n"/>
     </row>
     <row r="889">
-      <c r="F889" s="1" t="n"/>
+      <c r="F889" s="2" t="n"/>
     </row>
     <row r="890">
-      <c r="F890" s="1" t="n"/>
+      <c r="F890" s="2" t="n"/>
     </row>
     <row r="891">
-      <c r="F891" s="1" t="n"/>
+      <c r="F891" s="2" t="n"/>
     </row>
     <row r="892">
-      <c r="F892" s="1" t="n"/>
+      <c r="F892" s="2" t="n"/>
     </row>
     <row r="893">
-      <c r="F893" s="1" t="n"/>
+      <c r="F893" s="2" t="n"/>
     </row>
     <row r="894">
-      <c r="F894" s="1" t="n"/>
+      <c r="F894" s="2" t="n"/>
     </row>
     <row r="895">
-      <c r="F895" s="1" t="n"/>
+      <c r="F895" s="2" t="n"/>
     </row>
     <row r="896">
-      <c r="F896" s="1" t="n"/>
+      <c r="F896" s="2" t="n"/>
     </row>
     <row r="897">
-      <c r="F897" s="1" t="n"/>
+      <c r="F897" s="2" t="n"/>
     </row>
     <row r="898">
-      <c r="F898" s="1" t="n"/>
+      <c r="F898" s="2" t="n"/>
     </row>
     <row r="899">
-      <c r="F899" s="1" t="n"/>
+      <c r="F899" s="2" t="n"/>
     </row>
     <row r="900">
-      <c r="F900" s="1" t="n"/>
+      <c r="F900" s="2" t="n"/>
     </row>
     <row r="901">
-      <c r="F901" s="1" t="n"/>
+      <c r="F901" s="2" t="n"/>
     </row>
     <row r="902">
-      <c r="F902" s="1" t="n"/>
+      <c r="F902" s="2" t="n"/>
     </row>
     <row r="903">
-      <c r="F903" s="1" t="n"/>
+      <c r="F903" s="2" t="n"/>
     </row>
     <row r="904">
-      <c r="F904" s="1" t="n"/>
+      <c r="F904" s="2" t="n"/>
     </row>
     <row r="905">
-      <c r="F905" s="1" t="n"/>
+      <c r="F905" s="2" t="n"/>
     </row>
     <row r="906">
-      <c r="F906" s="1" t="n"/>
+      <c r="F906" s="2" t="n"/>
     </row>
     <row r="907">
-      <c r="F907" s="1" t="n"/>
+      <c r="F907" s="2" t="n"/>
     </row>
     <row r="908">
-      <c r="F908" s="1" t="n"/>
+      <c r="F908" s="2" t="n"/>
     </row>
     <row r="909">
-      <c r="F909" s="1" t="n"/>
+      <c r="F909" s="2" t="n"/>
     </row>
     <row r="910">
-      <c r="F910" s="1" t="n"/>
+      <c r="F910" s="2" t="n"/>
     </row>
     <row r="911">
-      <c r="F911" s="1" t="n"/>
+      <c r="F911" s="2" t="n"/>
     </row>
     <row r="912">
-      <c r="F912" s="1" t="n"/>
+      <c r="F912" s="2" t="n"/>
     </row>
     <row r="913">
-      <c r="F913" s="1" t="n"/>
+      <c r="F913" s="2" t="n"/>
     </row>
     <row r="914">
-      <c r="F914" s="1" t="n"/>
+      <c r="F914" s="2" t="n"/>
     </row>
     <row r="915">
-      <c r="F915" s="1" t="n"/>
+      <c r="F915" s="2" t="n"/>
     </row>
     <row r="916">
-      <c r="F916" s="1" t="n"/>
+      <c r="F916" s="2" t="n"/>
     </row>
     <row r="917">
-      <c r="F917" s="1" t="n"/>
+      <c r="F917" s="2" t="n"/>
     </row>
     <row r="918">
-      <c r="F918" s="1" t="n"/>
+      <c r="F918" s="2" t="n"/>
     </row>
     <row r="919">
-      <c r="F919" s="1" t="n"/>
+      <c r="F919" s="2" t="n"/>
     </row>
     <row r="920">
-      <c r="F920" s="1" t="n"/>
+      <c r="F920" s="2" t="n"/>
     </row>
     <row r="921">
-      <c r="F921" s="1" t="n"/>
+      <c r="F921" s="2" t="n"/>
     </row>
     <row r="922">
-      <c r="F922" s="1" t="n"/>
+      <c r="F922" s="2" t="n"/>
     </row>
     <row r="923">
-      <c r="F923" s="1" t="n"/>
+      <c r="F923" s="2" t="n"/>
     </row>
     <row r="924">
-      <c r="F924" s="1" t="n"/>
+      <c r="F924" s="2" t="n"/>
     </row>
     <row r="925">
-      <c r="F925" s="1" t="n"/>
+      <c r="F925" s="2" t="n"/>
     </row>
     <row r="926">
-      <c r="F926" s="1" t="n"/>
+      <c r="F926" s="2" t="n"/>
     </row>
     <row r="927">
-      <c r="F927" s="1" t="n"/>
+      <c r="F927" s="2" t="n"/>
     </row>
     <row r="928">
-      <c r="F928" s="1" t="n"/>
+      <c r="F928" s="2" t="n"/>
     </row>
     <row r="929">
-      <c r="F929" s="1" t="n"/>
+      <c r="F929" s="2" t="n"/>
     </row>
     <row r="930">
-      <c r="F930" s="1" t="n"/>
+      <c r="F930" s="2" t="n"/>
     </row>
     <row r="931">
-      <c r="F931" s="1" t="n"/>
+      <c r="F931" s="2" t="n"/>
     </row>
     <row r="932">
-      <c r="F932" s="1" t="n"/>
+      <c r="F932" s="2" t="n"/>
     </row>
     <row r="933">
-      <c r="F933" s="1" t="n"/>
+      <c r="F933" s="2" t="n"/>
     </row>
     <row r="934">
-      <c r="F934" s="1" t="n"/>
+      <c r="F934" s="2" t="n"/>
     </row>
     <row r="935">
-      <c r="F935" s="1" t="n"/>
+      <c r="F935" s="2" t="n"/>
     </row>
     <row r="936">
-      <c r="F936" s="1" t="n"/>
+      <c r="F936" s="2" t="n"/>
     </row>
     <row r="937">
-      <c r="F937" s="1" t="n"/>
+      <c r="F937" s="2" t="n"/>
     </row>
     <row r="938">
-      <c r="F938" s="1" t="n"/>
+      <c r="F938" s="2" t="n"/>
     </row>
     <row r="939">
-      <c r="F939" s="1" t="n"/>
+      <c r="F939" s="2" t="n"/>
     </row>
     <row r="940">
-      <c r="F940" s="1" t="n"/>
+      <c r="F940" s="2" t="n"/>
     </row>
     <row r="941">
-      <c r="F941" s="1" t="n"/>
+      <c r="F941" s="2" t="n"/>
     </row>
     <row r="942">
-      <c r="F942" s="1" t="n"/>
+      <c r="F942" s="2" t="n"/>
     </row>
     <row r="943">
-      <c r="F943" s="1" t="n"/>
+      <c r="F943" s="2" t="n"/>
     </row>
     <row r="944">
-      <c r="F944" s="1" t="n"/>
+      <c r="F944" s="2" t="n"/>
     </row>
     <row r="945">
-      <c r="F945" s="1" t="n"/>
+      <c r="F945" s="2" t="n"/>
     </row>
     <row r="946">
-      <c r="F946" s="1" t="n"/>
+      <c r="F946" s="2" t="n"/>
     </row>
     <row r="947">
-      <c r="F947" s="1" t="n"/>
+      <c r="F947" s="2" t="n"/>
     </row>
     <row r="948">
-      <c r="F948" s="1" t="n"/>
+      <c r="F948" s="2" t="n"/>
     </row>
     <row r="949">
-      <c r="F949" s="1" t="n"/>
+      <c r="F949" s="2" t="n"/>
     </row>
     <row r="950">
-      <c r="F950" s="1" t="n"/>
+      <c r="F950" s="2" t="n"/>
     </row>
     <row r="951">
-      <c r="F951" s="1" t="n"/>
+      <c r="F951" s="2" t="n"/>
     </row>
     <row r="952">
-      <c r="F952" s="1" t="n"/>
+      <c r="F952" s="2" t="n"/>
     </row>
     <row r="953">
-      <c r="F953" s="1" t="n"/>
+      <c r="F953" s="2" t="n"/>
     </row>
     <row r="954">
-      <c r="F954" s="1" t="n"/>
+      <c r="F954" s="2" t="n"/>
     </row>
     <row r="955">
-      <c r="F955" s="1" t="n"/>
+      <c r="F955" s="2" t="n"/>
     </row>
     <row r="956">
-      <c r="F956" s="1" t="n"/>
+      <c r="F956" s="2" t="n"/>
     </row>
     <row r="957">
-      <c r="F957" s="1" t="n"/>
+      <c r="F957" s="2" t="n"/>
     </row>
     <row r="958">
-      <c r="F958" s="1" t="n"/>
+      <c r="F958" s="2" t="n"/>
     </row>
     <row r="959">
-      <c r="F959" s="1" t="n"/>
+      <c r="F959" s="2" t="n"/>
     </row>
     <row r="960">
-      <c r="F960" s="1" t="n"/>
+      <c r="F960" s="2" t="n"/>
     </row>
     <row r="961">
-      <c r="F961" s="1" t="n"/>
+      <c r="F961" s="2" t="n"/>
     </row>
     <row r="962">
-      <c r="F962" s="1" t="n"/>
+      <c r="F962" s="2" t="n"/>
     </row>
     <row r="963">
-      <c r="F963" s="1" t="n"/>
+      <c r="F963" s="2" t="n"/>
     </row>
     <row r="964">
-      <c r="F964" s="1" t="n"/>
+      <c r="F964" s="2" t="n"/>
     </row>
     <row r="965">
-      <c r="F965" s="1" t="n"/>
+      <c r="F965" s="2" t="n"/>
     </row>
     <row r="966">
-      <c r="F966" s="1" t="n"/>
+      <c r="F966" s="2" t="n"/>
     </row>
     <row r="967">
-      <c r="F967" s="1" t="n"/>
+      <c r="F967" s="2" t="n"/>
     </row>
     <row r="968">
-      <c r="F968" s="1" t="n"/>
+      <c r="F968" s="2" t="n"/>
     </row>
     <row r="969">
-      <c r="F969" s="1" t="n"/>
+      <c r="F969" s="2" t="n"/>
     </row>
     <row r="970">
-      <c r="F970" s="1" t="n"/>
+      <c r="F970" s="2" t="n"/>
     </row>
     <row r="971">
-      <c r="F971" s="1" t="n"/>
+      <c r="F971" s="2" t="n"/>
     </row>
     <row r="972">
-      <c r="F972" s="1" t="n"/>
+      <c r="F972" s="2" t="n"/>
     </row>
     <row r="973">
-      <c r="F973" s="1" t="n"/>
+      <c r="F973" s="2" t="n"/>
     </row>
     <row r="974">
-      <c r="F974" s="1" t="n"/>
+      <c r="F974" s="2" t="n"/>
     </row>
     <row r="975">
-      <c r="F975" s="1" t="n"/>
+      <c r="F975" s="2" t="n"/>
     </row>
     <row r="976">
-      <c r="F976" s="1" t="n"/>
+      <c r="F976" s="2" t="n"/>
     </row>
     <row r="977">
-      <c r="F977" s="1" t="n"/>
+      <c r="F977" s="2" t="n"/>
     </row>
     <row r="978">
-      <c r="F978" s="1" t="n"/>
+      <c r="F978" s="2" t="n"/>
     </row>
     <row r="979">
-      <c r="F979" s="1" t="n"/>
+      <c r="F979" s="2" t="n"/>
     </row>
     <row r="980">
-      <c r="F980" s="1" t="n"/>
+      <c r="F980" s="2" t="n"/>
     </row>
     <row r="981">
-      <c r="F981" s="1" t="n"/>
+      <c r="F981" s="2" t="n"/>
     </row>
     <row r="982">
-      <c r="F982" s="1" t="n"/>
+      <c r="F982" s="2" t="n"/>
     </row>
     <row r="983">
-      <c r="F983" s="1" t="n"/>
+      <c r="F983" s="2" t="n"/>
     </row>
     <row r="984">
-      <c r="F984" s="1" t="n"/>
+      <c r="F984" s="2" t="n"/>
     </row>
     <row r="985">
-      <c r="F985" s="1" t="n"/>
+      <c r="F985" s="2" t="n"/>
     </row>
     <row r="986">
-      <c r="F986" s="1" t="n"/>
+      <c r="F986" s="2" t="n"/>
     </row>
     <row r="987">
-      <c r="F987" s="1" t="n"/>
+      <c r="F987" s="2" t="n"/>
     </row>
     <row r="988">
-      <c r="F988" s="1" t="n"/>
+      <c r="F988" s="2" t="n"/>
     </row>
     <row r="989">
-      <c r="F989" s="1" t="n"/>
+      <c r="F989" s="2" t="n"/>
     </row>
     <row r="990">
-      <c r="F990" s="1" t="n"/>
+      <c r="F990" s="2" t="n"/>
     </row>
     <row r="991">
-      <c r="F991" s="1" t="n"/>
+      <c r="F991" s="2" t="n"/>
     </row>
     <row r="992">
-      <c r="F992" s="1" t="n"/>
+      <c r="F992" s="2" t="n"/>
     </row>
     <row r="993">
-      <c r="F993" s="1" t="n"/>
+      <c r="F993" s="2" t="n"/>
     </row>
     <row r="994">
-      <c r="F994" s="1" t="n"/>
+      <c r="F994" s="2" t="n"/>
     </row>
     <row r="995">
-      <c r="F995" s="1" t="n"/>
+      <c r="F995" s="2" t="n"/>
     </row>
     <row r="996">
-      <c r="F996" s="1" t="n"/>
+      <c r="F996" s="2" t="n"/>
     </row>
     <row r="997">
-      <c r="F997" s="1" t="n"/>
+      <c r="F997" s="2" t="n"/>
     </row>
     <row r="998">
-      <c r="F998" s="1" t="n"/>
+      <c r="F998" s="2" t="n"/>
     </row>
     <row r="999">
-      <c r="F999" s="1" t="n"/>
+      <c r="F999" s="2" t="n"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="1" t="n"/>
+      <c r="F1000" s="2" t="n"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="1" t="n"/>
+      <c r="F1001" s="2" t="n"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="1" t="n"/>
+      <c r="F1002" s="2" t="n"/>
     </row>
     <row r="1003">
-      <c r="F1003" s="1" t="n"/>
+      <c r="F1003" s="2" t="n"/>
     </row>
     <row r="1004">
-      <c r="F1004" s="1" t="n"/>
+      <c r="F1004" s="2" t="n"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="1" t="n"/>
+      <c r="F1005" s="2" t="n"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="1" t="n"/>
+      <c r="F1006" s="2" t="n"/>
     </row>
     <row r="1007">
-      <c r="F1007" s="1" t="n"/>
+      <c r="F1007" s="2" t="n"/>
     </row>
     <row r="1008">
-      <c r="F1008" s="1" t="n"/>
+      <c r="F1008" s="2" t="n"/>
     </row>
     <row r="1009">
-      <c r="F1009" s="1" t="n"/>
+      <c r="F1009" s="2" t="n"/>
     </row>
     <row r="1010">
-      <c r="F1010" s="1" t="n"/>
+      <c r="F1010" s="2" t="n"/>
     </row>
     <row r="1011">
-      <c r="F1011" s="1" t="n"/>
+      <c r="F1011" s="2" t="n"/>
     </row>
     <row r="1012">
-      <c r="F1012" s="1" t="n"/>
+      <c r="F1012" s="2" t="n"/>
     </row>
     <row r="1013">
-      <c r="F1013" s="1" t="n"/>
+      <c r="F1013" s="2" t="n"/>
     </row>
     <row r="1014">
-      <c r="F1014" s="1" t="n"/>
+      <c r="F1014" s="2" t="n"/>
     </row>
     <row r="1015">
-      <c r="F1015" s="1" t="n"/>
+      <c r="F1015" s="2" t="n"/>
     </row>
     <row r="1016">
-      <c r="F1016" s="1" t="n"/>
+      <c r="F1016" s="2" t="n"/>
     </row>
     <row r="1017">
-      <c r="F1017" s="1" t="n"/>
+      <c r="F1017" s="2" t="n"/>
     </row>
     <row r="1018">
-      <c r="F1018" s="1" t="n"/>
+      <c r="F1018" s="2" t="n"/>
     </row>
     <row r="1019">
-      <c r="F1019" s="1" t="n"/>
+      <c r="F1019" s="2" t="n"/>
     </row>
     <row r="1020">
-      <c r="F1020" s="1" t="n"/>
+      <c r="F1020" s="2" t="n"/>
     </row>
     <row r="1021">
-      <c r="F1021" s="1" t="n"/>
+      <c r="F1021" s="2" t="n"/>
     </row>
     <row r="1022">
-      <c r="F1022" s="1" t="n"/>
+      <c r="F1022" s="2" t="n"/>
     </row>
     <row r="1023">
-      <c r="F1023" s="1" t="n"/>
+      <c r="F1023" s="2" t="n"/>
     </row>
     <row r="1024">
-      <c r="F1024" s="1" t="n"/>
+      <c r="F1024" s="2" t="n"/>
     </row>
     <row r="1025">
-      <c r="F1025" s="1" t="n"/>
+      <c r="F1025" s="2" t="n"/>
     </row>
     <row r="1026">
-      <c r="F1026" s="1" t="n"/>
+      <c r="F1026" s="2" t="n"/>
     </row>
     <row r="1027">
-      <c r="F1027" s="1" t="n"/>
+      <c r="F1027" s="2" t="n"/>
     </row>
     <row r="1028">
-      <c r="F1028" s="1" t="n"/>
+      <c r="F1028" s="2" t="n"/>
     </row>
     <row r="1029">
-      <c r="F1029" s="1" t="n"/>
+      <c r="F1029" s="2" t="n"/>
     </row>
     <row r="1030">
-      <c r="F1030" s="1" t="n"/>
+      <c r="F1030" s="2" t="n"/>
     </row>
     <row r="1031">
-      <c r="F1031" s="1" t="n"/>
+      <c r="F1031" s="2" t="n"/>
     </row>
     <row r="1032">
-      <c r="F1032" s="1" t="n"/>
+      <c r="F1032" s="2" t="n"/>
     </row>
     <row r="1033">
-      <c r="F1033" s="1" t="n"/>
+      <c r="F1033" s="2" t="n"/>
     </row>
     <row r="1034">
-      <c r="F1034" s="1" t="n"/>
+      <c r="F1034" s="2" t="n"/>
     </row>
     <row r="1035">
-      <c r="F1035" s="1" t="n"/>
+      <c r="F1035" s="2" t="n"/>
     </row>
     <row r="1036">
-      <c r="F1036" s="1" t="n"/>
+      <c r="F1036" s="2" t="n"/>
     </row>
     <row r="1037">
-      <c r="F1037" s="1" t="n"/>
+      <c r="F1037" s="2" t="n"/>
     </row>
     <row r="1038">
-      <c r="F1038" s="1" t="n"/>
+      <c r="F1038" s="2" t="n"/>
     </row>
     <row r="1039">
-      <c r="F1039" s="1" t="n"/>
+      <c r="F1039" s="2" t="n"/>
     </row>
     <row r="1040">
-      <c r="F1040" s="1" t="n"/>
+      <c r="F1040" s="2" t="n"/>
     </row>
     <row r="1041">
-      <c r="F1041" s="1" t="n"/>
+      <c r="F1041" s="2" t="n"/>
     </row>
     <row r="1042">
-      <c r="F1042" s="1" t="n"/>
+      <c r="F1042" s="2" t="n"/>
     </row>
     <row r="1043">
-      <c r="F1043" s="1" t="n"/>
+      <c r="F1043" s="2" t="n"/>
     </row>
     <row r="1044">
-      <c r="F1044" s="1" t="n"/>
+      <c r="F1044" s="2" t="n"/>
     </row>
     <row r="1045">
-      <c r="F1045" s="1" t="n"/>
+      <c r="F1045" s="2" t="n"/>
     </row>
     <row r="1046">
-      <c r="F1046" s="1" t="n"/>
+      <c r="F1046" s="2" t="n"/>
     </row>
     <row r="1047">
-      <c r="F1047" s="1" t="n"/>
+      <c r="F1047" s="2" t="n"/>
     </row>
     <row r="1048">
-      <c r="F1048" s="1" t="n"/>
+      <c r="F1048" s="2" t="n"/>
     </row>
     <row r="1049">
-      <c r="F1049" s="1" t="n"/>
+      <c r="F1049" s="2" t="n"/>
     </row>
     <row r="1050">
-      <c r="F1050" s="1" t="n"/>
+      <c r="F1050" s="2" t="n"/>
     </row>
     <row r="1051">
-      <c r="F1051" s="1" t="n"/>
+      <c r="F1051" s="2" t="n"/>
     </row>
     <row r="1052">
-      <c r="F1052" s="1" t="n"/>
+      <c r="F1052" s="2" t="n"/>
     </row>
     <row r="1053">
-      <c r="F1053" s="1" t="n"/>
+      <c r="F1053" s="2" t="n"/>
     </row>
     <row r="1054">
-      <c r="F1054" s="1" t="n"/>
+      <c r="F1054" s="2" t="n"/>
     </row>
     <row r="1055">
-      <c r="F1055" s="1" t="n"/>
+      <c r="F1055" s="2" t="n"/>
     </row>
     <row r="1056">
-      <c r="F1056" s="1" t="n"/>
+      <c r="F1056" s="2" t="n"/>
     </row>
     <row r="1057">
-      <c r="F1057" s="1" t="n"/>
+      <c r="F1057" s="2" t="n"/>
     </row>
     <row r="1058">
-      <c r="F1058" s="1" t="n"/>
+      <c r="F1058" s="2" t="n"/>
     </row>
     <row r="1059">
-      <c r="F1059" s="1" t="n"/>
+      <c r="F1059" s="2" t="n"/>
     </row>
     <row r="1060">
-      <c r="F1060" s="1" t="n"/>
+      <c r="F1060" s="2" t="n"/>
     </row>
     <row r="1061">
-      <c r="F1061" s="1" t="n"/>
+      <c r="F1061" s="2" t="n"/>
     </row>
     <row r="1062">
-      <c r="F1062" s="1" t="n"/>
+      <c r="F1062" s="2" t="n"/>
     </row>
     <row r="1063">
-      <c r="F1063" s="1" t="n"/>
+      <c r="F1063" s="2" t="n"/>
     </row>
     <row r="1064">
-      <c r="F1064" s="1" t="n"/>
+      <c r="F1064" s="2" t="n"/>
     </row>
     <row r="1065">
-      <c r="F1065" s="1" t="n"/>
+      <c r="F1065" s="2" t="n"/>
     </row>
     <row r="1066">
-      <c r="F1066" s="1" t="n"/>
+      <c r="F1066" s="2" t="n"/>
     </row>
     <row r="1067">
-      <c r="F1067" s="1" t="n"/>
+      <c r="F1067" s="2" t="n"/>
     </row>
     <row r="1068">
-      <c r="F1068" s="1" t="n"/>
+      <c r="F1068" s="2" t="n"/>
     </row>
     <row r="1069">
-      <c r="F1069" s="1" t="n"/>
+      <c r="F1069" s="2" t="n"/>
     </row>
     <row r="1070">
-      <c r="F1070" s="1" t="n"/>
+      <c r="F1070" s="2" t="n"/>
     </row>
     <row r="1071">
-      <c r="F1071" s="1" t="n"/>
+      <c r="F1071" s="2" t="n"/>
     </row>
     <row r="1072">
-      <c r="F1072" s="1" t="n"/>
+      <c r="F1072" s="2" t="n"/>
     </row>
     <row r="1073">
-      <c r="F1073" s="1" t="n"/>
+      <c r="F1073" s="2" t="n"/>
     </row>
     <row r="1074">
-      <c r="F1074" s="1" t="n"/>
+      <c r="F1074" s="2" t="n"/>
     </row>
     <row r="1075">
-      <c r="F1075" s="1" t="n"/>
+      <c r="F1075" s="2" t="n"/>
     </row>
     <row r="1076">
-      <c r="F1076" s="1" t="n"/>
+      <c r="F1076" s="2" t="n"/>
     </row>
     <row r="1077">
-      <c r="F1077" s="1" t="n"/>
+      <c r="F1077" s="2" t="n"/>
     </row>
     <row r="1078">
-      <c r="F1078" s="1" t="n"/>
+      <c r="F1078" s="2" t="n"/>
     </row>
     <row r="1079">
-      <c r="F1079" s="1" t="n"/>
+      <c r="F1079" s="2" t="n"/>
     </row>
     <row r="1080">
-      <c r="F1080" s="1" t="n"/>
+      <c r="F1080" s="2" t="n"/>
     </row>
     <row r="1081">
-      <c r="F1081" s="1" t="n"/>
+      <c r="F1081" s="2" t="n"/>
     </row>
     <row r="1082">
-      <c r="F1082" s="1" t="n"/>
+      <c r="F1082" s="2" t="n"/>
     </row>
     <row r="1083">
-      <c r="F1083" s="1" t="n"/>
+      <c r="F1083" s="2" t="n"/>
     </row>
     <row r="1084">
-      <c r="F1084" s="1" t="n"/>
+      <c r="F1084" s="2" t="n"/>
     </row>
     <row r="1085">
-      <c r="F1085" s="1" t="n"/>
+      <c r="F1085" s="2" t="n"/>
     </row>
     <row r="1086">
-      <c r="F1086" s="1" t="n"/>
+      <c r="F1086" s="2" t="n"/>
     </row>
     <row r="1087">
-      <c r="F1087" s="1" t="n"/>
+      <c r="F1087" s="2" t="n"/>
     </row>
     <row r="1088">
-      <c r="F1088" s="1" t="n"/>
+      <c r="F1088" s="2" t="n"/>
     </row>
     <row r="1089">
-      <c r="F1089" s="1" t="n"/>
+      <c r="F1089" s="2" t="n"/>
     </row>
     <row r="1090">
-      <c r="F1090" s="1" t="n"/>
+      <c r="F1090" s="2" t="n"/>
     </row>
     <row r="1091">
-      <c r="F1091" s="1" t="n"/>
+      <c r="F1091" s="2" t="n"/>
     </row>
     <row r="1092">
-      <c r="F1092" s="1" t="n"/>
+      <c r="F1092" s="2" t="n"/>
     </row>
     <row r="1093">
-      <c r="F1093" s="1" t="n"/>
+      <c r="F1093" s="2" t="n"/>
     </row>
     <row r="1094">
-      <c r="F1094" s="1" t="n"/>
+      <c r="F1094" s="2" t="n"/>
     </row>
     <row r="1095">
-      <c r="F1095" s="1" t="n"/>
+      <c r="F1095" s="2" t="n"/>
     </row>
     <row r="1096">
-      <c r="F1096" s="1" t="n"/>
+      <c r="F1096" s="2" t="n"/>
     </row>
     <row r="1097">
-      <c r="F1097" s="1" t="n"/>
+      <c r="F1097" s="2" t="n"/>
     </row>
     <row r="1098">
-      <c r="F1098" s="1" t="n"/>
+      <c r="F1098" s="2" t="n"/>
     </row>
     <row r="1099">
-      <c r="F1099" s="1" t="n"/>
+      <c r="F1099" s="2" t="n"/>
     </row>
     <row r="1100">
-      <c r="F1100" s="1" t="n"/>
+      <c r="F1100" s="2" t="n"/>
     </row>
     <row r="1101">
-      <c r="F1101" s="1" t="n"/>
+      <c r="F1101" s="2" t="n"/>
     </row>
     <row r="1102">
-      <c r="F1102" s="1" t="n"/>
+      <c r="F1102" s="2" t="n"/>
     </row>
     <row r="1103">
-      <c r="F1103" s="1" t="n"/>
+      <c r="F1103" s="2" t="n"/>
     </row>
     <row r="1104">
-      <c r="F1104" s="1" t="n"/>
+      <c r="F1104" s="2" t="n"/>
     </row>
     <row r="1105">
-      <c r="F1105" s="1" t="n"/>
+      <c r="F1105" s="2" t="n"/>
     </row>
     <row r="1106">
-      <c r="F1106" s="1" t="n"/>
+      <c r="F1106" s="2" t="n"/>
     </row>
     <row r="1107">
-      <c r="F1107" s="1" t="n"/>
+      <c r="F1107" s="2" t="n"/>
     </row>
     <row r="1108">
-      <c r="F1108" s="1" t="n"/>
+      <c r="F1108" s="2" t="n"/>
     </row>
     <row r="1109">
-      <c r="F1109" s="1" t="n"/>
+      <c r="F1109" s="2" t="n"/>
     </row>
     <row r="1110">
-      <c r="F1110" s="1" t="n"/>
+      <c r="F1110" s="2" t="n"/>
     </row>
     <row r="1111">
-      <c r="F1111" s="1" t="n"/>
+      <c r="F1111" s="2" t="n"/>
     </row>
     <row r="1112">
-      <c r="F1112" s="1" t="n"/>
+      <c r="F1112" s="2" t="n"/>
     </row>
     <row r="1113">
-      <c r="F1113" s="1" t="n"/>
+      <c r="F1113" s="2" t="n"/>
     </row>
     <row r="1114">
-      <c r="F1114" s="1" t="n"/>
+      <c r="F1114" s="2" t="n"/>
     </row>
     <row r="1115">
-      <c r="F1115" s="1" t="n"/>
+      <c r="F1115" s="2" t="n"/>
     </row>
     <row r="1116">
-      <c r="F1116" s="1" t="n"/>
+      <c r="F1116" s="2" t="n"/>
     </row>
     <row r="1117">
-      <c r="F1117" s="1" t="n"/>
+      <c r="F1117" s="2" t="n"/>
     </row>
     <row r="1118">
-      <c r="F1118" s="1" t="n"/>
+      <c r="F1118" s="2" t="n"/>
     </row>
     <row r="1119">
-      <c r="F1119" s="1" t="n"/>
+      <c r="F1119" s="2" t="n"/>
     </row>
     <row r="1120">
-      <c r="F1120" s="1" t="n"/>
+      <c r="F1120" s="2" t="n"/>
     </row>
     <row r="1121">
-      <c r="F1121" s="1" t="n"/>
+      <c r="F1121" s="2" t="n"/>
     </row>
     <row r="1122">
-      <c r="F1122" s="1" t="n"/>
+      <c r="F1122" s="2" t="n"/>
     </row>
     <row r="1123">
-      <c r="F1123" s="1" t="n"/>
+      <c r="F1123" s="2" t="n"/>
     </row>
     <row r="1124">
-      <c r="F1124" s="1" t="n"/>
+      <c r="F1124" s="2" t="n"/>
     </row>
     <row r="1125">
-      <c r="F1125" s="1" t="n"/>
+      <c r="F1125" s="2" t="n"/>
     </row>
     <row r="1126">
-      <c r="F1126" s="1" t="n"/>
+      <c r="F1126" s="2" t="n"/>
     </row>
     <row r="1127">
-      <c r="F1127" s="1" t="n"/>
+      <c r="F1127" s="2" t="n"/>
     </row>
     <row r="1128">
-      <c r="F1128" s="1" t="n"/>
+      <c r="F1128" s="2" t="n"/>
     </row>
     <row r="1129">
-      <c r="F1129" s="1" t="n"/>
+      <c r="F1129" s="2" t="n"/>
     </row>
     <row r="1130">
-      <c r="F1130" s="1" t="n"/>
+      <c r="F1130" s="2" t="n"/>
     </row>
     <row r="1131">
-      <c r="F1131" s="1" t="n"/>
+      <c r="F1131" s="2" t="n"/>
     </row>
     <row r="1132">
-      <c r="F1132" s="1" t="n"/>
+      <c r="F1132" s="2" t="n"/>
     </row>
     <row r="1133">
-      <c r="F1133" s="1" t="n"/>
+      <c r="F1133" s="2" t="n"/>
     </row>
     <row r="1134">
-      <c r="F1134" s="1" t="n"/>
+      <c r="F1134" s="2" t="n"/>
     </row>
     <row r="1135">
-      <c r="F1135" s="1" t="n"/>
+      <c r="F1135" s="2" t="n"/>
     </row>
     <row r="1136">
-      <c r="F1136" s="1" t="n"/>
+      <c r="F1136" s="2" t="n"/>
     </row>
     <row r="1137">
-      <c r="F1137" s="1" t="n"/>
+      <c r="F1137" s="2" t="n"/>
     </row>
     <row r="1138">
-      <c r="F1138" s="1" t="n"/>
+      <c r="F1138" s="2" t="n"/>
     </row>
     <row r="1139">
-      <c r="F1139" s="1" t="n"/>
+      <c r="F1139" s="2" t="n"/>
     </row>
     <row r="1140">
-      <c r="F1140" s="1" t="n"/>
+      <c r="F1140" s="2" t="n"/>
     </row>
     <row r="1141">
-      <c r="F1141" s="1" t="n"/>
+      <c r="F1141" s="2" t="n"/>
     </row>
     <row r="1142">
-      <c r="F1142" s="1" t="n"/>
+      <c r="F1142" s="2" t="n"/>
     </row>
     <row r="1143">
-      <c r="F1143" s="1" t="n"/>
+      <c r="F1143" s="2" t="n"/>
     </row>
     <row r="1144">
-      <c r="F1144" s="1" t="n"/>
+      <c r="F1144" s="2" t="n"/>
     </row>
     <row r="1145">
-      <c r="F1145" s="1" t="n"/>
+      <c r="F1145" s="2" t="n"/>
     </row>
     <row r="1146">
-      <c r="F1146" s="1" t="n"/>
+      <c r="F1146" s="2" t="n"/>
     </row>
     <row r="1147">
-      <c r="F1147" s="1" t="n"/>
+      <c r="F1147" s="2" t="n"/>
     </row>
     <row r="1148">
-      <c r="F1148" s="1" t="n"/>
+      <c r="F1148" s="2" t="n"/>
     </row>
     <row r="1149">
-      <c r="F1149" s="1" t="n"/>
+      <c r="F1149" s="2" t="n"/>
     </row>
     <row r="1150">
-      <c r="F1150" s="1" t="n"/>
+      <c r="F1150" s="2" t="n"/>
     </row>
     <row r="1151">
-      <c r="F1151" s="1" t="n"/>
+      <c r="F1151" s="2" t="n"/>
     </row>
     <row r="1152">
-      <c r="F1152" s="1" t="n"/>
+      <c r="F1152" s="2" t="n"/>
     </row>
     <row r="1153">
-      <c r="F1153" s="1" t="n"/>
+      <c r="F1153" s="2" t="n"/>
     </row>
     <row r="1154">
-      <c r="F1154" s="1" t="n"/>
+      <c r="F1154" s="2" t="n"/>
     </row>
     <row r="1155">
-      <c r="F1155" s="1" t="n"/>
+      <c r="F1155" s="2" t="n"/>
     </row>
     <row r="1156">
-      <c r="F1156" s="1" t="n"/>
+      <c r="F1156" s="2" t="n"/>
     </row>
     <row r="1157">
-      <c r="F1157" s="1" t="n"/>
+      <c r="F1157" s="2" t="n"/>
     </row>
     <row r="1158">
-      <c r="F1158" s="1" t="n"/>
+      <c r="F1158" s="2" t="n"/>
     </row>
     <row r="1159">
-      <c r="F1159" s="1" t="n"/>
+      <c r="F1159" s="2" t="n"/>
     </row>
     <row r="1160">
-      <c r="F1160" s="1" t="n"/>
+      <c r="F1160" s="2" t="n"/>
     </row>
     <row r="1161">
-      <c r="F1161" s="1" t="n"/>
+      <c r="F1161" s="2" t="n"/>
     </row>
     <row r="1162">
-      <c r="F1162" s="1" t="n"/>
+      <c r="F1162" s="2" t="n"/>
     </row>
     <row r="1163">
-      <c r="F1163" s="1" t="n"/>
+      <c r="F1163" s="2" t="n"/>
     </row>
     <row r="1164">
-      <c r="F1164" s="1" t="n"/>
+      <c r="F1164" s="2" t="n"/>
     </row>
     <row r="1165">
-      <c r="F1165" s="1" t="n"/>
+      <c r="F1165" s="2" t="n"/>
     </row>
     <row r="1166">
-      <c r="F1166" s="1" t="n"/>
+      <c r="F1166" s="2" t="n"/>
     </row>
     <row r="1167">
-      <c r="F1167" s="1" t="n"/>
+      <c r="F1167" s="2" t="n"/>
     </row>
     <row r="1168">
-      <c r="F1168" s="1" t="n"/>
+      <c r="F1168" s="2" t="n"/>
     </row>
     <row r="1169">
-      <c r="F1169" s="1" t="n"/>
+      <c r="F1169" s="2" t="n"/>
     </row>
     <row r="1170">
-      <c r="F1170" s="1" t="n"/>
+      <c r="F1170" s="2" t="n"/>
     </row>
     <row r="1171">
-      <c r="F1171" s="1" t="n"/>
+      <c r="F1171" s="2" t="n"/>
     </row>
     <row r="1172">
-      <c r="F1172" s="1" t="n"/>
+      <c r="F1172" s="2" t="n"/>
     </row>
     <row r="1173">
-      <c r="F1173" s="1" t="n"/>
+      <c r="F1173" s="2" t="n"/>
     </row>
     <row r="1174">
-      <c r="F1174" s="1" t="n"/>
+      <c r="F1174" s="2" t="n"/>
     </row>
     <row r="1175">
-      <c r="F1175" s="1" t="n"/>
+      <c r="F1175" s="2" t="n"/>
     </row>
     <row r="1176">
-      <c r="F1176" s="1" t="n"/>
+      <c r="F1176" s="2" t="n"/>
     </row>
     <row r="1177">
-      <c r="F1177" s="1" t="n"/>
+      <c r="F1177" s="2" t="n"/>
     </row>
     <row r="1178">
-      <c r="F1178" s="1" t="n"/>
+      <c r="F1178" s="2" t="n"/>
     </row>
     <row r="1179">
-      <c r="F1179" s="1" t="n"/>
+      <c r="F1179" s="2" t="n"/>
     </row>
     <row r="1180">
-      <c r="F1180" s="1" t="n"/>
+      <c r="F1180" s="2" t="n"/>
     </row>
     <row r="1181">
-      <c r="F1181" s="1" t="n"/>
+      <c r="F1181" s="2" t="n"/>
     </row>
     <row r="1182">
-      <c r="F1182" s="1" t="n"/>
+      <c r="F1182" s="2" t="n"/>
     </row>
     <row r="1183">
-      <c r="F1183" s="1" t="n"/>
+      <c r="F1183" s="2" t="n"/>
     </row>
     <row r="1184">
-      <c r="F1184" s="1" t="n"/>
+      <c r="F1184" s="2" t="n"/>
     </row>
     <row r="1185">
-      <c r="F1185" s="1" t="n"/>
+      <c r="F1185" s="2" t="n"/>
     </row>
     <row r="1186">
-      <c r="F1186" s="1" t="n"/>
+      <c r="F1186" s="2" t="n"/>
     </row>
     <row r="1187">
-      <c r="F1187" s="1" t="n"/>
+      <c r="F1187" s="2" t="n"/>
     </row>
     <row r="1188">
-      <c r="F1188" s="1" t="n"/>
+      <c r="F1188" s="2" t="n"/>
     </row>
     <row r="1189">
-      <c r="F1189" s="1" t="n"/>
+      <c r="F1189" s="2" t="n"/>
     </row>
     <row r="1190">
-      <c r="F1190" s="1" t="n"/>
+      <c r="F1190" s="2" t="n"/>
     </row>
     <row r="1191">
-      <c r="F1191" s="1" t="n"/>
+      <c r="F1191" s="2" t="n"/>
     </row>
     <row r="1192">
-      <c r="F1192" s="1" t="n"/>
+      <c r="F1192" s="2" t="n"/>
     </row>
     <row r="1193">
-      <c r="F1193" s="1" t="n"/>
+      <c r="F1193" s="2" t="n"/>
     </row>
     <row r="1194">
-      <c r="F1194" s="1" t="n"/>
+      <c r="F1194" s="2" t="n"/>
     </row>
     <row r="1195">
-      <c r="F1195" s="1" t="n"/>
+      <c r="F1195" s="2" t="n"/>
     </row>
     <row r="1196">
-      <c r="F1196" s="1" t="n"/>
+      <c r="F1196" s="2" t="n"/>
     </row>
     <row r="1197">
-      <c r="F1197" s="1" t="n"/>
+      <c r="F1197" s="2" t="n"/>
     </row>
     <row r="1198">
-      <c r="F1198" s="1" t="n"/>
+      <c r="F1198" s="2" t="n"/>
     </row>
     <row r="1199">
-      <c r="F1199" s="1" t="n"/>
+      <c r="F1199" s="2" t="n"/>
     </row>
     <row r="1200">
-      <c r="F1200" s="1" t="n"/>
+      <c r="F1200" s="2" t="n"/>
     </row>
     <row r="1201">
-      <c r="F1201" s="1" t="n"/>
+      <c r="F1201" s="2" t="n"/>
     </row>
     <row r="1202">
-      <c r="F1202" s="1" t="n"/>
+      <c r="F1202" s="2" t="n"/>
     </row>
     <row r="1203">
-      <c r="F1203" s="1" t="n"/>
+      <c r="F1203" s="2" t="n"/>
     </row>
     <row r="1204">
-      <c r="F1204" s="1" t="n"/>
+      <c r="F1204" s="2" t="n"/>
     </row>
     <row r="1205">
-      <c r="F1205" s="1" t="n"/>
+      <c r="F1205" s="2" t="n"/>
     </row>
     <row r="1206">
-      <c r="F1206" s="1" t="n"/>
+      <c r="F1206" s="2" t="n"/>
     </row>
     <row r="1207">
-      <c r="F1207" s="1" t="n"/>
+      <c r="F1207" s="2" t="n"/>
     </row>
     <row r="1208">
-      <c r="F1208" s="1" t="n"/>
+      <c r="F1208" s="2" t="n"/>
     </row>
     <row r="1209">
-      <c r="F1209" s="1" t="n"/>
+      <c r="F1209" s="2" t="n"/>
     </row>
     <row r="1210">
-      <c r="F1210" s="1" t="n"/>
+      <c r="F1210" s="2" t="n"/>
     </row>
     <row r="1211">
-      <c r="F1211" s="1" t="n"/>
+      <c r="F1211" s="2" t="n"/>
     </row>
     <row r="1212">
-      <c r="F1212" s="1" t="n"/>
+      <c r="F1212" s="2" t="n"/>
     </row>
     <row r="1213">
-      <c r="F1213" s="1" t="n"/>
+      <c r="F1213" s="2" t="n"/>
     </row>
     <row r="1214">
-      <c r="F1214" s="1" t="n"/>
+      <c r="F1214" s="2" t="n"/>
     </row>
     <row r="1215">
-      <c r="F1215" s="1" t="n"/>
+      <c r="F1215" s="2" t="n"/>
     </row>
     <row r="1216">
-      <c r="F1216" s="1" t="n"/>
+      <c r="F1216" s="2" t="n"/>
     </row>
     <row r="1217">
-      <c r="F1217" s="1" t="n"/>
+      <c r="F1217" s="2" t="n"/>
     </row>
     <row r="1218">
-      <c r="F1218" s="1" t="n"/>
+      <c r="F1218" s="2" t="n"/>
     </row>
     <row r="1219">
-      <c r="F1219" s="1" t="n"/>
+      <c r="F1219" s="2" t="n"/>
     </row>
     <row r="1220">
-      <c r="F1220" s="1" t="n"/>
+      <c r="F1220" s="2" t="n"/>
     </row>
     <row r="1221">
-      <c r="F1221" s="1" t="n"/>
+      <c r="F1221" s="2" t="n"/>
     </row>
     <row r="1222">
-      <c r="F1222" s="1" t="n"/>
+      <c r="F1222" s="2" t="n"/>
     </row>
     <row r="1223">
-      <c r="F1223" s="1" t="n"/>
+      <c r="F1223" s="2" t="n"/>
     </row>
     <row r="1224">
-      <c r="F1224" s="1" t="n"/>
+      <c r="F1224" s="2" t="n"/>
     </row>
     <row r="1225">
-      <c r="F1225" s="1" t="n"/>
+      <c r="F1225" s="2" t="n"/>
     </row>
     <row r="1226">
-      <c r="F1226" s="1" t="n"/>
+      <c r="F1226" s="2" t="n"/>
     </row>
     <row r="1227">
-      <c r="F1227" s="1" t="n"/>
+      <c r="F1227" s="2" t="n"/>
     </row>
     <row r="1228">
-      <c r="F1228" s="1" t="n"/>
+      <c r="F1228" s="2" t="n"/>
     </row>
     <row r="1229">
-      <c r="F1229" s="1" t="n"/>
+      <c r="F1229" s="2" t="n"/>
     </row>
     <row r="1230">
-      <c r="F1230" s="1" t="n"/>
+      <c r="F1230" s="2" t="n"/>
     </row>
     <row r="1231">
-      <c r="F1231" s="1" t="n"/>
+      <c r="F1231" s="2" t="n"/>
     </row>
     <row r="1232">
-      <c r="F1232" s="1" t="n"/>
+      <c r="F1232" s="2" t="n"/>
     </row>
     <row r="1233">
-      <c r="F1233" s="1" t="n"/>
+      <c r="F1233" s="2" t="n"/>
     </row>
     <row r="1234">
-      <c r="F1234" s="1" t="n"/>
+      <c r="F1234" s="2" t="n"/>
     </row>
     <row r="1235">
-      <c r="F1235" s="1" t="n"/>
+      <c r="F1235" s="2" t="n"/>
     </row>
     <row r="1236">
-      <c r="F1236" s="1" t="n"/>
+      <c r="F1236" s="2" t="n"/>
     </row>
     <row r="1237">
-      <c r="F1237" s="1" t="n"/>
+      <c r="F1237" s="2" t="n"/>
     </row>
     <row r="1238">
-      <c r="F1238" s="1" t="n"/>
+      <c r="F1238" s="2" t="n"/>
     </row>
     <row r="1239">
-      <c r="F1239" s="1" t="n"/>
+      <c r="F1239" s="2" t="n"/>
     </row>
     <row r="1240">
-      <c r="F1240" s="1" t="n"/>
+      <c r="F1240" s="2" t="n"/>
     </row>
     <row r="1241">
-      <c r="F1241" s="1" t="n"/>
+      <c r="F1241" s="2" t="n"/>
     </row>
     <row r="1242">
-      <c r="F1242" s="1" t="n"/>
+      <c r="F1242" s="2" t="n"/>
     </row>
     <row r="1243">
-      <c r="F1243" s="1" t="n"/>
+      <c r="F1243" s="2" t="n"/>
     </row>
     <row r="1244">
-      <c r="F1244" s="1" t="n"/>
+      <c r="F1244" s="2" t="n"/>
     </row>
     <row r="1245">
-      <c r="F1245" s="1" t="n"/>
+      <c r="F1245" s="2" t="n"/>
     </row>
     <row r="1246">
-      <c r="F1246" s="1" t="n"/>
+      <c r="F1246" s="2" t="n"/>
     </row>
     <row r="1247">
-      <c r="F1247" s="1" t="n"/>
+      <c r="F1247" s="2" t="n"/>
     </row>
     <row r="1248">
-      <c r="F1248" s="1" t="n"/>
+      <c r="F1248" s="2" t="n"/>
     </row>
     <row r="1249">
-      <c r="F1249" s="1" t="n"/>
+      <c r="F1249" s="2" t="n"/>
     </row>
     <row r="1250">
-      <c r="F1250" s="1" t="n"/>
+      <c r="F1250" s="2" t="n"/>
     </row>
     <row r="1251">
-      <c r="F1251" s="1" t="n"/>
+      <c r="F1251" s="2" t="n"/>
     </row>
     <row r="1252">
-      <c r="F1252" s="1" t="n"/>
+      <c r="F1252" s="2" t="n"/>
     </row>
     <row r="1253">
-      <c r="F1253" s="1" t="n"/>
+      <c r="F1253" s="2" t="n"/>
     </row>
     <row r="1254">
-      <c r="F1254" s="1" t="n"/>
+      <c r="F1254" s="2" t="n"/>
     </row>
     <row r="1255">
-      <c r="F1255" s="1" t="n"/>
+      <c r="F1255" s="2" t="n"/>
     </row>
     <row r="1256">
-      <c r="F1256" s="1" t="n"/>
+      <c r="F1256" s="2" t="n"/>
     </row>
     <row r="1257">
-      <c r="F1257" s="1" t="n"/>
+      <c r="F1257" s="2" t="n"/>
     </row>
     <row r="1258">
-      <c r="F1258" s="1" t="n"/>
+      <c r="F1258" s="2" t="n"/>
     </row>
     <row r="1259">
-      <c r="F1259" s="1" t="n"/>
+      <c r="F1259" s="2" t="n"/>
     </row>
     <row r="1260">
-      <c r="F1260" s="1" t="n"/>
+      <c r="F1260" s="2" t="n"/>
     </row>
     <row r="1261">
-      <c r="F1261" s="1" t="n"/>
+      <c r="F1261" s="2" t="n"/>
     </row>
     <row r="1262">
-      <c r="F1262" s="1" t="n"/>
+      <c r="F1262" s="2" t="n"/>
     </row>
     <row r="1263">
-      <c r="F1263" s="1" t="n"/>
+      <c r="F1263" s="2" t="n"/>
     </row>
     <row r="1264">
-      <c r="F1264" s="1" t="n"/>
+      <c r="F1264" s="2" t="n"/>
     </row>
     <row r="1265">
-      <c r="F1265" s="1" t="n"/>
+      <c r="F1265" s="2" t="n"/>
     </row>
     <row r="1266">
-      <c r="F1266" s="1" t="n"/>
+      <c r="F1266" s="2" t="n"/>
     </row>
     <row r="1267">
-      <c r="F1267" s="1" t="n"/>
+      <c r="F1267" s="2" t="n"/>
     </row>
     <row r="1268">
-      <c r="F1268" s="1" t="n"/>
+      <c r="F1268" s="2" t="n"/>
     </row>
     <row r="1269">
-      <c r="F1269" s="1" t="n"/>
+      <c r="F1269" s="2" t="n"/>
     </row>
     <row r="1270">
-      <c r="F1270" s="1" t="n"/>
+      <c r="F1270" s="2" t="n"/>
     </row>
     <row r="1271">
-      <c r="F1271" s="1" t="n"/>
+      <c r="F1271" s="2" t="n"/>
     </row>
     <row r="1272">
-      <c r="F1272" s="1" t="n"/>
+      <c r="F1272" s="2" t="n"/>
     </row>
     <row r="1273">
-      <c r="F1273" s="1" t="n"/>
+      <c r="F1273" s="2" t="n"/>
     </row>
     <row r="1274">
-      <c r="F1274" s="1" t="n"/>
+      <c r="F1274" s="2" t="n"/>
     </row>
     <row r="1275">
-      <c r="F1275" s="1" t="n"/>
+      <c r="F1275" s="2" t="n"/>
     </row>
     <row r="1276">
-      <c r="F1276" s="1" t="n"/>
+      <c r="F1276" s="2" t="n"/>
     </row>
     <row r="1277">
-      <c r="F1277" s="1" t="n"/>
+      <c r="F1277" s="2" t="n"/>
     </row>
     <row r="1278">
-      <c r="F1278" s="1" t="n"/>
+      <c r="F1278" s="2" t="n"/>
     </row>
     <row r="1279">
-      <c r="F1279" s="1" t="n"/>
+      <c r="F1279" s="2" t="n"/>
     </row>
     <row r="1280">
-      <c r="F1280" s="1" t="n"/>
+      <c r="F1280" s="2" t="n"/>
     </row>
     <row r="1281">
-      <c r="F1281" s="1" t="n"/>
+      <c r="F1281" s="2" t="n"/>
     </row>
     <row r="1282">
-      <c r="F1282" s="1" t="n"/>
+      <c r="F1282" s="2" t="n"/>
     </row>
     <row r="1283">
-      <c r="F1283" s="1" t="n"/>
+      <c r="F1283" s="2" t="n"/>
     </row>
     <row r="1284">
-      <c r="F1284" s="1" t="n"/>
+      <c r="F1284" s="2" t="n"/>
     </row>
     <row r="1285">
-      <c r="F1285" s="1" t="n"/>
+      <c r="F1285" s="2" t="n"/>
     </row>
     <row r="1286">
-      <c r="F1286" s="1" t="n"/>
+      <c r="F1286" s="2" t="n"/>
     </row>
     <row r="1287">
-      <c r="F1287" s="1" t="n"/>
+      <c r="F1287" s="2" t="n"/>
     </row>
     <row r="1288">
-      <c r="F1288" s="1" t="n"/>
+      <c r="F1288" s="2" t="n"/>
     </row>
     <row r="1289">
-      <c r="F1289" s="1" t="n"/>
+      <c r="F1289" s="2" t="n"/>
     </row>
     <row r="1290">
-      <c r="F1290" s="1" t="n"/>
+      <c r="F1290" s="2" t="n"/>
     </row>
     <row r="1291">
-      <c r="F1291" s="1" t="n"/>
+      <c r="F1291" s="2" t="n"/>
     </row>
     <row r="1292">
-      <c r="F1292" s="1" t="n"/>
+      <c r="F1292" s="2" t="n"/>
     </row>
     <row r="1293">
-      <c r="F1293" s="1" t="n"/>
+      <c r="F1293" s="2" t="n"/>
     </row>
     <row r="1294">
-      <c r="F1294" s="1" t="n"/>
+      <c r="F1294" s="2" t="n"/>
     </row>
     <row r="1295">
-      <c r="F1295" s="1" t="n"/>
+      <c r="F1295" s="2" t="n"/>
     </row>
     <row r="1296">
-      <c r="F1296" s="1" t="n"/>
+      <c r="F1296" s="2" t="n"/>
     </row>
     <row r="1297">
-      <c r="F1297" s="1" t="n"/>
+      <c r="F1297" s="2" t="n"/>
     </row>
     <row r="1298">
-      <c r="F1298" s="1" t="n"/>
+      <c r="F1298" s="2" t="n"/>
     </row>
     <row r="1299">
-      <c r="F1299" s="1" t="n"/>
+      <c r="F1299" s="2" t="n"/>
     </row>
     <row r="1300">
-      <c r="F1300" s="1" t="n"/>
+      <c r="F1300" s="2" t="n"/>
     </row>
     <row r="1301">
-      <c r="F1301" s="1" t="n"/>
+      <c r="F1301" s="2" t="n"/>
     </row>
     <row r="1302">
-      <c r="F1302" s="1" t="n"/>
+      <c r="F1302" s="2" t="n"/>
     </row>
     <row r="1303">
-      <c r="F1303" s="1" t="n"/>
+      <c r="F1303" s="2" t="n"/>
     </row>
     <row r="1304">
-      <c r="F1304" s="1" t="n"/>
+      <c r="F1304" s="2" t="n"/>
     </row>
     <row r="1305">
-      <c r="F1305" s="1" t="n"/>
+      <c r="F1305" s="2" t="n"/>
     </row>
     <row r="1306">
-      <c r="F1306" s="1" t="n"/>
+      <c r="F1306" s="2" t="n"/>
     </row>
     <row r="1307">
-      <c r="F1307" s="1" t="n"/>
+      <c r="F1307" s="2" t="n"/>
     </row>
     <row r="1308">
-      <c r="F1308" s="1" t="n"/>
+      <c r="F1308" s="2" t="n"/>
     </row>
     <row r="1309">
-      <c r="F1309" s="1" t="n"/>
+      <c r="F1309" s="2" t="n"/>
     </row>
     <row r="1310">
-      <c r="F1310" s="1" t="n"/>
+      <c r="F1310" s="2" t="n"/>
     </row>
     <row r="1311">
-      <c r="F1311" s="1" t="n"/>
+      <c r="F1311" s="2" t="n"/>
     </row>
     <row r="1312">
-      <c r="F1312" s="1" t="n"/>
+      <c r="F1312" s="2" t="n"/>
     </row>
     <row r="1313">
-      <c r="F1313" s="1" t="n"/>
+      <c r="F1313" s="2" t="n"/>
     </row>
     <row r="1314">
-      <c r="F1314" s="1" t="n"/>
+      <c r="F1314" s="2" t="n"/>
     </row>
     <row r="1315">
-      <c r="F1315" s="1" t="n"/>
+      <c r="F1315" s="2" t="n"/>
     </row>
     <row r="1316">
-      <c r="F1316" s="1" t="n"/>
+      <c r="F1316" s="2" t="n"/>
     </row>
     <row r="1317">
-      <c r="F1317" s="1" t="n"/>
+      <c r="F1317" s="2" t="n"/>
     </row>
     <row r="1318">
-      <c r="F1318" s="1" t="n"/>
+      <c r="F1318" s="2" t="n"/>
     </row>
     <row r="1319">
-      <c r="F1319" s="1" t="n"/>
+      <c r="F1319" s="2" t="n"/>
     </row>
     <row r="1320">
-      <c r="F1320" s="1" t="n"/>
+      <c r="F1320" s="2" t="n"/>
     </row>
     <row r="1321">
-      <c r="F1321" s="1" t="n"/>
+      <c r="F1321" s="2" t="n"/>
     </row>
     <row r="1322">
-      <c r="F1322" s="1" t="n"/>
+      <c r="F1322" s="2" t="n"/>
     </row>
     <row r="1323">
-      <c r="F1323" s="1" t="n"/>
+      <c r="F1323" s="2" t="n"/>
     </row>
     <row r="1324">
-      <c r="F1324" s="1" t="n"/>
+      <c r="F1324" s="2" t="n"/>
     </row>
     <row r="1325">
-      <c r="F1325" s="1" t="n"/>
+      <c r="F1325" s="2" t="n"/>
     </row>
     <row r="1326">
-      <c r="F1326" s="1" t="n"/>
+      <c r="F1326" s="2" t="n"/>
     </row>
     <row r="1327">
-      <c r="F1327" s="1" t="n"/>
+      <c r="F1327" s="2" t="n"/>
     </row>
     <row r="1328">
-      <c r="F1328" s="1" t="n"/>
+      <c r="F1328" s="2" t="n"/>
     </row>
     <row r="1329">
-      <c r="F1329" s="1" t="n"/>
+      <c r="F1329" s="2" t="n"/>
     </row>
     <row r="1330">
-      <c r="F1330" s="1" t="n"/>
+      <c r="F1330" s="2" t="n"/>
     </row>
     <row r="1331">
-      <c r="F1331" s="1" t="n"/>
+      <c r="F1331" s="2" t="n"/>
     </row>
     <row r="1332">
-      <c r="F1332" s="1" t="n"/>
+      <c r="F1332" s="2" t="n"/>
     </row>
     <row r="1333">
-      <c r="F1333" s="1" t="n"/>
+      <c r="F1333" s="2" t="n"/>
     </row>
     <row r="1334">
-      <c r="F1334" s="1" t="n"/>
+      <c r="F1334" s="2" t="n"/>
     </row>
     <row r="1335">
-      <c r="F1335" s="1" t="n"/>
+      <c r="F1335" s="2" t="n"/>
     </row>
     <row r="1336">
-      <c r="F1336" s="1" t="n"/>
+      <c r="F1336" s="2" t="n"/>
     </row>
     <row r="1337">
-      <c r="F1337" s="1" t="n"/>
+      <c r="F1337" s="2" t="n"/>
     </row>
     <row r="1338">
-      <c r="F1338" s="1" t="n"/>
+      <c r="F1338" s="2" t="n"/>
     </row>
     <row r="1339">
-      <c r="F1339" s="1" t="n"/>
+      <c r="F1339" s="2" t="n"/>
     </row>
     <row r="1340">
-      <c r="F1340" s="1" t="n"/>
+      <c r="F1340" s="2" t="n"/>
     </row>
     <row r="1341">
-      <c r="F1341" s="1" t="n"/>
+      <c r="F1341" s="2" t="n"/>
     </row>
     <row r="1342">
-      <c r="F1342" s="1" t="n"/>
+      <c r="F1342" s="2" t="n"/>
     </row>
     <row r="1343">
-      <c r="F1343" s="1" t="n"/>
+      <c r="F1343" s="2" t="n"/>
     </row>
     <row r="1344">
-      <c r="F1344" s="1" t="n"/>
+      <c r="F1344" s="2" t="n"/>
     </row>
     <row r="1345">
-      <c r="F1345" s="1" t="n"/>
+      <c r="F1345" s="2" t="n"/>
     </row>
     <row r="1346">
-      <c r="F1346" s="1" t="n"/>
+      <c r="F1346" s="2" t="n"/>
     </row>
     <row r="1347">
-      <c r="F1347" s="1" t="n"/>
+      <c r="F1347" s="2" t="n"/>
     </row>
     <row r="1348">
-      <c r="F1348" s="1" t="n"/>
+      <c r="F1348" s="2" t="n"/>
     </row>
     <row r="1349">
-      <c r="F1349" s="1" t="n"/>
+      <c r="F1349" s="2" t="n"/>
     </row>
     <row r="1350">
-      <c r="F1350" s="1" t="n"/>
+      <c r="F1350" s="2" t="n"/>
     </row>
     <row r="1351">
-      <c r="F1351" s="1" t="n"/>
+      <c r="F1351" s="2" t="n"/>
     </row>
     <row r="1352">
-      <c r="F1352" s="1" t="n"/>
+      <c r="F1352" s="2" t="n"/>
     </row>
     <row r="1353">
-      <c r="F1353" s="1" t="n"/>
+      <c r="F1353" s="2" t="n"/>
     </row>
     <row r="1354">
-      <c r="F1354" s="1" t="n"/>
+      <c r="F1354" s="2" t="n"/>
     </row>
     <row r="1355">
-      <c r="F1355" s="1" t="n"/>
+      <c r="F1355" s="2" t="n"/>
     </row>
     <row r="1356">
-      <c r="F1356" s="1" t="n"/>
+      <c r="F1356" s="2" t="n"/>
     </row>
     <row r="1357">
-      <c r="F1357" s="1" t="n"/>
+      <c r="F1357" s="2" t="n"/>
     </row>
     <row r="1358">
-      <c r="F1358" s="1" t="n"/>
+      <c r="F1358" s="2" t="n"/>
     </row>
     <row r="1359">
-      <c r="F1359" s="1" t="n"/>
+      <c r="F1359" s="2" t="n"/>
     </row>
     <row r="1360">
-      <c r="F1360" s="1" t="n"/>
+      <c r="F1360" s="2" t="n"/>
     </row>
     <row r="1361">
-      <c r="F1361" s="1" t="n"/>
+      <c r="F1361" s="2" t="n"/>
     </row>
     <row r="1362">
-      <c r="F1362" s="1" t="n"/>
+      <c r="F1362" s="2" t="n"/>
     </row>
     <row r="1363">
-      <c r="F1363" s="1" t="n"/>
+      <c r="F1363" s="2" t="n"/>
     </row>
     <row r="1364">
-      <c r="F1364" s="1" t="n"/>
+      <c r="F1364" s="2" t="n"/>
     </row>
     <row r="1365">
-      <c r="F1365" s="1" t="n"/>
+      <c r="F1365" s="2" t="n"/>
     </row>
     <row r="1366">
-      <c r="F1366" s="1" t="n"/>
+      <c r="F1366" s="2" t="n"/>
     </row>
     <row r="1367">
-      <c r="F1367" s="1" t="n"/>
+      <c r="F1367" s="2" t="n"/>
     </row>
     <row r="1368">
-      <c r="F1368" s="1" t="n"/>
+      <c r="F1368" s="2" t="n"/>
     </row>
     <row r="1369">
-      <c r="F1369" s="1" t="n"/>
+      <c r="F1369" s="2" t="n"/>
     </row>
     <row r="1370">
-      <c r="F1370" s="1" t="n"/>
+      <c r="F1370" s="2" t="n"/>
     </row>
     <row r="1371">
-      <c r="F1371" s="1" t="n"/>
+      <c r="F1371" s="2" t="n"/>
     </row>
     <row r="1372">
-      <c r="F1372" s="1" t="n"/>
+      <c r="F1372" s="2" t="n"/>
     </row>
     <row r="1373">
-      <c r="F1373" s="1" t="n"/>
+      <c r="F1373" s="2" t="n"/>
     </row>
     <row r="1374">
-      <c r="F1374" s="1" t="n"/>
+      <c r="F1374" s="2" t="n"/>
     </row>
     <row r="1375">
-      <c r="F1375" s="1" t="n"/>
+      <c r="F1375" s="2" t="n"/>
     </row>
     <row r="1376">
-      <c r="F1376" s="1" t="n"/>
+      <c r="F1376" s="2" t="n"/>
     </row>
     <row r="1377">
-      <c r="F1377" s="1" t="n"/>
+      <c r="F1377" s="2" t="n"/>
     </row>
     <row r="1378">
-      <c r="F1378" s="1" t="n"/>
+      <c r="F1378" s="2" t="n"/>
     </row>
     <row r="1379">
-      <c r="F1379" s="1" t="n"/>
+      <c r="F1379" s="2" t="n"/>
     </row>
     <row r="1380">
-      <c r="F1380" s="1" t="n"/>
+      <c r="F1380" s="2" t="n"/>
     </row>
     <row r="1381">
-      <c r="F1381" s="1" t="n"/>
+      <c r="F1381" s="2" t="n"/>
     </row>
     <row r="1382">
-      <c r="F1382" s="1" t="n"/>
+      <c r="F1382" s="2" t="n"/>
     </row>
     <row r="1383">
-      <c r="F1383" s="1" t="n"/>
+      <c r="F1383" s="2" t="n"/>
     </row>
     <row r="1384">
-      <c r="F1384" s="1" t="n"/>
+      <c r="F1384" s="2" t="n"/>
     </row>
     <row r="1385">
-      <c r="F1385" s="1" t="n"/>
+      <c r="F1385" s="2" t="n"/>
     </row>
     <row r="1386">
-      <c r="F1386" s="1" t="n"/>
+      <c r="F1386" s="2" t="n"/>
     </row>
     <row r="1387">
-      <c r="F1387" s="1" t="n"/>
+      <c r="F1387" s="2" t="n"/>
     </row>
     <row r="1388">
-      <c r="F1388" s="1" t="n"/>
+      <c r="F1388" s="2" t="n"/>
     </row>
     <row r="1389">
-      <c r="F1389" s="1" t="n"/>
+      <c r="F1389" s="2" t="n"/>
     </row>
     <row r="1390">
-      <c r="F1390" s="1" t="n"/>
+      <c r="F1390" s="2" t="n"/>
     </row>
     <row r="1391">
-      <c r="F1391" s="1" t="n"/>
+      <c r="F1391" s="2" t="n"/>
     </row>
     <row r="1392">
-      <c r="F1392" s="1" t="n"/>
+      <c r="F1392" s="2" t="n"/>
     </row>
     <row r="1393">
-      <c r="F1393" s="1" t="n"/>
+      <c r="F1393" s="2" t="n"/>
     </row>
     <row r="1394">
-      <c r="F1394" s="1" t="n"/>
+      <c r="F1394" s="2" t="n"/>
     </row>
     <row r="1395">
-      <c r="F1395" s="1" t="n"/>
+      <c r="F1395" s="2" t="n"/>
     </row>
     <row r="1396">
-      <c r="F1396" s="1" t="n"/>
+      <c r="F1396" s="2" t="n"/>
     </row>
     <row r="1397">
-      <c r="F1397" s="1" t="n"/>
+      <c r="F1397" s="2" t="n"/>
     </row>
     <row r="1398">
-      <c r="F1398" s="1" t="n"/>
+      <c r="F1398" s="2" t="n"/>
     </row>
     <row r="1399">
-      <c r="F1399" s="1" t="n"/>
+      <c r="F1399" s="2" t="n"/>
     </row>
     <row r="1400">
-      <c r="F1400" s="1" t="n"/>
+      <c r="F1400" s="2" t="n"/>
     </row>
     <row r="1401">
-      <c r="F1401" s="1" t="n"/>
+      <c r="F1401" s="2" t="n"/>
     </row>
     <row r="1402">
-      <c r="F1402" s="1" t="n"/>
+      <c r="F1402" s="2" t="n"/>
     </row>
     <row r="1403">
-      <c r="F1403" s="1" t="n"/>
+      <c r="F1403" s="2" t="n"/>
     </row>
     <row r="1404">
-      <c r="F1404" s="1" t="n"/>
+      <c r="F1404" s="2" t="n"/>
     </row>
     <row r="1405">
-      <c r="F1405" s="1" t="n"/>
+      <c r="F1405" s="2" t="n"/>
     </row>
     <row r="1406">
-      <c r="F1406" s="1" t="n"/>
+      <c r="F1406" s="2" t="n"/>
     </row>
     <row r="1407">
-      <c r="F1407" s="1" t="n"/>
+      <c r="F1407" s="2" t="n"/>
     </row>
     <row r="1408">
-      <c r="F1408" s="1" t="n"/>
+      <c r="F1408" s="2" t="n"/>
     </row>
     <row r="1409">
-      <c r="F1409" s="1" t="n"/>
+      <c r="F1409" s="2" t="n"/>
     </row>
     <row r="1410">
-      <c r="F1410" s="1" t="n"/>
+      <c r="F1410" s="2" t="n"/>
     </row>
     <row r="1411">
-      <c r="F1411" s="1" t="n"/>
+      <c r="F1411" s="2" t="n"/>
     </row>
     <row r="1412">
-      <c r="F1412" s="1" t="n"/>
+      <c r="F1412" s="2" t="n"/>
     </row>
     <row r="1413">
-      <c r="F1413" s="1" t="n"/>
+      <c r="F1413" s="2" t="n"/>
     </row>
     <row r="1414">
-      <c r="F1414" s="1" t="n"/>
+      <c r="F1414" s="2" t="n"/>
     </row>
     <row r="1415">
-      <c r="F1415" s="1" t="n"/>
+      <c r="F1415" s="2" t="n"/>
     </row>
     <row r="1416">
-      <c r="F1416" s="1" t="n"/>
+      <c r="F1416" s="2" t="n"/>
     </row>
     <row r="1417">
-      <c r="F1417" s="1" t="n"/>
+      <c r="F1417" s="2" t="n"/>
     </row>
     <row r="1418">
-      <c r="F1418" s="1" t="n"/>
+      <c r="F1418" s="2" t="n"/>
     </row>
     <row r="1419">
-      <c r="F1419" s="1" t="n"/>
+      <c r="F1419" s="2" t="n"/>
     </row>
     <row r="1420">
-      <c r="F1420" s="1" t="n"/>
+      <c r="F1420" s="2" t="n"/>
     </row>
     <row r="1421">
-      <c r="F1421" s="1" t="n"/>
+      <c r="F1421" s="2" t="n"/>
     </row>
     <row r="1422">
-      <c r="F1422" s="1" t="n"/>
+      <c r="F1422" s="2" t="n"/>
     </row>
     <row r="1423">
-      <c r="F1423" s="1" t="n"/>
+      <c r="F1423" s="2" t="n"/>
     </row>
     <row r="1424">
-      <c r="F1424" s="1" t="n"/>
+      <c r="F1424" s="2" t="n"/>
     </row>
     <row r="1425">
-      <c r="F1425" s="1" t="n"/>
+      <c r="F1425" s="2" t="n"/>
     </row>
     <row r="1426">
-      <c r="F1426" s="1" t="n"/>
+      <c r="F1426" s="2" t="n"/>
     </row>
     <row r="1427">
-      <c r="F1427" s="1" t="n"/>
+      <c r="F1427" s="2" t="n"/>
     </row>
     <row r="1428">
-      <c r="F1428" s="1" t="n"/>
+      <c r="F1428" s="2" t="n"/>
     </row>
     <row r="1429">
-      <c r="F1429" s="1" t="n"/>
+      <c r="F1429" s="2" t="n"/>
     </row>
     <row r="1430">
-      <c r="F1430" s="1" t="n"/>
+      <c r="F1430" s="2" t="n"/>
     </row>
     <row r="1431">
-      <c r="F1431" s="1" t="n"/>
+      <c r="F1431" s="2" t="n"/>
     </row>
     <row r="1432">
-      <c r="F1432" s="1" t="n"/>
+      <c r="F1432" s="2" t="n"/>
     </row>
     <row r="1433">
-      <c r="F1433" s="1" t="n"/>
+      <c r="F1433" s="2" t="n"/>
     </row>
     <row r="1434">
-      <c r="F1434" s="1" t="n"/>
+      <c r="F1434" s="2" t="n"/>
     </row>
     <row r="1435">
-      <c r="F1435" s="1" t="n"/>
+      <c r="F1435" s="2" t="n"/>
     </row>
     <row r="1436">
-      <c r="F1436" s="1" t="n"/>
+      <c r="F1436" s="2" t="n"/>
     </row>
     <row r="1437">
-      <c r="F1437" s="1" t="n"/>
+      <c r="F1437" s="2" t="n"/>
     </row>
     <row r="1438">
-      <c r="F1438" s="1" t="n"/>
+      <c r="F1438" s="2" t="n"/>
     </row>
     <row r="1439">
-      <c r="F1439" s="1" t="n"/>
+      <c r="F1439" s="2" t="n"/>
     </row>
     <row r="1440">
-      <c r="F1440" s="1" t="n"/>
+      <c r="F1440" s="2" t="n"/>
     </row>
     <row r="1441">
-      <c r="F1441" s="1" t="n"/>
+      <c r="F1441" s="2" t="n"/>
     </row>
     <row r="1442">
-      <c r="F1442" s="1" t="n"/>
+      <c r="F1442" s="2" t="n"/>
     </row>
     <row r="1443">
-      <c r="F1443" s="1" t="n"/>
+      <c r="F1443" s="2" t="n"/>
     </row>
     <row r="1444">
-      <c r="F1444" s="1" t="n"/>
+      <c r="F1444" s="2" t="n"/>
     </row>
     <row r="1445">
-      <c r="F1445" s="1" t="n"/>
+      <c r="F1445" s="2" t="n"/>
     </row>
     <row r="1446">
-      <c r="F1446" s="1" t="n"/>
+      <c r="F1446" s="2" t="n"/>
     </row>
     <row r="1447">
-      <c r="F1447" s="1" t="n"/>
+      <c r="F1447" s="2" t="n"/>
     </row>
     <row r="1448">
-      <c r="F1448" s="1" t="n"/>
+      <c r="F1448" s="2" t="n"/>
     </row>
     <row r="1449">
-      <c r="F1449" s="1" t="n"/>
+      <c r="F1449" s="2" t="n"/>
     </row>
     <row r="1450">
-      <c r="F1450" s="1" t="n"/>
+      <c r="F1450" s="2" t="n"/>
     </row>
     <row r="1451">
-      <c r="F1451" s="1" t="n"/>
+      <c r="F1451" s="2" t="n"/>
     </row>
     <row r="1452">
-      <c r="F1452" s="1" t="n"/>
+      <c r="F1452" s="2" t="n"/>
     </row>
     <row r="1453">
-      <c r="F1453" s="1" t="n"/>
+      <c r="F1453" s="2" t="n"/>
     </row>
     <row r="1454">
-      <c r="F1454" s="1" t="n"/>
+      <c r="F1454" s="2" t="n"/>
     </row>
     <row r="1455">
-      <c r="F1455" s="1" t="n"/>
+      <c r="F1455" s="2" t="n"/>
     </row>
     <row r="1456">
-      <c r="F1456" s="1" t="n"/>
+      <c r="F1456" s="2" t="n"/>
     </row>
     <row r="1457">
-      <c r="F1457" s="1" t="n"/>
+      <c r="F1457" s="2" t="n"/>
     </row>
     <row r="1458">
-      <c r="F1458" s="1" t="n"/>
+      <c r="F1458" s="2" t="n"/>
     </row>
     <row r="1459">
-      <c r="F1459" s="1" t="n"/>
+      <c r="F1459" s="2" t="n"/>
     </row>
     <row r="1460">
-      <c r="F1460" s="1" t="n"/>
+      <c r="F1460" s="2" t="n"/>
     </row>
     <row r="1461">
-      <c r="F1461" s="1" t="n"/>
+      <c r="F1461" s="2" t="n"/>
     </row>
     <row r="1462">
-      <c r="F1462" s="1" t="n"/>
+      <c r="F1462" s="2" t="n"/>
     </row>
     <row r="1463">
-      <c r="F1463" s="1" t="n"/>
+      <c r="F1463" s="2" t="n"/>
     </row>
     <row r="1464">
-      <c r="F1464" s="1" t="n"/>
+      <c r="F1464" s="2" t="n"/>
     </row>
     <row r="1465">
-      <c r="F1465" s="1" t="n"/>
+      <c r="F1465" s="2" t="n"/>
     </row>
     <row r="1466">
-      <c r="F1466" s="1" t="n"/>
+      <c r="F1466" s="2" t="n"/>
     </row>
     <row r="1467">
-      <c r="F1467" s="1" t="n"/>
+      <c r="F1467" s="2" t="n"/>
     </row>
     <row r="1468">
-      <c r="F1468" s="1" t="n"/>
+      <c r="F1468" s="2" t="n"/>
     </row>
     <row r="1469">
-      <c r="F1469" s="1" t="n"/>
+      <c r="F1469" s="2" t="n"/>
     </row>
     <row r="1470">
-      <c r="F1470" s="1" t="n"/>
+      <c r="F1470" s="2" t="n"/>
     </row>
     <row r="1471">
-      <c r="F1471" s="1" t="n"/>
+      <c r="F1471" s="2" t="n"/>
     </row>
     <row r="1472">
-      <c r="F1472" s="1" t="n"/>
+      <c r="F1472" s="2" t="n"/>
     </row>
     <row r="1473">
-      <c r="F1473" s="1" t="n"/>
+      <c r="F1473" s="2" t="n"/>
     </row>
     <row r="1474">
-      <c r="F1474" s="1" t="n"/>
+      <c r="F1474" s="2" t="n"/>
     </row>
     <row r="1475">
-      <c r="F1475" s="1" t="n"/>
+      <c r="F1475" s="2" t="n"/>
     </row>
     <row r="1476">
-      <c r="F1476" s="1" t="n"/>
+      <c r="F1476" s="2" t="n"/>
     </row>
     <row r="1477">
-      <c r="F1477" s="1" t="n"/>
+      <c r="F1477" s="2" t="n"/>
     </row>
     <row r="1478">
-      <c r="F1478" s="1" t="n"/>
+      <c r="F1478" s="2" t="n"/>
     </row>
     <row r="1479">
-      <c r="F1479" s="1" t="n"/>
+      <c r="F1479" s="2" t="n"/>
     </row>
     <row r="1480">
-      <c r="F1480" s="1" t="n"/>
+      <c r="F1480" s="2" t="n"/>
     </row>
     <row r="1481">
-      <c r="F1481" s="1" t="n"/>
+      <c r="F1481" s="2" t="n"/>
     </row>
     <row r="1482">
-      <c r="F1482" s="1" t="n"/>
+      <c r="F1482" s="2" t="n"/>
     </row>
     <row r="1483">
-      <c r="F1483" s="1" t="n"/>
+      <c r="F1483" s="2" t="n"/>
     </row>
     <row r="1484">
-      <c r="F1484" s="1" t="n"/>
+      <c r="F1484" s="2" t="n"/>
     </row>
     <row r="1485">
-      <c r="F1485" s="1" t="n"/>
+      <c r="F1485" s="2" t="n"/>
     </row>
     <row r="1486">
-      <c r="F1486" s="1" t="n"/>
+      <c r="F1486" s="2" t="n"/>
     </row>
     <row r="1487">
-      <c r="F1487" s="1" t="n"/>
+      <c r="F1487" s="2" t="n"/>
     </row>
     <row r="1488">
-      <c r="F1488" s="1" t="n"/>
+      <c r="F1488" s="2" t="n"/>
     </row>
     <row r="1489">
-      <c r="F1489" s="1" t="n"/>
+      <c r="F1489" s="2" t="n"/>
     </row>
     <row r="1490">
-      <c r="F1490" s="1" t="n"/>
+      <c r="F1490" s="2" t="n"/>
     </row>
     <row r="1491">
-      <c r="F1491" s="1" t="n"/>
+      <c r="F1491" s="2" t="n"/>
     </row>
     <row r="1492">
-      <c r="F1492" s="1" t="n"/>
+      <c r="F1492" s="2" t="n"/>
     </row>
     <row r="1493">
-      <c r="F1493" s="1" t="n"/>
+      <c r="F1493" s="2" t="n"/>
     </row>
     <row r="1494">
-      <c r="F1494" s="1" t="n"/>
+      <c r="F1494" s="2" t="n"/>
     </row>
     <row r="1495">
-      <c r="F1495" s="1" t="n"/>
+      <c r="F1495" s="2" t="n"/>
     </row>
     <row r="1496">
-      <c r="F1496" s="1" t="n"/>
+      <c r="F1496" s="2" t="n"/>
     </row>
     <row r="1497">
-      <c r="F1497" s="1" t="n"/>
+      <c r="F1497" s="2" t="n"/>
     </row>
     <row r="1498">
-      <c r="F1498" s="1" t="n"/>
+      <c r="F1498" s="2" t="n"/>
     </row>
     <row r="1499">
-      <c r="F1499" s="1" t="n"/>
+      <c r="F1499" s="2" t="n"/>
     </row>
     <row r="1500">
-      <c r="F1500" s="1" t="n"/>
+      <c r="F1500" s="2" t="n"/>
     </row>
     <row r="1501">
-      <c r="F1501" s="1" t="n"/>
+      <c r="F1501" s="2" t="n"/>
     </row>
     <row r="1502">
-      <c r="F1502" s="1" t="n"/>
+      <c r="F1502" s="2" t="n"/>
     </row>
     <row r="1503">
-      <c r="F1503" s="1" t="n"/>
+      <c r="F1503" s="2" t="n"/>
     </row>
     <row r="1504">
-      <c r="F1504" s="1" t="n"/>
+      <c r="F1504" s="2" t="n"/>
     </row>
     <row r="1505">
-      <c r="F1505" s="1" t="n"/>
+      <c r="F1505" s="2" t="n"/>
     </row>
     <row r="1506">
-      <c r="F1506" s="1" t="n"/>
+      <c r="F1506" s="2" t="n"/>
     </row>
     <row r="1507">
-      <c r="F1507" s="1" t="n"/>
+      <c r="F1507" s="2" t="n"/>
     </row>
     <row r="1508">
-      <c r="F1508" s="1" t="n"/>
+      <c r="F1508" s="2" t="n"/>
     </row>
     <row r="1509">
-      <c r="F1509" s="1" t="n"/>
+      <c r="F1509" s="2" t="n"/>
     </row>
     <row r="1510">
-      <c r="F1510" s="1" t="n"/>
+      <c r="F1510" s="2" t="n"/>
     </row>
     <row r="1511">
-      <c r="F1511" s="1" t="n"/>
+      <c r="F1511" s="2" t="n"/>
     </row>
     <row r="1512">
-      <c r="F1512" s="1" t="n"/>
+      <c r="F1512" s="2" t="n"/>
     </row>
     <row r="1513">
-      <c r="F1513" s="1" t="n"/>
+      <c r="F1513" s="2" t="n"/>
     </row>
     <row r="1514">
-      <c r="F1514" s="1" t="n"/>
+      <c r="F1514" s="2" t="n"/>
     </row>
     <row r="1515">
-      <c r="F1515" s="1" t="n"/>
+      <c r="F1515" s="2" t="n"/>
     </row>
     <row r="1516">
-      <c r="F1516" s="1" t="n"/>
+      <c r="F1516" s="2" t="n"/>
     </row>
     <row r="1517">
-      <c r="F1517" s="1" t="n"/>
+      <c r="F1517" s="2" t="n"/>
     </row>
     <row r="1518">
-      <c r="F1518" s="1" t="n"/>
+      <c r="F1518" s="2" t="n"/>
     </row>
     <row r="1519">
-      <c r="F1519" s="1" t="n"/>
+      <c r="F1519" s="2" t="n"/>
     </row>
     <row r="1520">
-      <c r="F1520" s="1" t="n"/>
+      <c r="F1520" s="2" t="n"/>
     </row>
     <row r="1521">
-      <c r="F1521" s="1" t="n"/>
+      <c r="F1521" s="2" t="n"/>
     </row>
     <row r="1522">
-      <c r="F1522" s="1" t="n"/>
+      <c r="F1522" s="2" t="n"/>
     </row>
     <row r="1523">
-      <c r="F1523" s="1" t="n"/>
+      <c r="F1523" s="2" t="n"/>
     </row>
     <row r="1524">
-      <c r="F1524" s="1" t="n"/>
+      <c r="F1524" s="2" t="n"/>
     </row>
     <row r="1525">
-      <c r="F1525" s="1" t="n"/>
+      <c r="F1525" s="2" t="n"/>
     </row>
     <row r="1526">
-      <c r="F1526" s="1" t="n"/>
+      <c r="F1526" s="2" t="n"/>
     </row>
     <row r="1527">
-      <c r="F1527" s="1" t="n"/>
+      <c r="F1527" s="2" t="n"/>
     </row>
     <row r="1528">
-      <c r="F1528" s="1" t="n"/>
+      <c r="F1528" s="2" t="n"/>
     </row>
     <row r="1529">
-      <c r="F1529" s="1" t="n"/>
+      <c r="F1529" s="2" t="n"/>
     </row>
     <row r="1530">
-      <c r="F1530" s="1" t="n"/>
+      <c r="F1530" s="2" t="n"/>
     </row>
     <row r="1531">
-      <c r="F1531" s="1" t="n"/>
+      <c r="F1531" s="2" t="n"/>
     </row>
     <row r="1532">
-      <c r="F1532" s="1" t="n"/>
+      <c r="F1532" s="2" t="n"/>
     </row>
     <row r="1533">
-      <c r="F1533" s="1" t="n"/>
+      <c r="F1533" s="2" t="n"/>
     </row>
     <row r="1534">
-      <c r="F1534" s="1" t="n"/>
+      <c r="F1534" s="2" t="n"/>
     </row>
     <row r="1535">
-      <c r="F1535" s="1" t="n"/>
+      <c r="F1535" s="2" t="n"/>
     </row>
     <row r="1536">
-      <c r="F1536" s="1" t="n"/>
+      <c r="F1536" s="2" t="n"/>
     </row>
     <row r="1537">
-      <c r="F1537" s="1" t="n"/>
+      <c r="F1537" s="2" t="n"/>
     </row>
     <row r="1538">
-      <c r="F1538" s="1" t="n"/>
+      <c r="F1538" s="2" t="n"/>
     </row>
     <row r="1539">
-      <c r="F1539" s="1" t="n"/>
+      <c r="F1539" s="2" t="n"/>
     </row>
     <row r="1540">
-      <c r="F1540" s="1" t="n"/>
+      <c r="F1540" s="2" t="n"/>
     </row>
     <row r="1541">
-      <c r="F1541" s="1" t="n"/>
+      <c r="F1541" s="2" t="n"/>
     </row>
     <row r="1542">
-      <c r="F1542" s="1" t="n"/>
+      <c r="F1542" s="2" t="n"/>
     </row>
     <row r="1543">
-      <c r="F1543" s="1" t="n"/>
+      <c r="F1543" s="2" t="n"/>
     </row>
     <row r="1544">
-      <c r="F1544" s="1" t="n"/>
+      <c r="F1544" s="2" t="n"/>
     </row>
     <row r="1545">
-      <c r="F1545" s="1" t="n"/>
+      <c r="F1545" s="2" t="n"/>
     </row>
     <row r="1546">
-      <c r="F1546" s="1" t="n"/>
+      <c r="F1546" s="2" t="n"/>
     </row>
     <row r="1547">
-      <c r="F1547" s="1" t="n"/>
+      <c r="F1547" s="2" t="n"/>
     </row>
     <row r="1548">
-      <c r="F1548" s="1" t="n"/>
+      <c r="F1548" s="2" t="n"/>
     </row>
     <row r="1549">
-      <c r="F1549" s="1" t="n"/>
+      <c r="F1549" s="2" t="n"/>
     </row>
     <row r="1550">
-      <c r="F1550" s="1" t="n"/>
+      <c r="F1550" s="2" t="n"/>
     </row>
     <row r="1551">
-      <c r="F1551" s="1" t="n"/>
+      <c r="F1551" s="2" t="n"/>
     </row>
     <row r="1552">
-      <c r="F1552" s="1" t="n"/>
+      <c r="F1552" s="2" t="n"/>
     </row>
     <row r="1553">
-      <c r="F1553" s="1" t="n"/>
+      <c r="F1553" s="2" t="n"/>
     </row>
     <row r="1554">
-      <c r="F1554" s="1" t="n"/>
+      <c r="F1554" s="2" t="n"/>
     </row>
     <row r="1555">
-      <c r="F1555" s="1" t="n"/>
+      <c r="F1555" s="2" t="n"/>
     </row>
     <row r="1556">
-      <c r="F1556" s="1" t="n"/>
+      <c r="F1556" s="2" t="n"/>
     </row>
     <row r="1557">
-      <c r="F1557" s="1" t="n"/>
+      <c r="F1557" s="2" t="n"/>
     </row>
     <row r="1558">
-      <c r="F1558" s="1" t="n"/>
+      <c r="F1558" s="2" t="n"/>
     </row>
     <row r="1559">
-      <c r="F1559" s="1" t="n"/>
+      <c r="F1559" s="2" t="n"/>
     </row>
     <row r="1560">
-      <c r="F1560" s="1" t="n"/>
+      <c r="F1560" s="2" t="n"/>
     </row>
     <row r="1561">
-      <c r="F1561" s="1" t="n"/>
+      <c r="F1561" s="2" t="n"/>
     </row>
     <row r="1562">
-      <c r="F1562" s="1" t="n"/>
+      <c r="F1562" s="2" t="n"/>
     </row>
     <row r="1563">
-      <c r="F1563" s="1" t="n"/>
+      <c r="F1563" s="2" t="n"/>
     </row>
     <row r="1564">
-      <c r="F1564" s="1" t="n"/>
+      <c r="F1564" s="2" t="n"/>
     </row>
     <row r="1565">
-      <c r="F1565" s="1" t="n"/>
+      <c r="F1565" s="2" t="n"/>
     </row>
     <row r="1566">
-      <c r="F1566" s="1" t="n"/>
+      <c r="F1566" s="2" t="n"/>
     </row>
     <row r="1567">
-      <c r="F1567" s="1" t="n"/>
+      <c r="F1567" s="2" t="n"/>
     </row>
     <row r="1568">
-      <c r="F1568" s="1" t="n"/>
+      <c r="F1568" s="2" t="n"/>
     </row>
     <row r="1569">
-      <c r="F1569" s="1" t="n"/>
+      <c r="F1569" s="2" t="n"/>
     </row>
     <row r="1570">
-      <c r="F1570" s="1" t="n"/>
+      <c r="F1570" s="2" t="n"/>
     </row>
     <row r="1571">
-      <c r="F1571" s="1" t="n"/>
+      <c r="F1571" s="2" t="n"/>
     </row>
     <row r="1572">
-      <c r="F1572" s="1" t="n"/>
+      <c r="F1572" s="2" t="n"/>
     </row>
     <row r="1573">
-      <c r="F1573" s="1" t="n"/>
+      <c r="F1573" s="2" t="n"/>
     </row>
     <row r="1574">
-      <c r="F1574" s="1" t="n"/>
+      <c r="F1574" s="2" t="n"/>
     </row>
     <row r="1575">
-      <c r="F1575" s="1" t="n"/>
+      <c r="F1575" s="2" t="n"/>
     </row>
     <row r="1576">
-      <c r="F1576" s="1" t="n"/>
+      <c r="F1576" s="2" t="n"/>
     </row>
     <row r="1577">
-      <c r="F1577" s="1" t="n"/>
+      <c r="F1577" s="2" t="n"/>
     </row>
     <row r="1578">
-      <c r="F1578" s="1" t="n"/>
+      <c r="F1578" s="2" t="n"/>
     </row>
     <row r="1579">
-      <c r="F1579" s="1" t="n"/>
+      <c r="F1579" s="2" t="n"/>
     </row>
     <row r="1580">
-      <c r="F1580" s="1" t="n"/>
+      <c r="F1580" s="2" t="n"/>
     </row>
     <row r="1581">
-      <c r="F1581" s="1" t="n"/>
+      <c r="F1581" s="2" t="n"/>
     </row>
     <row r="1582">
-      <c r="F1582" s="1" t="n"/>
+      <c r="F1582" s="2" t="n"/>
     </row>
     <row r="1583">
-      <c r="F1583" s="1" t="n"/>
+      <c r="F1583" s="2" t="n"/>
     </row>
     <row r="1584">
-      <c r="F1584" s="1" t="n"/>
+      <c r="F1584" s="2" t="n"/>
     </row>
     <row r="1585">
-      <c r="F1585" s="1" t="n"/>
+      <c r="F1585" s="2" t="n"/>
     </row>
     <row r="1586">
-      <c r="F1586" s="1" t="n"/>
+      <c r="F1586" s="2" t="n"/>
     </row>
     <row r="1587">
-      <c r="F1587" s="1" t="n"/>
+      <c r="F1587" s="2" t="n"/>
     </row>
     <row r="1588">
-      <c r="F1588" s="1" t="n"/>
+      <c r="F1588" s="2" t="n"/>
     </row>
     <row r="1589">
-      <c r="F1589" s="1" t="n"/>
+      <c r="F1589" s="2" t="n"/>
     </row>
     <row r="1590">
-      <c r="F1590" s="1" t="n"/>
+      <c r="F1590" s="2" t="n"/>
     </row>
     <row r="1591">
-      <c r="F1591" s="1" t="n"/>
+      <c r="F1591" s="2" t="n"/>
     </row>
     <row r="1592">
-      <c r="F1592" s="1" t="n"/>
+      <c r="F1592" s="2" t="n"/>
     </row>
     <row r="1593">
-      <c r="F1593" s="1" t="n"/>
+      <c r="F1593" s="2" t="n"/>
     </row>
     <row r="1594">
-      <c r="F1594" s="1" t="n"/>
+      <c r="F1594" s="2" t="n"/>
     </row>
     <row r="1595">
-      <c r="F1595" s="1" t="n"/>
+      <c r="F1595" s="2" t="n"/>
     </row>
     <row r="1596">
-      <c r="F1596" s="1" t="n"/>
+      <c r="F1596" s="2" t="n"/>
     </row>
     <row r="1597">
-      <c r="F1597" s="1" t="n"/>
+      <c r="F1597" s="2" t="n"/>
     </row>
     <row r="1598">
-      <c r="F1598" s="1" t="n"/>
+      <c r="F1598" s="2" t="n"/>
     </row>
     <row r="1599">
-      <c r="F1599" s="1" t="n"/>
+      <c r="F1599" s="2" t="n"/>
     </row>
     <row r="1600">
-      <c r="F1600" s="1" t="n"/>
+      <c r="F1600" s="2" t="n"/>
     </row>
     <row r="1601">
-      <c r="F1601" s="1" t="n"/>
+      <c r="F1601" s="2" t="n"/>
     </row>
     <row r="1602">
-      <c r="F1602" s="1" t="n"/>
+      <c r="F1602" s="2" t="n"/>
     </row>
     <row r="1603">
-      <c r="F1603" s="1" t="n"/>
+      <c r="F1603" s="2" t="n"/>
     </row>
     <row r="1604">
-      <c r="F1604" s="1" t="n"/>
+      <c r="F1604" s="2" t="n"/>
     </row>
     <row r="1605">
-      <c r="F1605" s="1" t="n"/>
+      <c r="F1605" s="2" t="n"/>
     </row>
     <row r="1606">
-      <c r="F1606" s="1" t="n"/>
+      <c r="F1606" s="2" t="n"/>
     </row>
     <row r="1607">
-      <c r="F1607" s="1" t="n"/>
+      <c r="F1607" s="2" t="n"/>
     </row>
     <row r="1608">
-      <c r="F1608" s="1" t="n"/>
+      <c r="F1608" s="2" t="n"/>
     </row>
     <row r="1609">
-      <c r="F1609" s="1" t="n"/>
+      <c r="F1609" s="2" t="n"/>
     </row>
     <row r="1610">
-      <c r="F1610" s="1" t="n"/>
+      <c r="F1610" s="2" t="n"/>
     </row>
     <row r="1611">
-      <c r="F1611" s="1" t="n"/>
+      <c r="F1611" s="2" t="n"/>
     </row>
     <row r="1612">
-      <c r="F1612" s="1" t="n"/>
+      <c r="F1612" s="2" t="n"/>
     </row>
     <row r="1613">
-      <c r="F1613" s="1" t="n"/>
+      <c r="F1613" s="2" t="n"/>
     </row>
     <row r="1614">
-      <c r="F1614" s="1" t="n"/>
+      <c r="F1614" s="2" t="n"/>
     </row>
     <row r="1615">
-      <c r="F1615" s="1" t="n"/>
+      <c r="F1615" s="2" t="n"/>
     </row>
     <row r="1616">
-      <c r="F1616" s="1" t="n"/>
+      <c r="F1616" s="2" t="n"/>
     </row>
     <row r="1617">
-      <c r="F1617" s="1" t="n"/>
+      <c r="F1617" s="2" t="n"/>
     </row>
     <row r="1618">
-      <c r="F1618" s="1" t="n"/>
+      <c r="F1618" s="2" t="n"/>
     </row>
     <row r="1619">
-      <c r="F1619" s="1" t="n"/>
+      <c r="F1619" s="2" t="n"/>
     </row>
     <row r="1620">
-      <c r="F1620" s="1" t="n"/>
+      <c r="F1620" s="2" t="n"/>
     </row>
     <row r="1621">
-      <c r="F1621" s="1" t="n"/>
+      <c r="F1621" s="2" t="n"/>
     </row>
     <row r="1622">
-      <c r="F1622" s="1" t="n"/>
+      <c r="F1622" s="2" t="n"/>
     </row>
     <row r="1623">
-      <c r="F1623" s="1" t="n"/>
+      <c r="F1623" s="2" t="n"/>
     </row>
     <row r="1624">
-      <c r="F1624" s="1" t="n"/>
+      <c r="F1624" s="2" t="n"/>
     </row>
     <row r="1625">
-      <c r="F1625" s="1" t="n"/>
+      <c r="F1625" s="2" t="n"/>
     </row>
     <row r="1626">
-      <c r="F1626" s="1" t="n"/>
+      <c r="F1626" s="2" t="n"/>
     </row>
     <row r="1627">
-      <c r="F1627" s="1" t="n"/>
+      <c r="F1627" s="2" t="n"/>
     </row>
     <row r="1628">
-      <c r="F1628" s="1" t="n"/>
+      <c r="F1628" s="2" t="n"/>
     </row>
     <row r="1629">
-      <c r="F1629" s="1" t="n"/>
+      <c r="F1629" s="2" t="n"/>
     </row>
     <row r="1630">
-      <c r="F1630" s="1" t="n"/>
+      <c r="F1630" s="2" t="n"/>
     </row>
     <row r="1631">
-      <c r="F1631" s="1" t="n"/>
+      <c r="F1631" s="2" t="n"/>
     </row>
     <row r="1632">
-      <c r="F1632" s="1" t="n"/>
+      <c r="F1632" s="2" t="n"/>
     </row>
     <row r="1633">
-      <c r="F1633" s="1" t="n"/>
+      <c r="F1633" s="2" t="n"/>
     </row>
     <row r="1634">
-      <c r="F1634" s="1" t="n"/>
+      <c r="F1634" s="2" t="n"/>
     </row>
     <row r="1635">
-      <c r="F1635" s="1" t="n"/>
+      <c r="F1635" s="2" t="n"/>
     </row>
     <row r="1636">
-      <c r="F1636" s="1" t="n"/>
+      <c r="F1636" s="2" t="n"/>
     </row>
     <row r="1637">
-      <c r="F1637" s="1" t="n"/>
+      <c r="F1637" s="2" t="n"/>
     </row>
     <row r="1638">
-      <c r="F1638" s="1" t="n"/>
+      <c r="F1638" s="2" t="n"/>
     </row>
     <row r="1639">
-      <c r="F1639" s="1" t="n"/>
+      <c r="F1639" s="2" t="n"/>
     </row>
     <row r="1640">
-      <c r="F1640" s="1" t="n"/>
+      <c r="F1640" s="2" t="n"/>
     </row>
     <row r="1641">
-      <c r="F1641" s="1" t="n"/>
+      <c r="F1641" s="2" t="n"/>
     </row>
     <row r="1642">
-      <c r="F1642" s="1" t="n"/>
+      <c r="F1642" s="2" t="n"/>
     </row>
     <row r="1643">
-      <c r="F1643" s="1" t="n"/>
+      <c r="F1643" s="2" t="n"/>
     </row>
     <row r="1644">
-      <c r="F1644" s="1" t="n"/>
+      <c r="F1644" s="2" t="n"/>
     </row>
     <row r="1645">
-      <c r="F1645" s="1" t="n"/>
+      <c r="F1645" s="2" t="n"/>
     </row>
     <row r="1646">
-      <c r="F1646" s="1" t="n"/>
+      <c r="F1646" s="2" t="n"/>
     </row>
     <row r="1647">
-      <c r="F1647" s="1" t="n"/>
+      <c r="F1647" s="2" t="n"/>
     </row>
     <row r="1648">
-      <c r="F1648" s="1" t="n"/>
+      <c r="F1648" s="2" t="n"/>
     </row>
     <row r="1649">
-      <c r="F1649" s="1" t="n"/>
+      <c r="F1649" s="2" t="n"/>
     </row>
     <row r="1650">
-      <c r="F1650" s="1" t="n"/>
+      <c r="F1650" s="2" t="n"/>
     </row>
     <row r="1651">
-      <c r="F1651" s="1" t="n"/>
+      <c r="F1651" s="2" t="n"/>
     </row>
     <row r="1652">
-      <c r="F1652" s="1" t="n"/>
+      <c r="F1652" s="2" t="n"/>
     </row>
     <row r="1653">
-      <c r="F1653" s="1" t="n"/>
+      <c r="F1653" s="2" t="n"/>
     </row>
     <row r="1654">
-      <c r="F1654" s="1" t="n"/>
+      <c r="F1654" s="2" t="n"/>
     </row>
     <row r="1655">
-      <c r="F1655" s="1" t="n"/>
+      <c r="F1655" s="2" t="n"/>
     </row>
     <row r="1656">
-      <c r="F1656" s="1" t="n"/>
+      <c r="F1656" s="2" t="n"/>
     </row>
     <row r="1657">
-      <c r="F1657" s="1" t="n"/>
+      <c r="F1657" s="2" t="n"/>
     </row>
     <row r="1658">
-      <c r="F1658" s="1" t="n"/>
+      <c r="F1658" s="2" t="n"/>
     </row>
     <row r="1659">
-      <c r="F1659" s="1" t="n"/>
+      <c r="F1659" s="2" t="n"/>
     </row>
     <row r="1660">
-      <c r="F1660" s="1" t="n"/>
+      <c r="F1660" s="2" t="n"/>
     </row>
     <row r="1661">
-      <c r="F1661" s="1" t="n"/>
+      <c r="F1661" s="2" t="n"/>
     </row>
     <row r="1662">
-      <c r="F1662" s="1" t="n"/>
+      <c r="F1662" s="2" t="n"/>
     </row>
     <row r="1663">
-      <c r="F1663" s="1" t="n"/>
+      <c r="F1663" s="2" t="n"/>
     </row>
     <row r="1664">
-      <c r="F1664" s="1" t="n"/>
+      <c r="F1664" s="2" t="n"/>
     </row>
     <row r="1665">
-      <c r="F1665" s="1" t="n"/>
+      <c r="F1665" s="2" t="n"/>
     </row>
     <row r="1666">
-      <c r="F1666" s="1" t="n"/>
+      <c r="F1666" s="2" t="n"/>
     </row>
     <row r="1667">
-      <c r="F1667" s="1" t="n"/>
+      <c r="F1667" s="2" t="n"/>
     </row>
     <row r="1668">
-      <c r="F1668" s="1" t="n"/>
+      <c r="F1668" s="2" t="n"/>
     </row>
     <row r="1669">
-      <c r="F1669" s="1" t="n"/>
+      <c r="F1669" s="2" t="n"/>
     </row>
     <row r="1670">
-      <c r="F1670" s="1" t="n"/>
+      <c r="F1670" s="2" t="n"/>
     </row>
     <row r="1671">
-      <c r="F1671" s="1" t="n"/>
+      <c r="F1671" s="2" t="n"/>
     </row>
     <row r="1672">
-      <c r="F1672" s="1" t="n"/>
+      <c r="F1672" s="2" t="n"/>
     </row>
     <row r="1673">
-      <c r="F1673" s="1" t="n"/>
+      <c r="F1673" s="2" t="n"/>
     </row>
     <row r="1674">
-      <c r="F1674" s="1" t="n"/>
+      <c r="F1674" s="2" t="n"/>
     </row>
     <row r="1675">
-      <c r="F1675" s="1" t="n"/>
+      <c r="F1675" s="2" t="n"/>
     </row>
     <row r="1676">
-      <c r="F1676" s="1" t="n"/>
+      <c r="F1676" s="2" t="n"/>
     </row>
     <row r="1677">
-      <c r="F1677" s="1" t="n"/>
+      <c r="F1677" s="2" t="n"/>
     </row>
     <row r="1678">
-      <c r="F1678" s="1" t="n"/>
+      <c r="F1678" s="2" t="n"/>
     </row>
     <row r="1679">
-      <c r="F1679" s="1" t="n"/>
+      <c r="F1679" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1679">
